--- a/Debug Output/dubg_trials.xlsx
+++ b/Debug Output/dubg_trials.xlsx
@@ -381,7 +381,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -393,7 +393,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -405,7 +405,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -417,7 +417,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -429,7 +429,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -441,7 +441,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -453,7 +453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -465,7 +465,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -477,7 +477,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -501,7 +501,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sentence neg - 33</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -537,7 +537,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -549,7 +549,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sentence neg - 28</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -561,7 +561,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -573,7 +573,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sentence neg - 63</t>
+          <t>Sentence neg - 139</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -597,7 +597,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sentence neg - 23</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -633,7 +633,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence neg - 133</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -669,7 +669,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sentence neg - 44</t>
+          <t>Sentence neg - 124</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -705,7 +705,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence neg - 130</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -729,7 +729,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -741,7 +741,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -765,7 +765,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sentence neg - 49</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -789,7 +789,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sentence neg - 33</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -801,7 +801,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -813,7 +813,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -825,7 +825,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sentence neg - 28</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -837,7 +837,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -849,7 +849,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence neg - 139</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -861,7 +861,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sentence neg - 63</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sentence neg - 23</t>
+          <t>Sentence neg - 133</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -885,7 +885,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -897,7 +897,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -909,7 +909,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -921,7 +921,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -933,7 +933,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sentence neg - 44</t>
+          <t>Sentence neg - 124</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -945,7 +945,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -981,7 +981,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 130</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -993,7 +993,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sentence neg - 49</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1005,7 +1005,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sentence neg - 33</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1017,7 +1017,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1029,7 +1029,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1041,7 +1041,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1053,7 +1053,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sentence neg - 28</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1077,7 +1077,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1089,7 +1089,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1101,7 +1101,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1113,7 +1113,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1125,7 +1125,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sentence neg - 63</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1137,7 +1137,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1149,7 +1149,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1161,7 +1161,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1173,7 +1173,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1185,7 +1185,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sentence neg - 23</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1197,7 +1197,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence neg - 139</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1209,7 +1209,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1233,7 +1233,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence neg - 133</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 124</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1269,7 +1269,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1281,7 +1281,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence neg - 130</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1293,7 +1293,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1305,7 +1305,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1317,7 +1317,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1329,7 +1329,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1341,7 +1341,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sentence neg - 44</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1353,7 +1353,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1365,7 +1365,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1377,7 +1377,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1389,7 +1389,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1401,7 +1401,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1413,7 +1413,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sentence neg - 49</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1425,7 +1425,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sentence neg - 63</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1437,7 +1437,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1449,7 +1449,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1461,7 +1461,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sentence ntr - 84</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1473,7 +1473,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1485,7 +1485,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1497,7 +1497,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1509,7 +1509,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1521,7 +1521,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1533,7 +1533,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1545,7 +1545,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1569,7 +1569,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1581,7 +1581,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1593,7 +1593,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 133</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1605,7 +1605,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sentence neg - 21</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1617,7 +1617,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence neg - 130</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1629,7 +1629,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1641,7 +1641,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1653,7 +1653,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sentence neg - 12</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1665,7 +1665,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1677,7 +1677,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sentence neg - 46</t>
+          <t>Sentence neg - 137</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1689,7 +1689,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1701,7 +1701,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1713,7 +1713,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sentence ntr - 77</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1725,7 +1725,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1737,7 +1737,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sentence neg - 31</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1749,7 +1749,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sentence neg - 1</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1761,7 +1761,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sentence neg - 49</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1785,7 +1785,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1797,7 +1797,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sentence neg - 63</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1809,7 +1809,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1821,7 +1821,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1833,7 +1833,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sentence neg - 28</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1845,7 +1845,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1857,7 +1857,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence neg - 135</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1869,7 +1869,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1881,7 +1881,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1893,7 +1893,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sentence neg - 3</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1905,7 +1905,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sentence neg - 21</t>
+          <t>Sentence neg - 133</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1917,7 +1917,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence neg - 130</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1929,7 +1929,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -1941,7 +1941,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence neg - 137</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -1953,7 +1953,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sentence ntr - 77</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -1965,7 +1965,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -1977,7 +1977,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -1989,7 +1989,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2001,7 +2001,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Sentence neg - 12</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2013,7 +2013,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2025,7 +2025,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sentence neg - 46</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2037,7 +2037,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2049,7 +2049,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sentence neg - 31</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2061,7 +2061,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sentence neg - 1</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2073,7 +2073,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 135</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2085,7 +2085,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2097,7 +2097,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sentence neg - 49</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2109,7 +2109,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2121,7 +2121,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sentence neg - 63</t>
+          <t>Sentence neg - 133</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2133,7 +2133,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sentence neg - 28</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2145,7 +2145,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2169,7 +2169,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sentence neg - 3</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2181,7 +2181,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2193,7 +2193,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sentence neg - 21</t>
+          <t>Sentence neg - 130</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2205,7 +2205,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2217,7 +2217,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2241,7 +2241,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2253,7 +2253,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 137</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2265,7 +2265,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sentence neg - 12</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2277,7 +2277,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2289,7 +2289,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2301,7 +2301,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sentence neg - 46</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2313,7 +2313,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2325,7 +2325,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sentence neg - 31</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2337,7 +2337,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2349,7 +2349,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2361,7 +2361,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sentence neg - 1</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2373,7 +2373,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sentence neg - 49</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2385,7 +2385,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2397,7 +2397,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Sentence neg - 63</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2409,7 +2409,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2421,7 +2421,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sentence neg - 28</t>
+          <t>Sentence neg - 135</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2433,7 +2433,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2445,7 +2445,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sentence neg - 3</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2457,7 +2457,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sentence ntr - 77</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2469,7 +2469,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sentence neg - 21</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2481,7 +2481,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">

--- a/Debug Output/dubg_trials.xlsx
+++ b/Debug Output/dubg_trials.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B177"/>
+  <dimension ref="A1:B181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -381,7 +381,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -393,7 +393,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -405,7 +405,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -417,7 +417,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -429,7 +429,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -441,7 +441,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -453,7 +453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -465,7 +465,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -477,7 +477,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -501,7 +501,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sentence neg - 33</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -537,7 +537,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -549,7 +549,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sentence neg - 28</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -561,7 +561,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -573,7 +573,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sentence neg - 63</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -597,7 +597,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sentence neg - 23</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -633,7 +633,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -657,828 +657,828 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sentence neg - 44</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence neg - 130</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sentence neg - 49</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sentence neg - 33</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence neg - 128</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sentence neg - 28</t>
+          <t>Sentence neg - 130</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sentence neg - 63</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sentence neg - 23</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence neg - 128</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sentence neg - 44</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sentence neg - 49</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sentence neg - 33</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sentence neg - 28</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence neg - 135</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sentence neg - 63</t>
+          <t>Sentence neg - 139</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 124</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sentence neg - 23</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 138</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 127</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sentence neg - 44</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sentence neg - 49</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sentence neg - 63</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sentence ntr - 84</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
@@ -1490,319 +1490,319 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence neg - 132</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sentence neg - 21</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence neg - 135</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sentence neg - 12</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sentence neg - 46</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence neg - 139</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sentence ntr - 77</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sentence neg - 31</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sentence neg - 1</t>
+          <t>Sentence neg - 124</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sentence neg - 49</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sentence neg - 63</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
@@ -1814,683 +1814,731 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 138</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sentence neg - 28</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sentence neg - 3</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sentence neg - 21</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 127</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sentence ntr - 77</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Sentence neg - 12</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sentence neg - 46</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sentence neg - 31</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sentence neg - 1</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sentence neg - 49</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 132</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sentence neg - 63</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sentence neg - 28</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sentence neg - 3</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sentence neg - 21</t>
+          <t>Sentence neg - 138</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence neg - 127</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence neg - 132</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sentence neg - 12</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sentence neg - 46</t>
+          <t>Sentence neg - 128</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sentence neg - 31</t>
+          <t>Sentence neg - 130</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sentence neg - 1</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sentence neg - 49</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Sentence neg - 63</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sentence neg - 28</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence neg - 133</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sentence neg - 3</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sentence ntr - 77</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sentence neg - 21</t>
+          <t>Sentence ntr - 117</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Sentence neg - 15</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Sentence ntr - 80</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Sentence ntr - 92</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Sentence ntr - 72</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Debug Output/dubg_trials.xlsx
+++ b/Debug Output/dubg_trials.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B181"/>
+  <dimension ref="A1:B177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -381,7 +381,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -393,7 +393,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -405,7 +405,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -417,7 +417,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -429,7 +429,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -441,7 +441,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sentence neg - 125</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -453,7 +453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -465,7 +465,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -477,7 +477,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -501,7 +501,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -537,7 +537,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -549,7 +549,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -561,7 +561,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -573,7 +573,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence neg - 137</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -597,7 +597,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sentence neg - 125</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -633,7 +633,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -657,792 +657,792 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sentence neg - 130</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence neg - 127</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence neg - 139</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sentence neg - 128</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sentence neg - 130</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sentence neg - 128</t>
+          <t>Sentence neg - 137</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence neg - 127</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence neg - 139</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sentence neg - 135</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence neg - 137</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sentence neg - 124</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sentence neg - 138</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sentence neg - 125</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sentence neg - 127</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence neg - 127</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence neg - 139</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sentence neg - 136</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -1454,1087 +1454,1039 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sentence neg - 132</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 117</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sentence neg - 135</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence neg - 135</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 137</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 139</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sentence neg - 124</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence neg - 132</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sentence neg - 138</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence neg - 135</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sentence neg - 125</t>
+          <t>Sentence neg - 137</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sentence neg - 127</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sentence neg - 136</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence neg - 139</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence neg - 132</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sentence neg - 132</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence neg - 135</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sentence neg - 138</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Sentence neg - 127</t>
+          <t>Sentence neg - 137</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sentence neg - 132</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence neg - 139</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sentence neg - 128</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sentence neg - 130</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence neg - 132</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sentence neg - 133</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sentence ntr - 117</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>Sentence neg - 15</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>MAB_phase</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>Sentence ntr - 80</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>MAB_phase</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>Sentence ntr - 92</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>MAB_phase</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>Sentence ntr - 72</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>MAB_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>

--- a/Debug Output/dubg_trials.xlsx
+++ b/Debug Output/dubg_trials.xlsx
@@ -381,7 +381,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -393,7 +393,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -405,7 +405,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -417,7 +417,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 117</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -429,7 +429,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -453,7 +453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -465,7 +465,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -477,7 +477,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sentence neg - 125</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -537,7 +537,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -549,7 +549,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -561,7 +561,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 128</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -573,7 +573,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -597,7 +597,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -633,7 +633,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sentence neg - 133</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -669,7 +669,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sentence neg - 124</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence neg - 138</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -705,7 +705,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sentence neg - 130</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -729,7 +729,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -741,7 +741,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -753,7 +753,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -765,7 +765,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -789,7 +789,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence neg - 137</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -801,7 +801,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -813,7 +813,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sentence neg - 125</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -825,7 +825,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence neg - 132</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -837,7 +837,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -849,7 +849,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -861,7 +861,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sentence neg - 133</t>
+          <t>Sentence neg - 128</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -885,7 +885,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -897,7 +897,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -909,7 +909,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -921,7 +921,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -933,7 +933,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sentence neg - 124</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -945,7 +945,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -981,7 +981,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sentence neg - 130</t>
+          <t>Sentence neg - 138</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -993,7 +993,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1005,7 +1005,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1017,7 +1017,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1029,7 +1029,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1041,7 +1041,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1053,7 +1053,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1077,7 +1077,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence neg - 137</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1089,7 +1089,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence neg - 132</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1101,7 +1101,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sentence neg - 125</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1113,7 +1113,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1125,7 +1125,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence neg - 128</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1137,7 +1137,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1149,7 +1149,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1161,7 +1161,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1173,7 +1173,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1185,7 +1185,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1197,7 +1197,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1209,7 +1209,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1233,7 +1233,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 138</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sentence neg - 133</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sentence neg - 124</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1269,7 +1269,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1281,7 +1281,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sentence neg - 130</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1293,7 +1293,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1305,7 +1305,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1317,7 +1317,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1329,7 +1329,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1341,7 +1341,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1353,7 +1353,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1365,7 +1365,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1377,7 +1377,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence neg - 137</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1389,7 +1389,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1401,7 +1401,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1413,7 +1413,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 132</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1425,7 +1425,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1437,7 +1437,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1449,7 +1449,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1461,7 +1461,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1473,7 +1473,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1485,7 +1485,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1497,7 +1497,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1509,7 +1509,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1521,7 +1521,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1533,7 +1533,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1557,7 +1557,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 117</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1569,7 +1569,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1581,7 +1581,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1593,7 +1593,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sentence neg - 133</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1605,7 +1605,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1617,7 +1617,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sentence neg - 130</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1629,7 +1629,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 132</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1641,7 +1641,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1653,7 +1653,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1665,7 +1665,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1677,7 +1677,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sentence neg - 137</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1689,7 +1689,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sentence neg - 136</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1701,7 +1701,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1713,7 +1713,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1725,7 +1725,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1737,7 +1737,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1749,7 +1749,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1761,7 +1761,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1785,7 +1785,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1797,7 +1797,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1809,7 +1809,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1821,7 +1821,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 117</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1833,7 +1833,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1845,7 +1845,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1857,7 +1857,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sentence neg - 135</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1869,7 +1869,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence neg - 128</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1881,7 +1881,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1893,7 +1893,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1905,7 +1905,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sentence neg - 133</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1917,7 +1917,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sentence neg - 130</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1929,7 +1929,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -1941,7 +1941,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sentence neg - 137</t>
+          <t>Sentence neg - 132</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -1953,7 +1953,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -1965,7 +1965,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sentence neg - 136</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -1977,7 +1977,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -1989,7 +1989,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2013,7 +2013,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2025,7 +2025,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2037,7 +2037,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2049,7 +2049,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2061,7 +2061,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2073,7 +2073,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sentence neg - 135</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2085,7 +2085,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2097,7 +2097,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2109,7 +2109,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2121,7 +2121,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sentence neg - 133</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2133,7 +2133,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2145,7 +2145,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2169,7 +2169,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence neg - 128</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2181,7 +2181,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2193,7 +2193,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sentence neg - 130</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2205,7 +2205,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 132</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2217,7 +2217,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2229,7 +2229,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2241,7 +2241,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2253,7 +2253,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sentence neg - 137</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2265,7 +2265,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2277,7 +2277,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2289,7 +2289,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2301,7 +2301,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2313,7 +2313,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sentence neg - 136</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2325,7 +2325,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2337,7 +2337,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2349,7 +2349,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2361,7 +2361,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2373,7 +2373,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2385,7 +2385,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 117</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2397,7 +2397,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2409,7 +2409,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2421,7 +2421,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sentence neg - 135</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2433,7 +2433,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2445,7 +2445,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence neg - 128</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2457,7 +2457,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2469,7 +2469,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence neg - 128</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2481,7 +2481,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 117</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">

--- a/Debug Output/dubg_trials.xlsx
+++ b/Debug Output/dubg_trials.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -381,7 +381,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -393,7 +393,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -405,7 +405,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -417,7 +417,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -429,7 +429,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -441,7 +441,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -453,7 +453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -465,7 +465,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -477,7 +477,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -501,7 +501,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence neg - 137</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -537,7 +537,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -549,7 +549,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -561,7 +561,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -573,7 +573,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sentence neg - 137</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -597,7 +597,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sentence neg - 136</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -633,7 +633,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -669,7 +669,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -705,7 +705,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -729,7 +729,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -741,7 +741,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sentence neg - 127</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -753,7 +753,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -765,7 +765,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -789,7 +789,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -801,7 +801,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence neg - 130</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -813,7 +813,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -825,7 +825,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -837,7 +837,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -849,7 +849,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -861,7 +861,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -885,7 +885,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -909,7 +909,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -921,7 +921,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sentence neg - 136</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -933,7 +933,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -945,7 +945,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -981,7 +981,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -993,7 +993,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1005,7 +1005,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1017,7 +1017,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sentence neg - 127</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1029,7 +1029,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1041,7 +1041,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence neg - 130</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1053,7 +1053,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1077,7 +1077,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1089,7 +1089,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1101,7 +1101,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1113,7 +1113,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1125,7 +1125,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1137,7 +1137,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence neg - 137</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1149,7 +1149,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1161,7 +1161,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sentence neg - 137</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1173,7 +1173,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1185,7 +1185,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1197,7 +1197,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1209,7 +1209,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sentence neg - 136</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1233,7 +1233,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1269,7 +1269,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1281,7 +1281,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1293,7 +1293,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1305,7 +1305,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence neg - 130</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1317,7 +1317,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1329,7 +1329,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1341,7 +1341,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1353,7 +1353,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sentence neg - 127</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1365,7 +1365,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1377,7 +1377,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1389,7 +1389,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1401,7 +1401,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1413,7 +1413,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1425,7 +1425,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1437,7 +1437,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1449,7 +1449,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1461,7 +1461,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1473,7 +1473,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1485,7 +1485,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 117</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1497,7 +1497,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1509,7 +1509,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1521,7 +1521,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sentence ntr - 117</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1533,7 +1533,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1545,7 +1545,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1557,7 +1557,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1569,7 +1569,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1581,7 +1581,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1593,7 +1593,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1605,7 +1605,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence neg - 124</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1617,7 +1617,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1629,7 +1629,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1641,7 +1641,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sentence neg - 135</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1653,7 +1653,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1665,7 +1665,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1677,7 +1677,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sentence neg - 137</t>
+          <t>Sentence neg - 133</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1689,7 +1689,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1701,7 +1701,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1713,7 +1713,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1725,7 +1725,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1737,7 +1737,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1749,7 +1749,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1761,7 +1761,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sentence neg - 132</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence neg - 127</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1785,7 +1785,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1797,7 +1797,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1809,7 +1809,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1821,7 +1821,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1833,7 +1833,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence neg - 132</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1845,7 +1845,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1857,7 +1857,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sentence neg - 135</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1869,7 +1869,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence neg - 124</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1881,7 +1881,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1893,7 +1893,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sentence neg - 137</t>
+          <t>Sentence neg - 133</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1905,7 +1905,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1917,7 +1917,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1929,7 +1929,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -1941,7 +1941,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -1953,7 +1953,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -1965,7 +1965,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -1977,7 +1977,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -1989,7 +1989,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2001,7 +2001,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence neg - 127</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2013,7 +2013,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2025,7 +2025,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2037,7 +2037,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2049,7 +2049,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sentence neg - 132</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2061,7 +2061,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence neg - 132</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2073,7 +2073,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2085,7 +2085,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2097,7 +2097,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence neg - 124</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2109,7 +2109,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2121,7 +2121,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2133,7 +2133,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2145,7 +2145,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2169,7 +2169,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence neg - 133</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2181,7 +2181,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sentence neg - 135</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2193,7 +2193,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2205,7 +2205,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2217,7 +2217,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Sentence neg - 137</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2229,7 +2229,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2241,7 +2241,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2253,7 +2253,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2265,7 +2265,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2277,7 +2277,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2289,7 +2289,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2301,7 +2301,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2313,7 +2313,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence neg - 127</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2325,7 +2325,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2337,7 +2337,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sentence neg - 132</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2349,7 +2349,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2361,7 +2361,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2373,7 +2373,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2385,7 +2385,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2397,7 +2397,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence neg - 132</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2409,7 +2409,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2421,7 +2421,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2433,7 +2433,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2445,7 +2445,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2457,7 +2457,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2469,7 +2469,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2481,7 +2481,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2491,6 +2491,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Debug Output/dubg_trials.xlsx
+++ b/Debug Output/dubg_trials.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B177"/>
+  <dimension ref="A1:B199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -381,7 +381,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -393,7 +393,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -405,7 +405,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -417,7 +417,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sentence ntr - 117</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -429,7 +429,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -441,7 +441,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -453,7 +453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -465,7 +465,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -477,7 +477,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -501,7 +501,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence neg - 138</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -537,7 +537,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -549,7 +549,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -561,7 +561,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sentence neg - 128</t>
+          <t>Sentence neg - 133</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -573,7 +573,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence neg - 128</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -597,7 +597,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence neg - 138</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -633,7 +633,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence neg - 133</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -669,7 +669,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence neg - 128</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sentence neg - 138</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -705,7 +705,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -717,672 +717,672 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sentence neg - 137</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sentence neg - 132</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sentence neg - 128</t>
+          <t>Sentence neg - 139</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence neg - 139</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sentence neg - 138</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sentence neg - 137</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sentence neg - 132</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sentence neg - 128</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sentence neg - 138</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence neg - 137</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sentence neg - 137</t>
+          <t>Sentence neg - 128</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
@@ -1394,751 +1394,751 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sentence neg - 132</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 138</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sentence ntr - 117</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence neg - 133</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sentence neg - 132</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sentence ntr - 117</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sentence neg - 128</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence neg - 137</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sentence neg - 132</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence neg - 128</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 138</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
@@ -2150,347 +2150,611 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sentence neg - 128</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sentence neg - 132</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence neg - 133</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sentence ntr - 117</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sentence neg - 128</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sentence neg - 128</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sentence ntr - 117</t>
+          <t>Sentence neg - 135</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Sentence neg - 35</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Sentence ntr - 90</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Sentence neg - 40</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Sentence neg - 134</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Sentence neg - 2</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Sentence neg - 22</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Sentence ntr - 74</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Sentence ntr - 96</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Sentence neg - 7</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Sentence neg - 122</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Sentence ntr - 86</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Sentence ntr - 113</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Sentence ntr - 114</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Sentence neg - 123</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Sentence ntr - 118</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Sentence neg - 26</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Sentence neg - 139</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Sentence neg - 132</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Sentence neg - 16</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Sentence ntr - 119</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Sentence ntr - 98</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Sentence ntr - 105</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Debug Output/dubg_trials.xlsx
+++ b/Debug Output/dubg_trials.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B199"/>
+  <dimension ref="A1:B203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -381,7 +381,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -393,7 +393,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -405,7 +405,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -417,7 +417,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -429,7 +429,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -441,7 +441,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -453,7 +453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -465,7 +465,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -477,7 +477,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -501,7 +501,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sentence neg - 138</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -537,7 +537,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -549,7 +549,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -561,7 +561,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sentence neg - 133</t>
+          <t>Sentence neg - 126</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -573,7 +573,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sentence neg - 128</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -597,7 +597,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sentence neg - 138</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -633,7 +633,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sentence neg - 133</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -669,7 +669,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sentence neg - 128</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence neg - 126</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -705,7 +705,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -729,7 +729,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -741,7 +741,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -753,7 +753,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -765,7 +765,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -789,7 +789,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -801,7 +801,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -813,7 +813,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -825,7 +825,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -837,7 +837,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -849,7 +849,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -861,7 +861,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence neg - 130</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -885,7 +885,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -897,7 +897,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -909,7 +909,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 127</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -921,7 +921,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -933,7 +933,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -945,7 +945,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence neg - 130</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -981,7 +981,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -993,7 +993,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence neg - 127</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1005,7 +1005,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1017,7 +1017,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1029,7 +1029,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1041,7 +1041,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1053,7 +1053,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1077,7 +1077,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1089,7 +1089,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1101,7 +1101,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1113,7 +1113,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1125,7 +1125,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1137,7 +1137,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1149,7 +1149,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence neg - 138</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1161,7 +1161,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1173,7 +1173,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1185,7 +1185,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1197,7 +1197,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1209,7 +1209,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1233,7 +1233,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1269,7 +1269,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1281,7 +1281,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sentence neg - 137</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1293,7 +1293,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1305,7 +1305,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1317,7 +1317,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1329,7 +1329,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1341,7 +1341,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1353,7 +1353,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1365,7 +1365,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1377,7 +1377,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sentence neg - 128</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1389,7 +1389,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1401,7 +1401,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1413,7 +1413,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1425,7 +1425,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1437,7 +1437,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1449,7 +1449,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sentence neg - 138</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1461,7 +1461,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1473,7 +1473,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1485,7 +1485,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1497,7 +1497,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence neg - 126</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1509,7 +1509,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1521,7 +1521,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1533,7 +1533,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence neg - 135</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1545,7 +1545,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1557,7 +1557,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence neg - 139</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1569,7 +1569,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1581,7 +1581,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1593,7 +1593,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sentence neg - 136</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1605,7 +1605,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1617,7 +1617,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sentence neg - 133</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1629,7 +1629,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1641,7 +1641,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1653,7 +1653,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1665,7 +1665,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1677,7 +1677,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1689,7 +1689,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1701,7 +1701,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1713,7 +1713,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1725,7 +1725,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1737,7 +1737,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence neg - 138</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1749,7 +1749,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1761,7 +1761,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1785,7 +1785,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1797,7 +1797,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1809,7 +1809,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1821,7 +1821,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1833,7 +1833,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1845,7 +1845,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1857,7 +1857,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1869,7 +1869,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1881,7 +1881,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1893,7 +1893,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sentence neg - 137</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1905,7 +1905,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1917,7 +1917,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1929,7 +1929,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -1941,7 +1941,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -1953,7 +1953,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -1965,7 +1965,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -1977,7 +1977,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -1989,7 +1989,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sentence neg - 128</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2001,7 +2001,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2013,7 +2013,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2025,7 +2025,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2037,7 +2037,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2049,7 +2049,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sentence neg - 138</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2061,7 +2061,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2073,7 +2073,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2085,7 +2085,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2097,7 +2097,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2109,7 +2109,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2121,7 +2121,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence neg - 126</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2133,7 +2133,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2145,7 +2145,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence neg - 135</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2169,7 +2169,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence neg - 139</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2181,7 +2181,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sentence neg - 136</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2193,7 +2193,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2205,7 +2205,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2217,7 +2217,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Sentence neg - 133</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2229,7 +2229,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2241,7 +2241,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2253,7 +2253,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2265,7 +2265,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2277,7 +2277,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2289,7 +2289,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2301,55 +2301,55 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2361,7 +2361,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2373,7 +2373,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2385,7 +2385,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2397,7 +2397,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2409,7 +2409,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2421,7 +2421,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2433,7 +2433,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2445,7 +2445,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2457,7 +2457,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2469,7 +2469,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2481,7 +2481,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sentence neg - 135</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2493,7 +2493,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence neg - 124</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2505,7 +2505,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2517,7 +2517,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence neg - 137</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2529,7 +2529,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2541,7 +2541,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2553,7 +2553,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2565,7 +2565,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2577,7 +2577,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2589,7 +2589,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2601,7 +2601,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2613,7 +2613,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2625,7 +2625,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2637,7 +2637,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2649,7 +2649,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2661,7 +2661,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2673,7 +2673,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2685,7 +2685,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2697,7 +2697,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Sentence neg - 132</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2709,7 +2709,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2721,7 +2721,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2733,7 +2733,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2745,7 +2745,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence neg - 127</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2754,7 +2754,55 @@
         </is>
       </c>
     </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Sentence ntr - 85</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Sentence neg - 6</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Sentence neg - 139</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Sentence neg - 130</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Debug Output/dubg_trials.xlsx
+++ b/Debug Output/dubg_trials.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -381,7 +381,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -393,7 +393,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -405,7 +405,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -417,7 +417,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -429,7 +429,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -441,7 +441,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -453,7 +453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -465,7 +465,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -477,7 +477,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -501,7 +501,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -537,7 +537,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -549,7 +549,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -561,7 +561,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sentence neg - 126</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -573,7 +573,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -597,7 +597,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -633,7 +633,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -669,7 +669,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sentence neg - 126</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -705,7 +705,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -729,7 +729,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -741,7 +741,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -753,7 +753,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -765,7 +765,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -789,7 +789,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -801,7 +801,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -813,7 +813,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -825,7 +825,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -837,7 +837,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -849,7 +849,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -861,7 +861,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sentence neg - 130</t>
+          <t>Sentence neg - 139</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence neg - 138</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -885,7 +885,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -897,7 +897,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence neg - 127</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -909,7 +909,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sentence neg - 127</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -921,7 +921,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -933,7 +933,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence neg - 139</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -945,7 +945,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sentence neg - 130</t>
+          <t>Sentence neg - 138</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence neg - 127</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -981,7 +981,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -993,7 +993,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sentence neg - 127</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1005,7 +1005,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1017,7 +1017,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1029,7 +1029,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1041,7 +1041,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1053,7 +1053,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1077,7 +1077,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1089,7 +1089,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1101,7 +1101,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1113,7 +1113,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1125,7 +1125,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1137,7 +1137,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1149,7 +1149,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sentence neg - 138</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1161,7 +1161,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1173,7 +1173,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1185,7 +1185,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1197,7 +1197,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1209,7 +1209,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1233,7 +1233,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1269,7 +1269,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1281,7 +1281,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1293,7 +1293,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1305,7 +1305,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1317,7 +1317,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1329,7 +1329,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1341,7 +1341,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1353,7 +1353,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1365,7 +1365,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1377,7 +1377,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1389,7 +1389,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1401,7 +1401,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1413,7 +1413,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1425,7 +1425,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1437,7 +1437,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1449,7 +1449,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1461,7 +1461,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1473,7 +1473,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence neg - 135</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1485,7 +1485,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 117</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1497,7 +1497,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sentence neg - 126</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1509,7 +1509,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1521,7 +1521,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1533,7 +1533,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sentence neg - 135</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1545,7 +1545,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1557,7 +1557,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1569,7 +1569,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1581,7 +1581,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1593,7 +1593,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sentence neg - 125</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1605,7 +1605,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1617,7 +1617,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1629,7 +1629,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1641,7 +1641,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1653,7 +1653,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1665,7 +1665,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1677,7 +1677,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 117</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1689,7 +1689,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1701,7 +1701,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1713,7 +1713,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1725,7 +1725,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 133</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1737,7 +1737,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sentence neg - 138</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1749,7 +1749,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1761,7 +1761,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1785,7 +1785,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1797,7 +1797,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1809,7 +1809,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1821,7 +1821,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1833,7 +1833,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1845,7 +1845,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1857,7 +1857,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1869,7 +1869,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1881,7 +1881,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1893,7 +1893,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1905,7 +1905,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1917,7 +1917,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1929,7 +1929,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -1941,7 +1941,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -1953,7 +1953,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -1965,7 +1965,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -1977,7 +1977,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -1989,7 +1989,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2001,7 +2001,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2013,7 +2013,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2025,7 +2025,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2037,7 +2037,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2049,7 +2049,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2061,7 +2061,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence ntr - 117</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2073,7 +2073,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence neg - 135</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2085,7 +2085,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2097,7 +2097,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2109,7 +2109,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2121,7 +2121,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sentence neg - 126</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2133,7 +2133,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2145,7 +2145,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sentence neg - 135</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2169,7 +2169,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2181,7 +2181,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2193,7 +2193,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sentence neg - 125</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2205,7 +2205,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2217,7 +2217,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2229,7 +2229,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2241,7 +2241,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2253,7 +2253,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2265,7 +2265,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2277,7 +2277,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2289,7 +2289,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2301,7 +2301,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence neg - 133</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2313,7 +2313,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2325,7 +2325,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2337,7 +2337,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2349,7 +2349,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2361,7 +2361,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2373,7 +2373,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2385,7 +2385,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2397,7 +2397,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2409,7 +2409,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2421,7 +2421,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2433,7 +2433,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2445,7 +2445,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2457,7 +2457,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2469,7 +2469,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2481,7 +2481,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2493,7 +2493,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Sentence neg - 124</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2505,7 +2505,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2517,7 +2517,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Sentence neg - 137</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2529,7 +2529,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2541,7 +2541,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence neg - 127</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2553,7 +2553,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2565,7 +2565,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2577,7 +2577,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2589,7 +2589,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence neg - 137</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2601,7 +2601,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2613,7 +2613,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2625,7 +2625,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence neg - 138</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2637,7 +2637,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence neg - 133</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2649,7 +2649,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2661,7 +2661,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2673,7 +2673,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2685,7 +2685,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2697,7 +2697,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Sentence neg - 136</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2709,7 +2709,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2721,7 +2721,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2733,7 +2733,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence neg - 132</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2745,7 +2745,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Sentence neg - 127</t>
+          <t>Sentence neg - 139</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2757,7 +2757,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence neg - 135</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2769,7 +2769,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2781,7 +2781,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2793,7 +2793,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Sentence neg - 130</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -2803,6 +2803,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Debug Output/dubg_trials.xlsx
+++ b/Debug Output/dubg_trials.xlsx
@@ -381,7 +381,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -393,7 +393,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -405,7 +405,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -417,7 +417,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -429,7 +429,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -441,7 +441,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -453,7 +453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -465,7 +465,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -477,7 +477,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -501,7 +501,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -537,7 +537,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 130</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -549,7 +549,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -561,7 +561,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -573,7 +573,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -597,7 +597,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sentence neg - 125</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -633,7 +633,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence neg - 130</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -669,7 +669,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sentence neg - 125</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -705,7 +705,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -729,7 +729,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -741,7 +741,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -753,7 +753,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -765,7 +765,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -789,7 +789,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -801,7 +801,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -813,7 +813,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -825,7 +825,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -837,7 +837,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -849,7 +849,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -861,7 +861,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sentence neg - 138</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -885,7 +885,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 138</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -909,7 +909,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -921,7 +921,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -933,7 +933,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -945,7 +945,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sentence neg - 138</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sentence neg - 127</t>
+          <t>Sentence neg - 138</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -981,7 +981,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -993,7 +993,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1005,7 +1005,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence neg - 127</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1017,7 +1017,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1029,7 +1029,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1041,7 +1041,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1053,7 +1053,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1077,7 +1077,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1089,7 +1089,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1101,7 +1101,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1113,7 +1113,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1125,7 +1125,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1137,7 +1137,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1149,7 +1149,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence neg - 133</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1161,7 +1161,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1173,7 +1173,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1185,7 +1185,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1197,7 +1197,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1209,7 +1209,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1233,7 +1233,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1269,7 +1269,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1281,7 +1281,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1293,7 +1293,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1305,7 +1305,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1317,7 +1317,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1329,7 +1329,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence neg - 139</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1341,7 +1341,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1353,7 +1353,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1365,7 +1365,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sentence neg - 125</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1377,7 +1377,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1389,7 +1389,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1401,7 +1401,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1413,7 +1413,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1425,7 +1425,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1437,7 +1437,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1449,7 +1449,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1461,7 +1461,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1473,7 +1473,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sentence neg - 135</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1485,7 +1485,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sentence ntr - 117</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1497,7 +1497,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1509,7 +1509,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1521,7 +1521,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1533,7 +1533,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1545,7 +1545,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence neg - 126</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1557,7 +1557,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1569,7 +1569,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1581,7 +1581,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1593,7 +1593,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1605,7 +1605,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1617,7 +1617,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1629,7 +1629,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1641,7 +1641,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1653,7 +1653,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1665,7 +1665,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1677,7 +1677,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sentence ntr - 117</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1689,7 +1689,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1701,7 +1701,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence neg - 135</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1713,7 +1713,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1725,7 +1725,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sentence neg - 133</t>
+          <t>Sentence neg - 130</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1737,7 +1737,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1749,7 +1749,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1761,7 +1761,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence neg - 133</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1785,7 +1785,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1797,7 +1797,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1809,7 +1809,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1821,7 +1821,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1833,7 +1833,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1845,7 +1845,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1857,7 +1857,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1869,7 +1869,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1881,7 +1881,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1893,7 +1893,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1905,7 +1905,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1917,7 +1917,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1929,7 +1929,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 139</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -1941,7 +1941,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -1953,7 +1953,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -1965,7 +1965,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -1977,7 +1977,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -1989,7 +1989,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sentence neg - 125</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2001,7 +2001,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2013,7 +2013,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2025,7 +2025,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2037,7 +2037,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2049,7 +2049,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2061,7 +2061,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sentence ntr - 117</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2073,7 +2073,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sentence neg - 135</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2085,7 +2085,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2097,7 +2097,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2109,7 +2109,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2121,7 +2121,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2133,7 +2133,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 126</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2145,7 +2145,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2169,7 +2169,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2181,7 +2181,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2193,7 +2193,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2205,7 +2205,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2217,7 +2217,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2229,7 +2229,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2241,7 +2241,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2253,7 +2253,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2265,7 +2265,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2277,7 +2277,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2289,7 +2289,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2301,7 +2301,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sentence neg - 133</t>
+          <t>Sentence neg - 135</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2313,7 +2313,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2325,7 +2325,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence neg - 130</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2337,7 +2337,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2349,7 +2349,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2361,7 +2361,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2373,7 +2373,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2385,7 +2385,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2397,7 +2397,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2409,7 +2409,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2421,7 +2421,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2433,7 +2433,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2445,7 +2445,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2457,7 +2457,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2469,7 +2469,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2481,7 +2481,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2493,7 +2493,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence neg - 127</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2505,7 +2505,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence neg - 126</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2517,7 +2517,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2529,7 +2529,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2541,7 +2541,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sentence neg - 127</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2553,7 +2553,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2565,7 +2565,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2577,7 +2577,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2589,7 +2589,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Sentence neg - 137</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2613,7 +2613,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2625,7 +2625,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Sentence neg - 138</t>
+          <t>Sentence neg - 139</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2637,7 +2637,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Sentence neg - 133</t>
+          <t>Sentence neg - 137</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2649,7 +2649,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2661,7 +2661,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence neg - 124</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2673,7 +2673,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2685,7 +2685,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 138</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2697,7 +2697,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2709,7 +2709,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2721,7 +2721,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2733,7 +2733,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Sentence neg - 132</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2745,7 +2745,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence neg - 132</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2757,7 +2757,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Sentence neg - 135</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2769,7 +2769,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2781,7 +2781,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2793,7 +2793,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">

--- a/Debug Output/dubg_trials.xlsx
+++ b/Debug Output/dubg_trials.xlsx
@@ -381,7 +381,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -393,7 +393,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -405,7 +405,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -417,7 +417,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -429,7 +429,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -441,7 +441,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -453,7 +453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -465,7 +465,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -477,7 +477,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence neg - 128</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -537,7 +537,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sentence neg - 130</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -549,7 +549,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -561,7 +561,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -573,7 +573,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -597,7 +597,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence neg - 127</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -633,7 +633,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sentence neg - 130</t>
+          <t>Sentence neg - 128</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -669,7 +669,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence neg - 127</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -705,7 +705,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -729,7 +729,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -741,7 +741,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -753,7 +753,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 117</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -765,7 +765,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -789,7 +789,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 117</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -801,7 +801,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -813,7 +813,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -825,7 +825,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -837,7 +837,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -849,7 +849,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -861,7 +861,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 117</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -885,7 +885,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sentence neg - 138</t>
+          <t>Sentence ntr - 117</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -897,7 +897,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sentence neg - 127</t>
+          <t>Sentence neg - 124</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -909,7 +909,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -921,7 +921,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence neg - 135</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -933,7 +933,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -945,7 +945,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence neg - 139</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sentence neg - 138</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -981,7 +981,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -993,7 +993,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence neg - 124</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1005,7 +1005,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sentence neg - 127</t>
+          <t>Sentence neg - 135</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1017,7 +1017,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence neg - 139</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1029,7 +1029,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1041,7 +1041,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1053,7 +1053,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1077,7 +1077,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1089,7 +1089,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1101,7 +1101,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1113,7 +1113,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1125,7 +1125,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1137,7 +1137,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1149,7 +1149,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sentence neg - 133</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1161,7 +1161,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1173,7 +1173,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1185,7 +1185,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1197,7 +1197,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1209,7 +1209,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1233,7 +1233,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1269,7 +1269,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1281,7 +1281,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1293,7 +1293,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1305,7 +1305,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1317,7 +1317,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1329,7 +1329,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1341,7 +1341,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1353,7 +1353,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1365,7 +1365,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1377,7 +1377,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1389,7 +1389,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1401,7 +1401,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1413,7 +1413,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1425,7 +1425,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1437,7 +1437,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1449,7 +1449,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1461,7 +1461,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1473,7 +1473,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1485,7 +1485,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1509,7 +1509,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1521,7 +1521,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence neg - 128</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1533,7 +1533,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1545,7 +1545,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sentence neg - 126</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1557,7 +1557,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1569,7 +1569,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1581,7 +1581,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1593,7 +1593,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1605,7 +1605,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1617,7 +1617,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1629,7 +1629,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1641,7 +1641,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence neg - 127</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1653,7 +1653,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1665,7 +1665,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sentence neg - 136</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1677,7 +1677,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1689,7 +1689,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1701,7 +1701,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sentence neg - 135</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1713,7 +1713,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1725,7 +1725,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sentence neg - 130</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1737,7 +1737,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1749,7 +1749,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1761,7 +1761,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sentence neg - 133</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1785,7 +1785,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1797,7 +1797,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1809,7 +1809,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1821,7 +1821,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1833,7 +1833,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1845,7 +1845,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1857,7 +1857,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1869,7 +1869,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1881,7 +1881,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1893,7 +1893,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1905,7 +1905,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1917,7 +1917,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1929,7 +1929,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -1941,7 +1941,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -1953,7 +1953,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -1965,7 +1965,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -1977,7 +1977,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -1989,7 +1989,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2001,7 +2001,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2013,7 +2013,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2025,7 +2025,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2037,7 +2037,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2049,7 +2049,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2061,7 +2061,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2073,7 +2073,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2085,7 +2085,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2097,7 +2097,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2109,7 +2109,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2121,7 +2121,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 128</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2133,7 +2133,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sentence neg - 126</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2145,7 +2145,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2169,7 +2169,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2181,7 +2181,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2193,7 +2193,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2205,7 +2205,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2217,7 +2217,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2229,7 +2229,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2241,7 +2241,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2253,7 +2253,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 127</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2265,7 +2265,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2277,7 +2277,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sentence neg - 136</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2289,7 +2289,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2301,7 +2301,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sentence neg - 135</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2313,7 +2313,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2325,7 +2325,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sentence neg - 130</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2337,7 +2337,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2349,7 +2349,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2361,7 +2361,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2373,7 +2373,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2385,7 +2385,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2409,7 +2409,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2421,7 +2421,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2433,7 +2433,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2445,7 +2445,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2457,7 +2457,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2481,7 +2481,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2493,7 +2493,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Sentence neg - 127</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2505,7 +2505,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Sentence neg - 126</t>
+          <t>Sentence ntr - 117</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2517,7 +2517,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2529,7 +2529,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2541,7 +2541,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2553,7 +2553,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence neg - 124</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2565,7 +2565,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2577,7 +2577,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2589,7 +2589,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2601,7 +2601,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2613,7 +2613,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence neg - 135</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2625,7 +2625,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2637,7 +2637,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Sentence neg - 137</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2649,7 +2649,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2661,7 +2661,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Sentence neg - 124</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2673,7 +2673,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2685,7 +2685,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Sentence neg - 138</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2697,7 +2697,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2709,7 +2709,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2721,7 +2721,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2733,7 +2733,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Sentence neg - 136</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2745,7 +2745,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Sentence neg - 132</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2757,7 +2757,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2769,7 +2769,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2781,7 +2781,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2793,7 +2793,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence neg - 139</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">

--- a/Debug Output/dubg_trials.xlsx
+++ b/Debug Output/dubg_trials.xlsx
@@ -381,7 +381,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -393,7 +393,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -405,7 +405,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -417,7 +417,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -429,7 +429,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -441,7 +441,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -453,7 +453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -465,7 +465,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -477,7 +477,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -501,7 +501,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sentence neg - 128</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -537,7 +537,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -549,7 +549,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -561,7 +561,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -573,7 +573,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -597,7 +597,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sentence neg - 127</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -633,7 +633,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sentence neg - 128</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -669,7 +669,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sentence neg - 127</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -705,7 +705,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -729,7 +729,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -741,7 +741,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -753,7 +753,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sentence ntr - 117</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -765,7 +765,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -789,7 +789,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sentence ntr - 117</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -801,7 +801,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -813,7 +813,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -825,7 +825,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -837,7 +837,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -849,7 +849,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -861,7 +861,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sentence ntr - 117</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -885,7 +885,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sentence ntr - 117</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -897,7 +897,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sentence neg - 124</t>
+          <t>Sentence neg - 135</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -909,7 +909,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence neg - 139</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -921,7 +921,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sentence neg - 135</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -933,7 +933,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -945,7 +945,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -981,7 +981,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -993,7 +993,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sentence neg - 124</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1029,7 +1029,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1041,7 +1041,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1053,7 +1053,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1077,7 +1077,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1089,7 +1089,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1101,7 +1101,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1113,7 +1113,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1125,7 +1125,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1137,7 +1137,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1149,7 +1149,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence neg - 137</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1161,7 +1161,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1173,7 +1173,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1185,7 +1185,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1197,7 +1197,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1209,7 +1209,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1233,7 +1233,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1269,7 +1269,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1281,7 +1281,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1293,7 +1293,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1305,7 +1305,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1317,7 +1317,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence neg - 130</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1329,7 +1329,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1341,7 +1341,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1353,7 +1353,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1377,7 +1377,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence neg - 128</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1389,7 +1389,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1401,7 +1401,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1413,7 +1413,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1425,7 +1425,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1437,7 +1437,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 126</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1449,7 +1449,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1461,7 +1461,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1473,7 +1473,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1485,7 +1485,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1497,7 +1497,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1509,7 +1509,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1521,7 +1521,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sentence neg - 128</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1533,7 +1533,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1545,7 +1545,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1557,7 +1557,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1569,7 +1569,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1581,7 +1581,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1593,7 +1593,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1605,7 +1605,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1617,7 +1617,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1629,7 +1629,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1641,7 +1641,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sentence neg - 127</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1653,7 +1653,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1665,7 +1665,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1677,7 +1677,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1689,7 +1689,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1701,7 +1701,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1713,7 +1713,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1725,7 +1725,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1737,7 +1737,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1749,7 +1749,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1761,7 +1761,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1785,7 +1785,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence neg - 137</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1797,7 +1797,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1809,7 +1809,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1821,7 +1821,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1833,7 +1833,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1845,7 +1845,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1857,7 +1857,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1869,7 +1869,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1881,7 +1881,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1893,7 +1893,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1905,7 +1905,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1917,7 +1917,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1929,7 +1929,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence neg - 130</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -1941,7 +1941,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -1953,7 +1953,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -1965,7 +1965,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -1977,7 +1977,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -1989,7 +1989,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2001,7 +2001,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence neg - 128</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2013,7 +2013,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2037,7 +2037,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2049,7 +2049,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence neg - 126</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2061,7 +2061,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2073,7 +2073,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2085,7 +2085,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2097,7 +2097,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2109,7 +2109,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2121,7 +2121,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sentence neg - 128</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2133,7 +2133,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2145,7 +2145,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2169,7 +2169,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2181,7 +2181,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2193,7 +2193,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2205,7 +2205,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2217,7 +2217,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2229,7 +2229,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2241,7 +2241,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2253,7 +2253,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sentence neg - 127</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2265,7 +2265,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2277,7 +2277,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2289,7 +2289,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2301,7 +2301,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2313,7 +2313,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2325,7 +2325,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2337,7 +2337,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2349,7 +2349,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2361,7 +2361,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2373,7 +2373,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2385,7 +2385,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2409,7 +2409,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2421,7 +2421,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2433,7 +2433,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2445,7 +2445,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2457,7 +2457,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2469,7 +2469,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2481,7 +2481,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2493,7 +2493,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2505,7 +2505,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Sentence ntr - 117</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2517,7 +2517,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2529,7 +2529,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2541,7 +2541,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2553,7 +2553,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sentence neg - 124</t>
+          <t>Sentence neg - 132</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2565,7 +2565,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2577,7 +2577,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence neg - 139</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2589,7 +2589,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2601,7 +2601,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2613,7 +2613,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sentence neg - 135</t>
+          <t>Sentence neg - 126</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2625,7 +2625,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2637,7 +2637,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2649,7 +2649,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2661,7 +2661,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2673,7 +2673,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2685,7 +2685,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2697,7 +2697,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2709,7 +2709,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence neg - 135</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2721,7 +2721,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2733,7 +2733,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2745,7 +2745,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2757,7 +2757,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Sentence neg - 136</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2769,7 +2769,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2781,7 +2781,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2793,7 +2793,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">

--- a/Debug Output/dubg_trials.xlsx
+++ b/Debug Output/dubg_trials.xlsx
@@ -381,7 +381,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -393,7 +393,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -405,7 +405,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -417,7 +417,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -429,7 +429,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -441,7 +441,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -453,7 +453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -465,7 +465,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -477,7 +477,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -501,7 +501,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -537,7 +537,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -549,7 +549,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence neg - 126</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -561,7 +561,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -573,7 +573,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sentence neg - 136</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -597,7 +597,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence neg - 135</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -633,7 +633,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -669,7 +669,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence neg - 126</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sentence neg - 136</t>
+          <t>Sentence neg - 135</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -705,7 +705,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -729,7 +729,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -741,7 +741,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -753,7 +753,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -765,7 +765,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -789,7 +789,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -801,7 +801,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -813,7 +813,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -825,7 +825,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -837,7 +837,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -849,7 +849,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -861,7 +861,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence neg - 124</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -885,7 +885,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -897,7 +897,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sentence neg - 135</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -909,7 +909,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -921,7 +921,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -933,7 +933,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -945,7 +945,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence neg - 139</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 124</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -981,7 +981,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -993,7 +993,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1005,7 +1005,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sentence neg - 135</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1029,7 +1029,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1041,7 +1041,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1053,7 +1053,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1077,7 +1077,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1089,7 +1089,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1101,7 +1101,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1113,7 +1113,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1125,7 +1125,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1137,7 +1137,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1149,7 +1149,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sentence neg - 137</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1161,7 +1161,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1173,7 +1173,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1185,7 +1185,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sentence neg - 125</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1197,7 +1197,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1209,7 +1209,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1233,7 +1233,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1269,7 +1269,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1281,7 +1281,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1293,7 +1293,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1305,7 +1305,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1317,7 +1317,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sentence neg - 130</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1329,7 +1329,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence neg - 135</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1341,7 +1341,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1353,7 +1353,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence neg - 126</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1365,7 +1365,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1377,7 +1377,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sentence neg - 128</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1389,7 +1389,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1401,7 +1401,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1413,7 +1413,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence neg - 128</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1425,7 +1425,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1437,7 +1437,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sentence neg - 126</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1449,7 +1449,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 127</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1461,7 +1461,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sentence neg - 136</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1473,7 +1473,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1485,7 +1485,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence neg - 132</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1497,7 +1497,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1509,7 +1509,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1521,7 +1521,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1533,7 +1533,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1545,7 +1545,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1557,7 +1557,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1569,7 +1569,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1581,7 +1581,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1593,7 +1593,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1605,7 +1605,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence neg - 130</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1617,7 +1617,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1629,7 +1629,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1641,7 +1641,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1653,7 +1653,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1665,7 +1665,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1677,7 +1677,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1689,7 +1689,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1701,7 +1701,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1713,7 +1713,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1725,7 +1725,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1737,7 +1737,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1749,7 +1749,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1761,7 +1761,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1785,7 +1785,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sentence neg - 137</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1797,7 +1797,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1809,7 +1809,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sentence neg - 125</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1821,7 +1821,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1833,7 +1833,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1845,7 +1845,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1857,7 +1857,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1869,7 +1869,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1881,7 +1881,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1893,7 +1893,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1905,7 +1905,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1917,7 +1917,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence neg - 135</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1929,7 +1929,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sentence neg - 130</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -1941,7 +1941,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence neg - 126</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -1953,7 +1953,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -1965,7 +1965,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -1977,7 +1977,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -1989,7 +1989,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2001,7 +2001,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Sentence neg - 128</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2013,7 +2013,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence neg - 128</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2025,7 +2025,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2037,7 +2037,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence neg - 127</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2049,7 +2049,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sentence neg - 126</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2061,7 +2061,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2073,7 +2073,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence neg - 132</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2085,7 +2085,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sentence neg - 136</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2097,7 +2097,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2109,7 +2109,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2121,7 +2121,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2133,7 +2133,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2145,7 +2145,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2169,7 +2169,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2181,7 +2181,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2193,7 +2193,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence neg - 130</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2205,7 +2205,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2217,7 +2217,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2229,7 +2229,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2241,7 +2241,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2253,7 +2253,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2265,7 +2265,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2277,7 +2277,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2289,7 +2289,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2301,7 +2301,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2313,7 +2313,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2325,7 +2325,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2337,7 +2337,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2349,7 +2349,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2361,7 +2361,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2373,7 +2373,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2385,7 +2385,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2397,7 +2397,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2409,7 +2409,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2421,7 +2421,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2433,7 +2433,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2445,7 +2445,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2457,7 +2457,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2469,7 +2469,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2481,7 +2481,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2493,7 +2493,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence neg - 130</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2505,7 +2505,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2517,7 +2517,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2529,7 +2529,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2541,7 +2541,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2553,7 +2553,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sentence neg - 132</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2565,7 +2565,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2577,7 +2577,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2589,7 +2589,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2601,7 +2601,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2613,7 +2613,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sentence neg - 126</t>
+          <t>Sentence neg - 139</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2625,7 +2625,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2637,7 +2637,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2649,7 +2649,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2661,7 +2661,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence neg - 124</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2673,7 +2673,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2685,7 +2685,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2697,7 +2697,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2709,7 +2709,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Sentence neg - 135</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2721,7 +2721,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2733,7 +2733,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2745,7 +2745,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2757,7 +2757,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2769,7 +2769,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2781,7 +2781,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2793,7 +2793,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">

--- a/Debug Output/dubg_trials.xlsx
+++ b/Debug Output/dubg_trials.xlsx
@@ -381,7 +381,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -393,7 +393,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -405,7 +405,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -417,7 +417,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -429,7 +429,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -441,7 +441,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -453,7 +453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -465,7 +465,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -477,7 +477,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -501,7 +501,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -537,7 +537,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -549,7 +549,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sentence neg - 126</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -561,7 +561,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -573,7 +573,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -597,7 +597,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sentence neg - 135</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -633,7 +633,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -669,7 +669,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sentence neg - 126</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sentence neg - 135</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -741,7 +741,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -753,7 +753,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -789,7 +789,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -801,7 +801,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -813,7 +813,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -825,7 +825,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -837,7 +837,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -849,7 +849,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -861,7 +861,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sentence neg - 124</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence neg - 130</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -885,7 +885,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -897,7 +897,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -909,7 +909,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -921,7 +921,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -933,7 +933,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -945,7 +945,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sentence neg - 124</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -981,7 +981,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -993,7 +993,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1005,7 +1005,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence neg - 130</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1017,7 +1017,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1029,7 +1029,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1041,7 +1041,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1053,7 +1053,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1077,7 +1077,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1089,7 +1089,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1101,7 +1101,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1113,7 +1113,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1125,7 +1125,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1137,7 +1137,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1149,7 +1149,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1161,7 +1161,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1173,7 +1173,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1185,7 +1185,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1197,7 +1197,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1209,7 +1209,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence neg - 124</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1233,7 +1233,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence neg - 126</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence neg - 133</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1269,7 +1269,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1281,7 +1281,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1293,7 +1293,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 138</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1305,7 +1305,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sentence neg - 125</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1317,7 +1317,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1329,7 +1329,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sentence neg - 135</t>
+          <t>Sentence neg - 127</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1341,7 +1341,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1353,7 +1353,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sentence neg - 126</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1365,7 +1365,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1377,7 +1377,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1389,7 +1389,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1401,7 +1401,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1413,7 +1413,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sentence neg - 128</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1425,7 +1425,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1437,7 +1437,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1449,7 +1449,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sentence neg - 127</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1461,7 +1461,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1473,7 +1473,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1485,7 +1485,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sentence neg - 132</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1497,7 +1497,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1509,7 +1509,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1521,7 +1521,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1533,7 +1533,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1545,7 +1545,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1557,7 +1557,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1569,7 +1569,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1581,7 +1581,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1593,7 +1593,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1605,7 +1605,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sentence neg - 130</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1617,7 +1617,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence neg - 132</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1629,7 +1629,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1641,7 +1641,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1653,7 +1653,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence neg - 137</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1665,7 +1665,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1677,7 +1677,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1689,7 +1689,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sentence neg - 136</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1701,7 +1701,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1713,7 +1713,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1725,7 +1725,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1737,7 +1737,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1749,7 +1749,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1761,7 +1761,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1785,7 +1785,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1797,7 +1797,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1809,7 +1809,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence neg - 124</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1821,7 +1821,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1833,7 +1833,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1845,7 +1845,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 126</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1857,7 +1857,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1869,7 +1869,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1881,7 +1881,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sentence neg - 125</t>
+          <t>Sentence neg - 133</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1893,7 +1893,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1905,7 +1905,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence neg - 138</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1917,7 +1917,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sentence neg - 135</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1929,7 +1929,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 127</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -1941,7 +1941,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sentence neg - 126</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -1953,7 +1953,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -1965,7 +1965,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -1977,7 +1977,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -1989,7 +1989,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2001,7 +2001,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2013,7 +2013,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sentence neg - 128</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2025,7 +2025,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2037,7 +2037,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sentence neg - 127</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2049,7 +2049,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2061,7 +2061,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2073,7 +2073,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sentence neg - 132</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2085,7 +2085,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2097,7 +2097,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2109,7 +2109,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2121,7 +2121,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2133,7 +2133,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2145,7 +2145,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2169,7 +2169,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2181,7 +2181,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2193,7 +2193,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sentence neg - 130</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2205,7 +2205,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2217,7 +2217,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2229,7 +2229,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 132</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2241,7 +2241,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2253,7 +2253,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2265,7 +2265,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence neg - 137</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2277,7 +2277,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sentence neg - 136</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2289,7 +2289,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2301,7 +2301,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2313,7 +2313,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2325,7 +2325,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2337,7 +2337,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2349,7 +2349,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2361,7 +2361,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2373,7 +2373,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2385,7 +2385,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2409,7 +2409,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2421,7 +2421,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2433,7 +2433,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2445,7 +2445,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2457,7 +2457,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2469,7 +2469,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2481,7 +2481,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2493,7 +2493,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Sentence neg - 130</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2505,7 +2505,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2517,7 +2517,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2529,7 +2529,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2541,7 +2541,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2553,7 +2553,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2565,7 +2565,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2577,7 +2577,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2589,7 +2589,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2601,7 +2601,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2613,7 +2613,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence neg - 124</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2625,7 +2625,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2637,7 +2637,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2649,7 +2649,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2661,7 +2661,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Sentence neg - 124</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2673,7 +2673,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence neg - 130</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2685,7 +2685,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2697,7 +2697,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2709,7 +2709,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2721,7 +2721,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2733,7 +2733,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2745,7 +2745,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2757,7 +2757,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2769,7 +2769,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2781,7 +2781,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2793,7 +2793,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">

--- a/Debug Output/dubg_trials.xlsx
+++ b/Debug Output/dubg_trials.xlsx
@@ -381,7 +381,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -393,7 +393,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 117</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -405,7 +405,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 117</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -417,7 +417,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -429,7 +429,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -441,7 +441,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -453,7 +453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 117</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -501,7 +501,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -537,7 +537,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -549,7 +549,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -561,7 +561,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence neg - 124</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -573,7 +573,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence neg - 133</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 117</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -597,7 +597,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -633,7 +633,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence neg - 124</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -669,7 +669,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence neg - 133</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -705,7 +705,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -729,7 +729,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -741,7 +741,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -753,7 +753,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -765,7 +765,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -789,7 +789,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -801,7 +801,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -813,7 +813,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -825,7 +825,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -837,7 +837,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -849,7 +849,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -861,7 +861,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sentence neg - 130</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -885,7 +885,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sentence neg - 125</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -897,7 +897,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -909,7 +909,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -921,7 +921,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -933,7 +933,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -945,7 +945,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -981,7 +981,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -993,7 +993,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1005,7 +1005,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sentence neg - 130</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1017,7 +1017,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sentence neg - 125</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1029,7 +1029,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1041,7 +1041,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1053,7 +1053,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1077,7 +1077,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1089,7 +1089,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1101,7 +1101,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1113,7 +1113,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 117</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1125,7 +1125,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1137,7 +1137,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1149,7 +1149,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1161,7 +1161,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1173,7 +1173,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1185,7 +1185,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1197,7 +1197,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1209,7 +1209,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sentence neg - 124</t>
+          <t>Sentence neg - 137</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1233,7 +1233,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sentence neg - 126</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 126</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sentence neg - 133</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1269,7 +1269,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1281,7 +1281,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1293,7 +1293,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sentence neg - 138</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1305,7 +1305,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1317,7 +1317,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1329,7 +1329,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sentence neg - 127</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1341,7 +1341,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1353,7 +1353,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1365,7 +1365,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1377,7 +1377,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1389,7 +1389,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1401,7 +1401,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence ntr - 117</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1413,7 +1413,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 133</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1425,7 +1425,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1437,7 +1437,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1449,7 +1449,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1461,7 +1461,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1473,7 +1473,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1485,7 +1485,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1497,7 +1497,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1509,7 +1509,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1521,7 +1521,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1533,7 +1533,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1545,7 +1545,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1557,7 +1557,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1569,7 +1569,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1581,7 +1581,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1605,7 +1605,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1617,7 +1617,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sentence neg - 132</t>
+          <t>Sentence neg - 124</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1629,7 +1629,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1641,7 +1641,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1653,7 +1653,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sentence neg - 137</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1665,7 +1665,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1677,7 +1677,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence neg - 139</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1689,7 +1689,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1701,7 +1701,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence neg - 132</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1713,7 +1713,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1725,7 +1725,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1737,7 +1737,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1749,7 +1749,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1761,7 +1761,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence neg - 137</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1785,7 +1785,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1797,7 +1797,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 126</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1809,7 +1809,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sentence neg - 124</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1821,7 +1821,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1833,7 +1833,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1845,7 +1845,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sentence neg - 126</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1857,7 +1857,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1869,7 +1869,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 117</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1881,7 +1881,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sentence neg - 133</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1893,7 +1893,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1905,7 +1905,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sentence neg - 138</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1917,7 +1917,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1929,7 +1929,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sentence neg - 127</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -1953,7 +1953,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -1965,7 +1965,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -1977,7 +1977,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -1989,7 +1989,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2001,7 +2001,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence neg - 133</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2013,7 +2013,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2025,7 +2025,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2037,7 +2037,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2049,7 +2049,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2061,7 +2061,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2073,7 +2073,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2085,7 +2085,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2097,7 +2097,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2109,7 +2109,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2121,7 +2121,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2133,7 +2133,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2145,7 +2145,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2169,7 +2169,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2181,7 +2181,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2193,7 +2193,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2205,7 +2205,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence ntr - 117</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2217,7 +2217,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence neg - 124</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2229,7 +2229,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sentence neg - 132</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2241,7 +2241,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2253,7 +2253,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2265,7 +2265,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sentence neg - 137</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2277,7 +2277,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence neg - 139</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2289,7 +2289,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2301,7 +2301,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2313,7 +2313,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence neg - 132</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2325,7 +2325,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2337,7 +2337,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2349,7 +2349,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2361,7 +2361,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2373,7 +2373,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2385,7 +2385,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2397,7 +2397,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2409,7 +2409,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2421,7 +2421,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2445,7 +2445,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2457,7 +2457,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2469,7 +2469,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2481,7 +2481,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2493,7 +2493,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2505,7 +2505,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2517,7 +2517,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2529,7 +2529,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2541,7 +2541,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2553,7 +2553,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2565,7 +2565,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2577,7 +2577,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2589,7 +2589,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence neg - 132</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2601,7 +2601,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2613,7 +2613,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sentence neg - 124</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2625,7 +2625,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2637,7 +2637,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2649,7 +2649,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence neg - 130</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2661,7 +2661,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence neg - 128</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2673,7 +2673,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Sentence neg - 130</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2685,7 +2685,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2697,7 +2697,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence neg - 135</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2709,7 +2709,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2721,7 +2721,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2733,7 +2733,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2745,7 +2745,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Sentence neg - 125</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2769,7 +2769,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2781,7 +2781,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2793,7 +2793,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">

--- a/Debug Output/dubg_trials.xlsx
+++ b/Debug Output/dubg_trials.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B203"/>
+  <dimension ref="A1:B207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -381,7 +381,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -393,7 +393,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sentence ntr - 117</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -405,7 +405,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sentence ntr - 117</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -417,7 +417,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -429,7 +429,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -441,7 +441,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -453,7 +453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -477,7 +477,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sentence ntr - 117</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -501,7 +501,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence neg - 139</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -537,7 +537,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -549,7 +549,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence neg - 124</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -561,7 +561,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sentence neg - 124</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -573,7 +573,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sentence neg - 133</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sentence ntr - 117</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -597,7 +597,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence neg - 139</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -633,7 +633,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sentence neg - 124</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -669,7 +669,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence neg - 124</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sentence neg - 133</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -705,7 +705,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -729,7 +729,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -741,7 +741,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -753,7 +753,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -765,7 +765,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -789,7 +789,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -801,7 +801,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -813,7 +813,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -837,7 +837,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -849,7 +849,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -861,7 +861,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -885,7 +885,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -897,7 +897,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -909,7 +909,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -921,7 +921,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence neg - 137</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -933,7 +933,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -945,7 +945,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -981,7 +981,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence neg - 137</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -993,7 +993,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1005,7 +1005,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1017,7 +1017,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1029,7 +1029,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1041,7 +1041,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1053,7 +1053,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1077,7 +1077,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1089,7 +1089,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1101,7 +1101,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1113,7 +1113,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sentence ntr - 117</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1137,7 +1137,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1149,7 +1149,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1161,7 +1161,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1173,7 +1173,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1185,7 +1185,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1197,7 +1197,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1209,7 +1209,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sentence neg - 137</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1233,7 +1233,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 135</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sentence neg - 126</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1269,7 +1269,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1281,7 +1281,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1293,7 +1293,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1305,7 +1305,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1317,7 +1317,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1329,7 +1329,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1341,7 +1341,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1353,7 +1353,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1365,7 +1365,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sentence neg - 136</t>
+          <t>Sentence neg - 126</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1377,7 +1377,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1389,7 +1389,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence neg - 132</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1401,7 +1401,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sentence ntr - 117</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1413,7 +1413,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sentence neg - 133</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1425,7 +1425,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence neg - 130</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1437,7 +1437,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1449,7 +1449,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1461,7 +1461,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1473,7 +1473,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1485,7 +1485,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1497,7 +1497,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1509,7 +1509,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1521,7 +1521,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1533,7 +1533,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence neg - 128</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1545,7 +1545,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1557,7 +1557,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1569,7 +1569,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1581,7 +1581,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1593,7 +1593,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1605,7 +1605,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1617,7 +1617,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sentence neg - 124</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1629,7 +1629,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1641,7 +1641,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1653,7 +1653,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1665,7 +1665,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1677,7 +1677,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1689,7 +1689,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1701,7 +1701,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sentence neg - 132</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1713,7 +1713,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence neg - 139</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1725,7 +1725,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1737,7 +1737,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1749,7 +1749,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence neg - 124</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1761,7 +1761,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sentence neg - 137</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1785,7 +1785,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1797,7 +1797,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sentence neg - 126</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1809,7 +1809,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 135</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1821,7 +1821,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1833,7 +1833,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1845,7 +1845,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1857,7 +1857,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1869,7 +1869,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sentence ntr - 117</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1881,7 +1881,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1893,7 +1893,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1905,7 +1905,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1917,7 +1917,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1929,7 +1929,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sentence neg - 136</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -1941,7 +1941,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -1953,7 +1953,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence neg - 126</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -1965,7 +1965,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -1977,7 +1977,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence neg - 132</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -1989,7 +1989,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2001,7 +2001,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Sentence neg - 133</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2013,7 +2013,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence neg - 130</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2025,7 +2025,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2037,7 +2037,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2049,7 +2049,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2061,7 +2061,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2073,7 +2073,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2085,7 +2085,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2097,7 +2097,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2109,7 +2109,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2121,7 +2121,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2133,7 +2133,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2145,7 +2145,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 128</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2169,7 +2169,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2181,7 +2181,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2193,7 +2193,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2205,7 +2205,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sentence ntr - 117</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2217,7 +2217,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Sentence neg - 124</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2229,7 +2229,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2241,7 +2241,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2253,7 +2253,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2265,7 +2265,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2277,7 +2277,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2289,7 +2289,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2301,7 +2301,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2313,7 +2313,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sentence neg - 132</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2337,7 +2337,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence neg - 139</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2349,55 +2349,55 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence neg - 124</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2409,7 +2409,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2421,7 +2421,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2433,7 +2433,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2445,7 +2445,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2457,7 +2457,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2469,7 +2469,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2481,7 +2481,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2493,7 +2493,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2505,7 +2505,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2517,7 +2517,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2529,7 +2529,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2541,7 +2541,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2553,7 +2553,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2565,7 +2565,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2577,7 +2577,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2589,7 +2589,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Sentence neg - 132</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2601,7 +2601,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence neg - 132</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2613,7 +2613,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2625,7 +2625,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2637,7 +2637,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2649,7 +2649,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sentence neg - 130</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2661,7 +2661,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Sentence neg - 128</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2673,7 +2673,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2685,7 +2685,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2697,7 +2697,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Sentence neg - 135</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2709,7 +2709,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2721,7 +2721,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2733,7 +2733,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2745,7 +2745,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence neg - 133</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2757,7 +2757,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence neg - 137</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2769,7 +2769,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence neg - 127</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2781,7 +2781,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2793,10 +2793,58 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Sentence ntr - 80</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Sentence ntr - 109</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Sentence neg - 134</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Sentence neg - 128</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
         <is>
           <t>MAB_phase</t>
         </is>

--- a/Debug Output/dubg_trials.xlsx
+++ b/Debug Output/dubg_trials.xlsx
@@ -381,7 +381,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -393,7 +393,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -405,7 +405,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -417,7 +417,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -429,7 +429,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -441,7 +441,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -453,7 +453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -465,7 +465,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -477,7 +477,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -501,7 +501,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -537,7 +537,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -549,7 +549,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sentence neg - 124</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -561,7 +561,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -573,7 +573,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -597,7 +597,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -633,7 +633,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -669,7 +669,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sentence neg - 124</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -705,7 +705,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -729,7 +729,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -741,7 +741,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -753,7 +753,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -765,7 +765,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -789,7 +789,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -801,7 +801,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -813,7 +813,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -825,7 +825,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -837,7 +837,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -849,7 +849,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -861,7 +861,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -885,7 +885,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -897,7 +897,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -909,7 +909,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -921,7 +921,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sentence neg - 137</t>
+          <t>Sentence neg - 126</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -933,7 +933,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -945,7 +945,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence neg - 135</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence neg - 132</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -981,7 +981,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sentence neg - 137</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -993,7 +993,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence neg - 126</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1005,7 +1005,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1017,7 +1017,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence neg - 135</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1029,7 +1029,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1041,7 +1041,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence neg - 132</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1053,7 +1053,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1077,7 +1077,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1089,7 +1089,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1101,7 +1101,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1113,7 +1113,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1125,7 +1125,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1137,7 +1137,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1149,7 +1149,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1173,7 +1173,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1185,7 +1185,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1197,7 +1197,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sentence neg - 136</t>
+          <t>Sentence neg - 130</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1209,7 +1209,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1233,7 +1233,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sentence neg - 135</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1269,7 +1269,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence neg - 138</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1281,7 +1281,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1293,7 +1293,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1305,7 +1305,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1317,7 +1317,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1329,7 +1329,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1341,7 +1341,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1353,7 +1353,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1365,7 +1365,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sentence neg - 126</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1377,7 +1377,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1389,7 +1389,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sentence neg - 132</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1401,7 +1401,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence neg - 128</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1413,7 +1413,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1425,7 +1425,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sentence neg - 130</t>
+          <t>Sentence neg - 127</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1437,7 +1437,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1449,7 +1449,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1461,7 +1461,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1473,7 +1473,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1485,7 +1485,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence neg - 124</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1497,7 +1497,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1509,7 +1509,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1521,7 +1521,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1533,7 +1533,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sentence neg - 128</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1545,7 +1545,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1557,7 +1557,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sentence neg - 125</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1569,7 +1569,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 117</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1581,7 +1581,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence neg - 133</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1593,7 +1593,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence ntr - 117</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1605,7 +1605,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1617,7 +1617,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1629,7 +1629,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1641,7 +1641,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1653,7 +1653,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1665,7 +1665,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1677,7 +1677,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1689,7 +1689,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1701,7 +1701,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1713,7 +1713,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1725,7 +1725,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1737,7 +1737,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1749,7 +1749,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sentence neg - 124</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1761,7 +1761,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sentence neg - 136</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1785,7 +1785,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1797,7 +1797,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence neg - 130</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1809,7 +1809,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sentence neg - 135</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1821,7 +1821,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1833,7 +1833,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1845,7 +1845,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence neg - 138</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1857,7 +1857,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1869,7 +1869,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1881,7 +1881,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1893,7 +1893,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1905,7 +1905,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1917,7 +1917,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1929,7 +1929,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -1941,7 +1941,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 117</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -1953,7 +1953,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sentence neg - 126</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -1965,7 +1965,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -1977,7 +1977,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sentence neg - 132</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -1989,7 +1989,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence neg - 128</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2001,7 +2001,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2013,7 +2013,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sentence neg - 130</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2025,7 +2025,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence neg - 127</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2037,7 +2037,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2049,7 +2049,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2061,7 +2061,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2073,7 +2073,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2085,7 +2085,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2097,7 +2097,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence neg - 124</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2109,7 +2109,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2121,7 +2121,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2133,7 +2133,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2145,7 +2145,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sentence neg - 128</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2169,7 +2169,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sentence neg - 125</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2181,7 +2181,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2193,7 +2193,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence neg - 133</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2205,7 +2205,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2217,7 +2217,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 117</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2229,7 +2229,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2241,7 +2241,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2253,7 +2253,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2265,7 +2265,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2277,7 +2277,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2289,7 +2289,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2301,7 +2301,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2313,7 +2313,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2325,7 +2325,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2337,7 +2337,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2349,7 +2349,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2361,7 +2361,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2373,7 +2373,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sentence neg - 124</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2385,7 +2385,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2397,7 +2397,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2409,7 +2409,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2421,7 +2421,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2433,7 +2433,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2445,7 +2445,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2457,7 +2457,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2493,7 +2493,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2505,7 +2505,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2517,7 +2517,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2529,7 +2529,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2541,7 +2541,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2553,7 +2553,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2565,7 +2565,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2577,7 +2577,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2589,7 +2589,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2601,7 +2601,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Sentence neg - 132</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2613,7 +2613,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence neg - 138</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2625,7 +2625,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2637,7 +2637,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2649,7 +2649,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2661,7 +2661,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2673,7 +2673,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2685,7 +2685,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Sentence neg - 136</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2697,7 +2697,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2709,7 +2709,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence neg - 130</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2721,7 +2721,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2733,7 +2733,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence neg - 132</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2745,7 +2745,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Sentence neg - 133</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2757,7 +2757,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Sentence neg - 137</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2769,7 +2769,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Sentence neg - 127</t>
+          <t>Sentence neg - 133</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2781,7 +2781,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence neg - 126</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2793,7 +2793,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -2805,7 +2805,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence neg - 135</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -2817,7 +2817,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -2829,7 +2829,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -2841,7 +2841,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Sentence neg - 128</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">

--- a/Debug Output/dubg_trials.xlsx
+++ b/Debug Output/dubg_trials.xlsx
@@ -381,7 +381,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -393,7 +393,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -405,7 +405,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -417,7 +417,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -429,7 +429,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -441,7 +441,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -453,7 +453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -465,7 +465,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -477,7 +477,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -501,7 +501,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -537,7 +537,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -549,7 +549,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -561,7 +561,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -573,7 +573,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sentence neg - 125</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -597,7 +597,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 124</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence neg - 139</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -633,7 +633,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -669,7 +669,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sentence neg - 125</t>
+          <t>Sentence neg - 124</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence neg - 139</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -705,7 +705,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -729,7 +729,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -741,7 +741,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -753,7 +753,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -765,7 +765,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -789,7 +789,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -801,7 +801,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -813,7 +813,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -825,7 +825,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -837,7 +837,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -849,7 +849,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -861,7 +861,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -885,7 +885,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -897,7 +897,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -909,7 +909,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -921,7 +921,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sentence neg - 126</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -933,7 +933,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -945,7 +945,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence neg - 127</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sentence neg - 135</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sentence neg - 132</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -981,7 +981,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -993,7 +993,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sentence neg - 126</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1017,7 +1017,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sentence neg - 135</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1029,7 +1029,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1041,7 +1041,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sentence neg - 132</t>
+          <t>Sentence neg - 127</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1053,7 +1053,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1077,7 +1077,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1089,7 +1089,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1101,7 +1101,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1113,7 +1113,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1125,7 +1125,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1137,7 +1137,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1149,7 +1149,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1173,7 +1173,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1185,7 +1185,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1197,7 +1197,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sentence neg - 130</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1209,7 +1209,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1233,7 +1233,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1269,7 +1269,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sentence neg - 138</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1281,7 +1281,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1293,7 +1293,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1305,7 +1305,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1317,7 +1317,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1329,7 +1329,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1341,7 +1341,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1353,7 +1353,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1365,7 +1365,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1377,7 +1377,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence neg - 126</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1389,7 +1389,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1401,7 +1401,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sentence neg - 128</t>
+          <t>Sentence neg - 137</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1425,7 +1425,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sentence neg - 127</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1437,7 +1437,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1449,7 +1449,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1461,7 +1461,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence neg - 124</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1473,7 +1473,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1485,7 +1485,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sentence neg - 124</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1509,7 +1509,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1521,7 +1521,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1533,7 +1533,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1545,7 +1545,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence neg - 139</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1557,7 +1557,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1569,7 +1569,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sentence ntr - 117</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1581,7 +1581,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sentence neg - 133</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1593,7 +1593,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sentence ntr - 117</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1605,7 +1605,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1617,7 +1617,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1629,7 +1629,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1641,7 +1641,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1653,7 +1653,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1665,7 +1665,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1677,7 +1677,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1689,7 +1689,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1701,7 +1701,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sentence neg - 125</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1713,7 +1713,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1725,7 +1725,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1737,7 +1737,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1749,7 +1749,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence neg - 133</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1761,7 +1761,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1785,7 +1785,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1797,7 +1797,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sentence neg - 130</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1809,7 +1809,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1821,7 +1821,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1833,7 +1833,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1845,7 +1845,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sentence neg - 138</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1857,7 +1857,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1869,7 +1869,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1881,7 +1881,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1893,7 +1893,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1905,7 +1905,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1917,7 +1917,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1929,7 +1929,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -1941,7 +1941,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sentence ntr - 117</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -1953,7 +1953,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -1965,7 +1965,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence neg - 126</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -1977,7 +1977,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -1989,7 +1989,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sentence neg - 128</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2001,7 +2001,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence neg - 137</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2013,7 +2013,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2025,7 +2025,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sentence neg - 127</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2037,7 +2037,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2049,7 +2049,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2061,7 +2061,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence neg - 124</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2073,7 +2073,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2085,7 +2085,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2097,7 +2097,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sentence neg - 124</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2109,7 +2109,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2121,7 +2121,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2133,7 +2133,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2145,7 +2145,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence neg - 139</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2169,7 +2169,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2181,7 +2181,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2193,7 +2193,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sentence neg - 133</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2205,7 +2205,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2217,7 +2217,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Sentence ntr - 117</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2229,7 +2229,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2241,7 +2241,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2253,7 +2253,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2265,7 +2265,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2277,7 +2277,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2289,7 +2289,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2301,7 +2301,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2313,7 +2313,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2325,7 +2325,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sentence neg - 125</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2337,7 +2337,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2349,7 +2349,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2361,7 +2361,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2373,7 +2373,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence neg - 133</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2385,7 +2385,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2397,7 +2397,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2409,7 +2409,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2421,7 +2421,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2445,7 +2445,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2457,7 +2457,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2469,7 +2469,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2481,7 +2481,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2493,7 +2493,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2505,7 +2505,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2517,7 +2517,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2529,7 +2529,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2541,7 +2541,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence ntr - 117</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2553,7 +2553,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2565,7 +2565,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2577,7 +2577,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 128</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2589,7 +2589,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2601,7 +2601,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2613,7 +2613,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sentence neg - 138</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2625,7 +2625,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2637,7 +2637,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2649,7 +2649,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2661,7 +2661,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence neg - 127</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2673,7 +2673,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2685,7 +2685,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2697,7 +2697,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2709,7 +2709,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Sentence neg - 130</t>
+          <t>Sentence neg - 126</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2721,7 +2721,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2733,7 +2733,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Sentence neg - 132</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2745,7 +2745,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Sentence neg - 136</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2757,7 +2757,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence neg - 130</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2769,7 +2769,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Sentence neg - 133</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2781,7 +2781,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Sentence neg - 126</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2793,7 +2793,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence neg - 138</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -2805,7 +2805,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Sentence neg - 135</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -2817,7 +2817,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence neg - 137</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -2829,7 +2829,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -2841,7 +2841,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">

--- a/Debug Output/dubg_trials.xlsx
+++ b/Debug Output/dubg_trials.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -381,7 +381,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -393,7 +393,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -405,7 +405,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -417,7 +417,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -429,7 +429,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -441,7 +441,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -453,7 +453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -465,7 +465,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -477,7 +477,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -501,7 +501,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -537,7 +537,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -549,7 +549,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -561,7 +561,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -573,7 +573,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -597,7 +597,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sentence neg - 124</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -633,7 +633,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -669,7 +669,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sentence neg - 124</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -705,7 +705,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence neg - 139</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 117</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -729,7 +729,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -741,7 +741,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -753,7 +753,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -765,7 +765,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -789,7 +789,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -801,7 +801,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence ntr - 117</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -813,7 +813,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 117</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -825,7 +825,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -837,7 +837,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -861,7 +861,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -885,7 +885,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -897,7 +897,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -909,7 +909,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 127</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -921,7 +921,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -933,7 +933,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 117</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -945,7 +945,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sentence neg - 127</t>
+          <t>Sentence neg - 133</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -981,7 +981,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -993,7 +993,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence neg - 127</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1005,7 +1005,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1017,7 +1017,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence neg - 133</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1029,7 +1029,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1041,7 +1041,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sentence neg - 127</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1053,7 +1053,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1077,7 +1077,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1089,7 +1089,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1101,7 +1101,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1113,7 +1113,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1125,7 +1125,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1137,7 +1137,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1149,7 +1149,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1161,7 +1161,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1173,7 +1173,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1185,7 +1185,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1197,7 +1197,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sentence neg - 125</t>
+          <t>Sentence neg - 137</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1209,7 +1209,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sentence neg - 136</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1233,7 +1233,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1269,7 +1269,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1281,7 +1281,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1293,7 +1293,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1305,7 +1305,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence neg - 124</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1317,7 +1317,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1329,7 +1329,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1341,7 +1341,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1353,7 +1353,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1365,7 +1365,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1377,7 +1377,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sentence neg - 126</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1389,7 +1389,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1401,7 +1401,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sentence neg - 137</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1413,7 +1413,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1425,7 +1425,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1437,7 +1437,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1449,7 +1449,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1461,7 +1461,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sentence neg - 124</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1473,7 +1473,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1485,7 +1485,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1497,7 +1497,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 139</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1509,7 +1509,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1521,7 +1521,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1533,7 +1533,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1545,7 +1545,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1557,7 +1557,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence neg - 138</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1569,7 +1569,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1581,7 +1581,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1593,7 +1593,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1605,7 +1605,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 135</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1617,7 +1617,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1629,7 +1629,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1641,7 +1641,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1653,7 +1653,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1665,7 +1665,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1677,7 +1677,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1689,7 +1689,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1701,7 +1701,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1713,7 +1713,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1725,7 +1725,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1737,7 +1737,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence neg - 130</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1749,7 +1749,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sentence neg - 133</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1761,7 +1761,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence neg - 137</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1785,7 +1785,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sentence neg - 125</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1797,7 +1797,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1809,7 +1809,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sentence neg - 136</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1821,7 +1821,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1833,7 +1833,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1845,7 +1845,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1857,7 +1857,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1869,7 +1869,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1881,7 +1881,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence neg - 124</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1893,7 +1893,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1905,7 +1905,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1917,7 +1917,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1929,7 +1929,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -1941,7 +1941,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -1953,7 +1953,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -1965,7 +1965,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sentence neg - 126</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -1977,7 +1977,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -1989,7 +1989,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2001,7 +2001,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Sentence neg - 137</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2013,7 +2013,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2025,7 +2025,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2037,7 +2037,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2049,7 +2049,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2061,7 +2061,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sentence neg - 124</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2073,7 +2073,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2085,7 +2085,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2097,7 +2097,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2109,7 +2109,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence neg - 139</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2121,7 +2121,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2133,7 +2133,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2145,7 +2145,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2169,7 +2169,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 138</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2181,7 +2181,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2193,7 +2193,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2205,7 +2205,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2217,7 +2217,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2229,7 +2229,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2241,7 +2241,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence neg - 135</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2253,7 +2253,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2265,7 +2265,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2277,7 +2277,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2289,7 +2289,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2301,7 +2301,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2313,7 +2313,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2325,7 +2325,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2337,7 +2337,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2349,7 +2349,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2361,7 +2361,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2373,7 +2373,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sentence neg - 133</t>
+          <t>Sentence neg - 130</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2385,7 +2385,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2397,7 +2397,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2409,7 +2409,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence ntr - 117</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2421,7 +2421,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2433,7 +2433,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2445,7 +2445,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2457,7 +2457,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2469,7 +2469,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2481,7 +2481,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2493,7 +2493,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2505,7 +2505,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2517,7 +2517,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2529,7 +2529,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2541,7 +2541,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sentence ntr - 117</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2553,7 +2553,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2565,7 +2565,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2577,7 +2577,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Sentence neg - 128</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2589,7 +2589,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2601,7 +2601,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2613,7 +2613,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence ntr - 117</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2625,7 +2625,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2637,7 +2637,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence neg - 133</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2649,7 +2649,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence neg - 126</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2661,7 +2661,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Sentence neg - 127</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2673,7 +2673,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Sentence neg - 125</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2685,7 +2685,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2697,7 +2697,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2709,7 +2709,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Sentence neg - 126</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2721,7 +2721,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2733,7 +2733,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2745,7 +2745,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence neg - 127</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2757,7 +2757,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Sentence neg - 130</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2769,7 +2769,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2781,7 +2781,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2793,7 +2793,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Sentence neg - 138</t>
+          <t>Sentence neg - 124</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -2805,7 +2805,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -2817,7 +2817,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Sentence neg - 137</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -2829,7 +2829,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -2841,7 +2841,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -2851,6 +2851,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Debug Output/dubg_trials.xlsx
+++ b/Debug Output/dubg_trials.xlsx
@@ -381,7 +381,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -393,7 +393,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -405,7 +405,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -417,7 +417,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -429,7 +429,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -441,7 +441,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -453,7 +453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -465,7 +465,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -477,7 +477,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -501,7 +501,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -537,7 +537,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -549,7 +549,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sentence neg - 136</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -561,7 +561,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -573,7 +573,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence neg - 135</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -597,7 +597,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -633,7 +633,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -669,7 +669,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sentence neg - 136</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence neg - 135</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -705,7 +705,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sentence ntr - 117</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -729,7 +729,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -741,7 +741,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -753,7 +753,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -765,7 +765,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -789,7 +789,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -801,7 +801,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sentence ntr - 117</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -813,7 +813,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sentence ntr - 117</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -825,7 +825,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -837,7 +837,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -849,7 +849,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -861,7 +861,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -885,7 +885,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -897,7 +897,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -909,7 +909,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sentence neg - 127</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -921,7 +921,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence neg - 138</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -933,7 +933,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sentence ntr - 117</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -945,7 +945,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sentence neg - 133</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -981,7 +981,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -993,7 +993,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sentence neg - 127</t>
+          <t>Sentence neg - 138</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1005,7 +1005,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1017,7 +1017,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sentence neg - 133</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1029,7 +1029,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1041,7 +1041,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1053,7 +1053,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1077,7 +1077,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1089,7 +1089,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1101,7 +1101,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1113,7 +1113,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1125,7 +1125,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1137,7 +1137,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1149,7 +1149,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1161,7 +1161,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1173,7 +1173,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1185,7 +1185,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1197,7 +1197,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sentence neg - 137</t>
+          <t>Sentence neg - 135</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1209,7 +1209,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1233,7 +1233,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sentence neg - 136</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1269,7 +1269,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1281,7 +1281,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1293,7 +1293,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1305,7 +1305,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sentence neg - 124</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1317,7 +1317,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1329,7 +1329,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1341,7 +1341,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 128</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1353,7 +1353,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1365,7 +1365,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1377,7 +1377,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1389,7 +1389,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1401,7 +1401,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1413,7 +1413,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1425,7 +1425,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1437,7 +1437,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1449,7 +1449,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1461,7 +1461,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1473,7 +1473,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1485,7 +1485,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence neg - 132</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1497,7 +1497,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1509,7 +1509,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1521,7 +1521,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1533,7 +1533,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1545,7 +1545,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence neg - 130</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1557,7 +1557,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sentence neg - 138</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1569,7 +1569,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1581,7 +1581,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1593,7 +1593,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1605,7 +1605,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sentence neg - 135</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1617,7 +1617,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1629,7 +1629,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1641,7 +1641,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1653,7 +1653,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1665,7 +1665,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 133</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1677,7 +1677,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1689,7 +1689,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1701,7 +1701,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1713,7 +1713,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1725,7 +1725,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence neg - 137</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1737,7 +1737,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sentence neg - 130</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1749,7 +1749,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1761,7 +1761,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sentence neg - 137</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1797,7 +1797,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence neg - 135</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1809,7 +1809,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1821,7 +1821,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sentence neg - 136</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1833,7 +1833,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1845,7 +1845,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1857,7 +1857,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1869,7 +1869,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1881,7 +1881,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sentence neg - 124</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1893,7 +1893,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1905,7 +1905,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1917,7 +1917,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1929,7 +1929,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -1941,7 +1941,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -1953,7 +1953,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence neg - 128</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -1965,7 +1965,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -1977,7 +1977,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -1989,7 +1989,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2001,7 +2001,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2013,7 +2013,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2025,7 +2025,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2037,7 +2037,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2049,7 +2049,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2061,7 +2061,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 119</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2073,7 +2073,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2085,7 +2085,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 132</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2097,7 +2097,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2109,7 +2109,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sentence neg - 139</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2121,7 +2121,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2133,7 +2133,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2145,7 +2145,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence neg - 130</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2169,7 +2169,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sentence neg - 138</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2181,7 +2181,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2193,7 +2193,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2205,7 +2205,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2217,7 +2217,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2229,7 +2229,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2241,7 +2241,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sentence neg - 135</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2253,7 +2253,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2265,7 +2265,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2277,7 +2277,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence neg - 133</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2289,7 +2289,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2301,7 +2301,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2313,7 +2313,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2325,7 +2325,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence neg - 137</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2337,7 +2337,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2349,7 +2349,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2361,7 +2361,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2373,7 +2373,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sentence neg - 130</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2385,7 +2385,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2397,7 +2397,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2409,7 +2409,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sentence ntr - 117</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2421,7 +2421,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2433,7 +2433,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2445,7 +2445,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2457,7 +2457,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2469,7 +2469,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2481,7 +2481,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2493,7 +2493,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2505,7 +2505,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2517,7 +2517,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2529,7 +2529,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2541,7 +2541,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2553,7 +2553,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2565,7 +2565,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2577,7 +2577,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2589,7 +2589,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2601,7 +2601,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2613,7 +2613,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sentence ntr - 117</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2625,7 +2625,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence neg - 126</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2637,7 +2637,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Sentence neg - 133</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2649,7 +2649,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sentence neg - 126</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2661,7 +2661,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2673,7 +2673,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2685,7 +2685,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2697,7 +2697,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2709,7 +2709,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2721,7 +2721,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2733,7 +2733,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2745,7 +2745,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Sentence neg - 127</t>
+          <t>Sentence neg - 138</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2757,7 +2757,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2769,7 +2769,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2781,7 +2781,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2793,7 +2793,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Sentence neg - 124</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -2805,7 +2805,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -2817,7 +2817,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -2829,7 +2829,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -2841,7 +2841,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">

--- a/Debug Output/dubg_trials.xlsx
+++ b/Debug Output/dubg_trials.xlsx
@@ -381,7 +381,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -393,7 +393,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -405,7 +405,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -417,7 +417,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -429,7 +429,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -441,7 +441,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -453,7 +453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -465,7 +465,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -477,7 +477,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -501,7 +501,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -537,7 +537,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -549,7 +549,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -561,7 +561,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence neg - 124</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -573,7 +573,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sentence neg - 135</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -597,7 +597,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -633,7 +633,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -669,7 +669,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sentence neg - 135</t>
+          <t>Sentence neg - 124</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -705,7 +705,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -729,7 +729,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -741,7 +741,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -765,7 +765,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -789,7 +789,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -801,7 +801,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -813,7 +813,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -825,7 +825,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -837,7 +837,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -849,7 +849,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -861,7 +861,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -885,7 +885,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -897,7 +897,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -909,7 +909,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -921,7 +921,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sentence neg - 138</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -933,7 +933,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -945,7 +945,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sentence neg - 125</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -981,7 +981,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -993,7 +993,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sentence neg - 138</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1005,7 +1005,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1017,7 +1017,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sentence neg - 125</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1029,7 +1029,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1041,7 +1041,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1053,7 +1053,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1077,7 +1077,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1089,7 +1089,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1101,7 +1101,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1113,7 +1113,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1125,7 +1125,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1137,7 +1137,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1149,7 +1149,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1161,7 +1161,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1173,7 +1173,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1185,7 +1185,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1197,7 +1197,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sentence neg - 135</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1209,7 +1209,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1233,7 +1233,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1269,7 +1269,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1281,7 +1281,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1293,7 +1293,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1317,7 +1317,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1329,7 +1329,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1341,7 +1341,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sentence neg - 128</t>
+          <t>Sentence neg - 124</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1353,7 +1353,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1365,7 +1365,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1377,7 +1377,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1389,7 +1389,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1401,7 +1401,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1413,7 +1413,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1425,7 +1425,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1437,7 +1437,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1449,7 +1449,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1461,7 +1461,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence neg - 137</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1473,7 +1473,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1485,7 +1485,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sentence neg - 132</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1497,7 +1497,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1509,7 +1509,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sentence neg - 136</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1521,7 +1521,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1533,7 +1533,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence neg - 132</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1545,7 +1545,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sentence neg - 130</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1557,7 +1557,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1569,7 +1569,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1581,7 +1581,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1593,7 +1593,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1605,7 +1605,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence neg - 128</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1617,7 +1617,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1629,7 +1629,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1641,7 +1641,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1653,7 +1653,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1665,7 +1665,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sentence neg - 133</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1677,7 +1677,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1689,7 +1689,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1701,7 +1701,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1713,7 +1713,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1725,7 +1725,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sentence neg - 137</t>
+          <t>Sentence neg - 138</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1737,7 +1737,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1749,7 +1749,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1761,7 +1761,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1785,7 +1785,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1797,7 +1797,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sentence neg - 135</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1809,7 +1809,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1821,7 +1821,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1833,7 +1833,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1845,7 +1845,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1857,7 +1857,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1869,7 +1869,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1881,7 +1881,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1893,7 +1893,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1905,7 +1905,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1917,7 +1917,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1929,7 +1929,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -1941,7 +1941,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence neg - 124</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -1953,7 +1953,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sentence neg - 128</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -1965,7 +1965,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -1977,7 +1977,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -1989,7 +1989,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2001,7 +2001,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2013,7 +2013,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2025,7 +2025,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2037,7 +2037,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2049,7 +2049,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2061,7 +2061,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sentence ntr - 119</t>
+          <t>Sentence neg - 137</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2073,7 +2073,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2085,7 +2085,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sentence neg - 132</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2097,7 +2097,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2109,7 +2109,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2121,7 +2121,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sentence neg - 136</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2133,7 +2133,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2145,7 +2145,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sentence neg - 130</t>
+          <t>Sentence neg - 132</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2169,7 +2169,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2181,7 +2181,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2193,7 +2193,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence ntr - 115</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2205,7 +2205,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2217,7 +2217,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence neg - 128</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2229,7 +2229,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2241,7 +2241,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2253,7 +2253,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence neg - 120</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2265,7 +2265,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2277,7 +2277,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sentence neg - 133</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2289,7 +2289,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2301,7 +2301,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2313,7 +2313,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2325,7 +2325,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sentence neg - 137</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2337,7 +2337,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2349,7 +2349,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence neg - 138</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2361,7 +2361,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2373,7 +2373,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2385,7 +2385,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2397,7 +2397,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2409,7 +2409,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2421,7 +2421,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2433,7 +2433,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2445,7 +2445,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2457,7 +2457,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2469,7 +2469,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2481,7 +2481,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2493,7 +2493,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2505,7 +2505,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2517,7 +2517,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2541,7 +2541,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence neg - 126</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2553,7 +2553,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2565,7 +2565,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence neg - 135</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2577,7 +2577,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2589,7 +2589,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2601,7 +2601,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2613,7 +2613,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2625,7 +2625,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Sentence neg - 126</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2637,7 +2637,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2649,7 +2649,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2661,7 +2661,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Sentence neg - 136</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2673,7 +2673,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2685,7 +2685,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2697,7 +2697,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2709,7 +2709,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2721,7 +2721,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2733,7 +2733,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Sentence neg - 125</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2745,7 +2745,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Sentence neg - 138</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2757,7 +2757,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2769,7 +2769,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2781,7 +2781,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2793,7 +2793,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -2805,7 +2805,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence neg - 130</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -2817,7 +2817,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -2829,7 +2829,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -2841,7 +2841,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">

--- a/Debug Output/dubg_trials.xlsx
+++ b/Debug Output/dubg_trials.xlsx
@@ -381,7 +381,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 117</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -393,7 +393,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -405,7 +405,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -417,7 +417,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -429,7 +429,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -441,7 +441,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -453,7 +453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -465,7 +465,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -477,7 +477,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -501,7 +501,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 117</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -537,7 +537,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sentence neg - 125</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -549,7 +549,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -561,7 +561,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sentence neg - 124</t>
+          <t>Sentence ntr - 117</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -573,7 +573,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -597,7 +597,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence neg - 138</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -633,7 +633,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sentence neg - 125</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -669,7 +669,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sentence neg - 124</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence neg - 138</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -705,7 +705,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -729,7 +729,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -753,7 +753,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -765,7 +765,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -789,7 +789,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -801,7 +801,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -813,7 +813,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -825,7 +825,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -837,7 +837,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -861,7 +861,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -885,7 +885,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -897,7 +897,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -909,7 +909,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence neg - 135</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -921,7 +921,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence neg - 130</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -933,7 +933,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -945,7 +945,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -981,7 +981,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -993,7 +993,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence neg - 135</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1005,7 +1005,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1017,7 +1017,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence neg - 130</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1029,7 +1029,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1041,7 +1041,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1053,7 +1053,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1077,7 +1077,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1089,7 +1089,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1101,7 +1101,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1113,7 +1113,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1125,7 +1125,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1137,7 +1137,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1149,7 +1149,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1161,7 +1161,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1173,7 +1173,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1197,7 +1197,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence neg - 133</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1209,7 +1209,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence neg - 132</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1233,7 +1233,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1269,7 +1269,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 117</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1281,7 +1281,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence neg - 127</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1293,7 +1293,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1305,7 +1305,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1317,7 +1317,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1329,7 +1329,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1341,7 +1341,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sentence neg - 124</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1365,7 +1365,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1377,7 +1377,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence neg - 128</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1389,7 +1389,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1401,7 +1401,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sentence neg - 125</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1413,7 +1413,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1425,7 +1425,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1437,7 +1437,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1449,7 +1449,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1461,7 +1461,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sentence neg - 137</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1473,7 +1473,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence neg - 126</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1485,7 +1485,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1497,7 +1497,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1509,7 +1509,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1521,7 +1521,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1533,7 +1533,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sentence neg - 132</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1545,7 +1545,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1557,7 +1557,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1569,7 +1569,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1581,7 +1581,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1593,7 +1593,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1605,7 +1605,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sentence neg - 128</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1617,7 +1617,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1629,7 +1629,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1641,7 +1641,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1653,7 +1653,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1665,7 +1665,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence ntr - 117</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1677,7 +1677,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1689,7 +1689,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1701,7 +1701,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1713,7 +1713,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1725,7 +1725,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sentence neg - 138</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1737,7 +1737,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1749,7 +1749,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1761,7 +1761,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence neg - 138</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1785,7 +1785,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1797,7 +1797,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 118</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1809,7 +1809,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence neg - 133</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1821,7 +1821,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1833,7 +1833,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1845,7 +1845,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence neg - 132</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1857,7 +1857,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1869,7 +1869,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1881,7 +1881,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1905,7 +1905,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence neg - 127</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1917,7 +1917,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1929,7 +1929,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -1941,7 +1941,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sentence neg - 124</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -1953,7 +1953,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -1965,7 +1965,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -1977,7 +1977,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence neg - 128</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -1989,7 +1989,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2001,7 +2001,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Sentence neg - 125</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2013,7 +2013,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2025,7 +2025,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 113</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2037,7 +2037,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2061,7 +2061,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sentence neg - 137</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2073,7 +2073,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence neg - 126</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2085,7 +2085,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2097,7 +2097,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2109,7 +2109,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2121,7 +2121,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2133,7 +2133,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 112</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2145,7 +2145,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sentence neg - 132</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2169,7 +2169,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2181,7 +2181,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2193,7 +2193,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sentence ntr - 115</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2205,7 +2205,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2217,7 +2217,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Sentence neg - 128</t>
+          <t>Sentence ntr - 114</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2229,7 +2229,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2241,7 +2241,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 117</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2253,7 +2253,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sentence neg - 120</t>
+          <t>Sentence neg - 121</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2265,7 +2265,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2277,7 +2277,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2289,7 +2289,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2301,7 +2301,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2313,7 +2313,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2325,7 +2325,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence neg - 131</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2337,7 +2337,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2349,7 +2349,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sentence neg - 138</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2361,7 +2361,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence neg - 138</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2373,7 +2373,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2385,7 +2385,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2397,7 +2397,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2409,7 +2409,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2421,7 +2421,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2433,7 +2433,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2445,7 +2445,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2457,7 +2457,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2469,7 +2469,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2481,7 +2481,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2493,7 +2493,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2505,7 +2505,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 140</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2517,7 +2517,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2529,7 +2529,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2541,7 +2541,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sentence neg - 126</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2553,7 +2553,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2565,7 +2565,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Sentence neg - 135</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2577,7 +2577,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2589,7 +2589,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence neg - 135</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2601,7 +2601,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2613,7 +2613,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2625,7 +2625,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence neg - 124</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2637,7 +2637,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence neg - 129</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2649,7 +2649,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2661,7 +2661,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence neg - 123</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2673,7 +2673,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence neg - 126</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2685,7 +2685,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 137</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2697,7 +2697,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence neg - 130</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2709,7 +2709,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence neg - 125</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2721,7 +2721,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2733,7 +2733,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence neg - 134</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2745,7 +2745,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence neg - 122</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2757,7 +2757,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2769,7 +2769,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 116</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2781,7 +2781,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Sentence neg - 136</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2793,7 +2793,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence neg - 136</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -2805,7 +2805,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Sentence neg - 130</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -2817,7 +2817,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -2829,7 +2829,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence ntr - 111</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -2841,7 +2841,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">

--- a/Debug Output/dubg_trials.xlsx
+++ b/Debug Output/dubg_trials.xlsx
@@ -381,7 +381,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sentence ntr - 117</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -393,7 +393,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -405,7 +405,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -429,7 +429,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -441,7 +441,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -453,7 +453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -465,7 +465,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -477,7 +477,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -501,7 +501,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sentence ntr - 117</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -537,7 +537,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence neg - 41</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -549,7 +549,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -561,7 +561,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sentence ntr - 117</t>
+          <t>Sentence neg - 20</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -573,7 +573,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence neg - 27</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -597,7 +597,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sentence neg - 138</t>
+          <t>Sentence neg - 41</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence neg - 20</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -633,7 +633,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -669,7 +669,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sentence neg - 138</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -705,7 +705,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence neg - 27</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -729,7 +729,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -741,7 +741,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -753,7 +753,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -765,7 +765,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -789,7 +789,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -801,7 +801,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -813,7 +813,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -825,7 +825,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -837,7 +837,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -849,7 +849,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -861,7 +861,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence neg - 43</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -885,7 +885,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -897,7 +897,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence neg - 28</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -909,7 +909,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sentence neg - 135</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -921,7 +921,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sentence neg - 130</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -933,7 +933,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -945,7 +945,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence neg - 67</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence neg - 43</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -981,7 +981,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -993,7 +993,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sentence neg - 135</t>
+          <t>Sentence neg - 28</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1005,7 +1005,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1017,7 +1017,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sentence neg - 130</t>
+          <t>Sentence neg - 67</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1029,7 +1029,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1041,7 +1041,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1053,7 +1053,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1089,7 +1089,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1101,7 +1101,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1113,7 +1113,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1125,7 +1125,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1137,7 +1137,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1149,7 +1149,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1161,7 +1161,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1173,7 +1173,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1185,7 +1185,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1197,7 +1197,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sentence neg - 133</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1209,7 +1209,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sentence neg - 132</t>
+          <t>Sentence ntr - 84</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1233,7 +1233,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 57</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1269,7 +1269,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sentence ntr - 117</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1281,7 +1281,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sentence neg - 127</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1293,7 +1293,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1305,7 +1305,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1317,7 +1317,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sentence neg - 125</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1329,7 +1329,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 21</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1341,7 +1341,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1353,7 +1353,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1365,7 +1365,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1377,7 +1377,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sentence neg - 128</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1389,7 +1389,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1401,7 +1401,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1413,7 +1413,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1425,7 +1425,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence neg - 4</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1437,7 +1437,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1449,7 +1449,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1461,7 +1461,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence neg - 41</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1473,7 +1473,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sentence neg - 126</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1485,7 +1485,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1497,7 +1497,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence neg - 31</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1509,7 +1509,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1521,7 +1521,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1533,7 +1533,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1545,7 +1545,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1557,7 +1557,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1569,7 +1569,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence neg - 65</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1581,7 +1581,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1593,7 +1593,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1605,7 +1605,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1617,7 +1617,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1629,7 +1629,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 8</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1641,7 +1641,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 84</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1653,7 +1653,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence neg - 27</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1665,7 +1665,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sentence ntr - 117</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1677,7 +1677,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1689,7 +1689,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1701,7 +1701,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence neg - 20</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1713,7 +1713,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1725,7 +1725,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1737,7 +1737,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1749,7 +1749,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1761,7 +1761,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence neg - 29</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sentence neg - 138</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1785,7 +1785,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1797,7 +1797,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence neg - 12</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1809,7 +1809,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sentence neg - 133</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1821,7 +1821,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1833,7 +1833,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1845,7 +1845,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sentence neg - 132</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1857,7 +1857,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence neg - 57</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1869,7 +1869,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1881,7 +1881,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1893,7 +1893,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1905,7 +1905,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sentence neg - 127</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1917,7 +1917,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1929,7 +1929,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sentence neg - 125</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -1941,7 +1941,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -1953,7 +1953,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -1965,7 +1965,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence neg - 21</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -1977,7 +1977,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sentence neg - 128</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -1989,7 +1989,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2001,7 +2001,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2013,7 +2013,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2025,7 +2025,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sentence ntr - 113</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2037,7 +2037,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence neg - 4</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2049,7 +2049,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sentence ntr - 118</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2061,7 +2061,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2073,7 +2073,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sentence neg - 126</t>
+          <t>Sentence neg - 41</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2085,7 +2085,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2097,7 +2097,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence neg - 31</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2109,7 +2109,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2121,7 +2121,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2133,7 +2133,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sentence ntr - 112</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2145,7 +2145,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 84</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2169,7 +2169,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence neg - 65</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2181,7 +2181,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2193,7 +2193,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2205,7 +2205,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2217,7 +2217,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Sentence ntr - 114</t>
+          <t>Sentence neg - 8</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2229,7 +2229,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2241,7 +2241,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sentence ntr - 117</t>
+          <t>Sentence neg - 27</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2253,7 +2253,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sentence neg - 121</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2265,7 +2265,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2277,7 +2277,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2289,7 +2289,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence neg - 20</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2301,7 +2301,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2313,7 +2313,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2325,7 +2325,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sentence neg - 131</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2337,7 +2337,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2349,7 +2349,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence neg - 29</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2361,7 +2361,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sentence neg - 138</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2373,7 +2373,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence neg - 12</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2397,7 +2397,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2409,7 +2409,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2421,7 +2421,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2433,7 +2433,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2445,7 +2445,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2457,7 +2457,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2469,7 +2469,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2481,7 +2481,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2493,7 +2493,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2505,7 +2505,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Sentence ntr - 140</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2517,7 +2517,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2529,7 +2529,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2541,7 +2541,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence neg - 29</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2553,7 +2553,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2565,7 +2565,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2577,7 +2577,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence neg - 43</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2589,7 +2589,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Sentence neg - 135</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2601,7 +2601,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2613,7 +2613,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2625,7 +2625,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Sentence neg - 124</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2637,7 +2637,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Sentence neg - 129</t>
+          <t>Sentence neg - 23</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2649,7 +2649,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence neg - 1</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2661,7 +2661,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Sentence neg - 123</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2673,7 +2673,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Sentence neg - 126</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2685,7 +2685,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Sentence neg - 137</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2697,7 +2697,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Sentence neg - 130</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2709,7 +2709,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Sentence neg - 125</t>
+          <t>Sentence neg - 31</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2721,7 +2721,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2733,7 +2733,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Sentence neg - 134</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2745,7 +2745,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Sentence neg - 122</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2757,7 +2757,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2769,7 +2769,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Sentence ntr - 116</t>
+          <t>Sentence neg - 28</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2781,7 +2781,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 67</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2793,7 +2793,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Sentence neg - 136</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -2805,7 +2805,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -2817,7 +2817,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -2829,7 +2829,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Sentence ntr - 111</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -2841,7 +2841,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">

--- a/Debug Output/dubg_trials.xlsx
+++ b/Debug Output/dubg_trials.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -381,7 +381,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -393,7 +393,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -405,7 +405,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -417,7 +417,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -429,7 +429,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -441,7 +441,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -453,7 +453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -465,7 +465,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -477,7 +477,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -501,7 +501,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -537,7 +537,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sentence neg - 41</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -549,7 +549,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sentence neg - 30</t>
+          <t>Sentence neg - 21</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -561,7 +561,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sentence neg - 20</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -573,7 +573,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sentence neg - 27</t>
+          <t>Sentence neg - 19</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -597,7 +597,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sentence neg - 41</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sentence neg - 30</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sentence neg - 20</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -633,7 +633,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 21</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -669,7 +669,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -705,7 +705,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sentence neg - 27</t>
+          <t>Sentence neg - 19</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -729,7 +729,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -741,7 +741,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -753,7 +753,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -765,7 +765,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -789,7 +789,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -801,7 +801,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -813,7 +813,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -825,7 +825,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -837,7 +837,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -849,7 +849,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -861,7 +861,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence neg - 41</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sentence neg - 43</t>
+          <t>Sentence neg - 29</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -885,7 +885,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -897,7 +897,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sentence neg - 28</t>
+          <t>Sentence neg - 31</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -909,7 +909,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -921,7 +921,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence neg - 4</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -933,7 +933,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence neg - 41</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -945,7 +945,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sentence neg - 67</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sentence neg - 43</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -981,7 +981,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 29</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -993,7 +993,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sentence neg - 28</t>
+          <t>Sentence neg - 31</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1005,7 +1005,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1017,7 +1017,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sentence neg - 67</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1029,7 +1029,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence neg - 4</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1041,7 +1041,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1053,7 +1053,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1077,7 +1077,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1089,7 +1089,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1101,7 +1101,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1113,7 +1113,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1125,7 +1125,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1137,7 +1137,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1149,7 +1149,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1161,7 +1161,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1173,7 +1173,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1185,7 +1185,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1197,7 +1197,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence neg - 51</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1209,7 +1209,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sentence ntr - 84</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1233,7 +1233,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sentence neg - 57</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence neg - 8</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1269,7 +1269,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1281,7 +1281,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1293,7 +1293,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1305,7 +1305,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1317,7 +1317,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1329,7 +1329,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sentence neg - 21</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1341,7 +1341,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1353,7 +1353,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1365,7 +1365,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1377,7 +1377,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1389,7 +1389,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1401,7 +1401,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence neg - 36</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1413,7 +1413,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1425,7 +1425,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sentence neg - 4</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1437,7 +1437,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1449,7 +1449,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1461,7 +1461,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sentence neg - 41</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1473,7 +1473,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1485,7 +1485,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1497,7 +1497,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sentence neg - 31</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1509,7 +1509,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence neg - 62</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1521,7 +1521,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1533,7 +1533,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1545,7 +1545,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1557,7 +1557,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1569,7 +1569,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sentence neg - 65</t>
+          <t>Sentence neg - 28</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1581,7 +1581,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1593,7 +1593,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1605,7 +1605,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1617,7 +1617,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1629,7 +1629,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sentence neg - 8</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1641,7 +1641,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sentence ntr - 84</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1653,7 +1653,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sentence neg - 27</t>
+          <t>Sentence neg - 21</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1665,7 +1665,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1677,7 +1677,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1689,7 +1689,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence neg - 19</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1701,7 +1701,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sentence neg - 20</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1713,7 +1713,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1725,7 +1725,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sentence neg - 30</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1737,7 +1737,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1749,7 +1749,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1761,7 +1761,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sentence neg - 29</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 51</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1785,7 +1785,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1797,7 +1797,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sentence neg - 12</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1809,7 +1809,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1821,7 +1821,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1833,7 +1833,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence neg - 8</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1845,7 +1845,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1857,7 +1857,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sentence neg - 57</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1869,7 +1869,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1881,7 +1881,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1893,7 +1893,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1905,7 +1905,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1917,7 +1917,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1929,7 +1929,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -1941,7 +1941,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -1953,7 +1953,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -1965,7 +1965,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sentence neg - 21</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -1977,7 +1977,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 84</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -1989,7 +1989,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2001,7 +2001,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2013,7 +2013,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2025,7 +2025,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 36</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2037,7 +2037,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sentence neg - 4</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2049,7 +2049,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2061,7 +2061,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2073,7 +2073,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sentence neg - 41</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2085,7 +2085,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2097,7 +2097,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sentence neg - 31</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2109,7 +2109,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2121,7 +2121,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 84</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2133,7 +2133,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence neg - 62</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2145,7 +2145,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sentence ntr - 84</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2169,7 +2169,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sentence neg - 65</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2181,7 +2181,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2193,7 +2193,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2205,7 +2205,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 28</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2217,7 +2217,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Sentence neg - 8</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2229,7 +2229,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2241,7 +2241,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sentence neg - 27</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2253,7 +2253,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2265,7 +2265,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2277,7 +2277,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 21</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2289,7 +2289,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sentence neg - 20</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2301,7 +2301,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence neg - 19</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2313,7 +2313,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2325,7 +2325,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sentence neg - 30</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2337,7 +2337,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2349,7 +2349,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sentence neg - 29</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2361,7 +2361,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2373,7 +2373,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sentence neg - 12</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2385,7 +2385,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2397,7 +2397,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2409,7 +2409,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2421,7 +2421,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2433,7 +2433,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2445,7 +2445,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2457,7 +2457,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2469,7 +2469,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2481,7 +2481,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2493,7 +2493,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2505,7 +2505,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2517,7 +2517,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2529,7 +2529,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2541,7 +2541,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sentence neg - 29</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2553,7 +2553,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence neg - 29</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2565,7 +2565,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence neg - 28</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2577,7 +2577,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Sentence neg - 43</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2589,7 +2589,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2601,7 +2601,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2613,7 +2613,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2625,7 +2625,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence neg - 57</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2637,7 +2637,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Sentence neg - 23</t>
+          <t>Sentence neg - 1</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2649,7 +2649,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sentence neg - 1</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2661,7 +2661,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2673,7 +2673,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence neg - 41</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2685,7 +2685,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2697,7 +2697,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2709,7 +2709,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Sentence neg - 31</t>
+          <t>Sentence neg - 67</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2721,7 +2721,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2733,7 +2733,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2745,7 +2745,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2757,7 +2757,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2769,7 +2769,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Sentence neg - 28</t>
+          <t>Sentence neg - 11</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2781,7 +2781,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Sentence neg - 67</t>
+          <t>Sentence neg - 4</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2793,7 +2793,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -2805,7 +2805,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -2817,7 +2817,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 23</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -2829,7 +2829,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -2841,7 +2841,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 31</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">

--- a/Debug Output/dubg_trials.xlsx
+++ b/Debug Output/dubg_trials.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B207"/>
+  <dimension ref="A1:B197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -381,7 +381,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -393,7 +393,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -405,7 +405,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -417,7 +417,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -429,7 +429,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -441,7 +441,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -453,7 +453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -465,7 +465,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -477,7 +477,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -501,7 +501,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -537,7 +537,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -561,7 +561,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sentence neg - 30</t>
+          <t>Sentence neg - 62</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -573,7 +573,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sentence neg - 19</t>
+          <t>Sentence neg - 31</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -597,7 +597,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 62</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -669,7 +669,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 31</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sentence neg - 30</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -705,7 +705,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sentence neg - 19</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -729,7 +729,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -741,7 +741,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -753,7 +753,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -765,7 +765,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -789,7 +789,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -801,7 +801,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -813,7 +813,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -825,7 +825,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -837,7 +837,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -849,7 +849,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -861,7 +861,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sentence neg - 41</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sentence neg - 29</t>
+          <t>Sentence neg - 65</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -885,7 +885,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -897,7 +897,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sentence neg - 31</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -909,7 +909,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -921,7 +921,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sentence neg - 4</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -933,7 +933,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sentence neg - 41</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -945,7 +945,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -981,7 +981,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sentence neg - 29</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -993,7 +993,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sentence neg - 31</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1005,7 +1005,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence neg - 65</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1017,7 +1017,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1029,7 +1029,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sentence neg - 4</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1041,7 +1041,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1053,7 +1053,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1077,7 +1077,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1101,7 +1101,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence neg - 11</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1113,7 +1113,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1125,7 +1125,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1137,7 +1137,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence neg - 12</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1149,7 +1149,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 84</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1161,7 +1161,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1173,7 +1173,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1185,7 +1185,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1197,7 +1197,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sentence neg - 51</t>
+          <t>Sentence neg - 19</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1209,7 +1209,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1233,7 +1233,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sentence neg - 8</t>
+          <t>Sentence neg - 51</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1269,7 +1269,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1281,7 +1281,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1293,7 +1293,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 29</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1305,7 +1305,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1317,7 +1317,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1329,7 +1329,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence neg - 28</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1341,7 +1341,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1353,7 +1353,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence neg - 62</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1365,7 +1365,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1377,7 +1377,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sentence neg - 30</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1389,7 +1389,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1401,7 +1401,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sentence neg - 36</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1413,7 +1413,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1425,7 +1425,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1437,7 +1437,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1449,7 +1449,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence neg - 21</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1461,7 +1461,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1473,7 +1473,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1485,7 +1485,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 4</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1497,7 +1497,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1509,7 +1509,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sentence neg - 62</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1521,7 +1521,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1533,7 +1533,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence neg - 31</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1545,7 +1545,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1557,7 +1557,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1569,7 +1569,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sentence neg - 28</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1581,7 +1581,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence ntr - 84</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1593,7 +1593,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence neg - 23</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1605,7 +1605,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1617,7 +1617,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1629,7 +1629,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence neg - 43</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1641,7 +1641,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1653,7 +1653,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sentence neg - 21</t>
+          <t>Sentence neg - 27</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1665,7 +1665,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1677,7 +1677,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1689,7 +1689,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sentence neg - 19</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1701,7 +1701,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1713,7 +1713,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1725,7 +1725,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence neg - 11</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1737,7 +1737,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1749,7 +1749,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1761,7 +1761,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence neg - 12</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sentence neg - 51</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1785,7 +1785,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1797,7 +1797,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1809,7 +1809,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1821,7 +1821,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence neg - 19</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1833,7 +1833,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sentence neg - 8</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1845,7 +1845,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1857,7 +1857,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1869,7 +1869,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence neg - 51</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1881,7 +1881,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1893,7 +1893,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 29</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1905,7 +1905,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1917,7 +1917,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence neg - 28</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1929,7 +1929,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -1941,7 +1941,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -1953,7 +1953,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 62</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -1965,7 +1965,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence ntr - 84</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -1977,7 +1977,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sentence ntr - 84</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -1989,7 +1989,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2001,7 +2001,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Sentence neg - 30</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2013,7 +2013,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2025,7 +2025,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sentence neg - 36</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2037,7 +2037,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2049,7 +2049,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence neg - 21</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2061,7 +2061,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2073,7 +2073,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2085,7 +2085,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence neg - 4</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2097,7 +2097,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2109,7 +2109,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2121,7 +2121,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sentence ntr - 84</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2133,7 +2133,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sentence neg - 62</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2145,7 +2145,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence neg - 31</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2169,7 +2169,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2181,7 +2181,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2193,7 +2193,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence neg - 23</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2205,7 +2205,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sentence neg - 28</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2217,7 +2217,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence neg - 43</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2229,7 +2229,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2241,7 +2241,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 27</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2253,7 +2253,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2265,7 +2265,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2277,127 +2277,127 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sentence neg - 21</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sentence neg - 19</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2409,7 +2409,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2421,7 +2421,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2433,7 +2433,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2445,7 +2445,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2457,7 +2457,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2469,7 +2469,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2481,7 +2481,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2493,7 +2493,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence neg - 29</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2505,7 +2505,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence neg - 65</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2517,7 +2517,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2529,7 +2529,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2541,7 +2541,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence neg - 27</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2553,7 +2553,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sentence neg - 29</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2565,7 +2565,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Sentence neg - 28</t>
+          <t>Sentence neg - 12</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2577,7 +2577,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2589,7 +2589,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2601,7 +2601,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2613,7 +2613,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2625,7 +2625,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Sentence neg - 57</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2637,7 +2637,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Sentence neg - 1</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2649,7 +2649,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2661,7 +2661,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2685,7 +2685,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2697,7 +2697,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence neg - 67</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2709,7 +2709,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Sentence neg - 67</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2721,130 +2721,10 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence neg - 51</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
-        <is>
-          <t>MAB_phase</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>Sentence neg - 40</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>MAB_phase</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>Sentence ntr - 74</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>MAB_phase</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>Sentence neg - 26</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>MAB_phase</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>Sentence neg - 11</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>MAB_phase</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>Sentence neg - 4</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>MAB_phase</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>Sentence ntr - 83</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>MAB_phase</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>Sentence ntr - 109</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>MAB_phase</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>Sentence neg - 23</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>MAB_phase</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>Sentence ntr - 72</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>MAB_phase</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>Sentence neg - 31</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
         <is>
           <t>MAB_phase</t>
         </is>

--- a/Debug Output/dubg_trials.xlsx
+++ b/Debug Output/dubg_trials.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50,22 +50,89 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -381,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -393,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -405,7 +472,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -417,7 +484,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -429,7 +496,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -441,7 +508,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -453,7 +520,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -465,7 +532,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -477,7 +544,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -489,7 +556,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -501,7 +568,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence neg - 67</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -513,7 +580,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sentence neg - 30</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -525,7 +592,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -537,7 +604,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -549,7 +616,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sentence neg - 21</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -561,7 +628,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sentence neg - 62</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -573,7 +640,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sentence neg - 31</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -585,7 +652,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence neg - 11</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -597,7 +664,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sentence neg - 30</t>
+          <t>Sentence neg - 51</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -609,7 +676,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence neg - 36</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -621,7 +688,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence neg - 67</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -633,7 +700,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -645,7 +712,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sentence neg - 21</t>
+          <t>Sentence neg - 11</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -657,7 +724,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sentence neg - 62</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -669,7 +736,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -681,7 +748,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sentence neg - 31</t>
+          <t>Sentence neg - 51</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -693,7 +760,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 36</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -705,7 +772,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -717,7 +784,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -729,7 +796,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 84</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -741,7 +808,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -753,7 +820,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sentence ntr - 78</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -765,7 +832,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -777,7 +844,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -789,7 +856,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 84</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -801,7 +868,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sentence ntr - 78</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -813,7 +880,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -825,7 +892,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -837,7 +904,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence neg - 20</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -849,7 +916,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -861,7 +928,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -873,7 +940,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sentence neg - 65</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -885,7 +952,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -897,7 +964,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sentence ntr - 78</t>
+          <t>Sentence ntr - 84</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -909,7 +976,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -921,7 +988,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -933,7 +1000,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sentence ntr - 78</t>
+          <t>Sentence neg - 28</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -945,7 +1012,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence neg - 20</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -957,7 +1024,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -969,7 +1036,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -981,7 +1048,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence ntr - 84</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -993,7 +1060,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1005,7 +1072,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sentence neg - 65</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1017,7 +1084,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1029,7 +1096,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1041,7 +1108,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence neg - 28</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1053,7 +1120,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1065,7 +1132,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1077,7 +1144,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence neg - 57</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1089,7 +1156,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1101,7 +1168,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sentence neg - 11</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1113,7 +1180,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1125,7 +1192,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1137,7 +1204,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sentence neg - 12</t>
+          <t>Sentence neg - 43</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1149,7 +1216,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sentence ntr - 84</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1161,7 +1228,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1173,7 +1240,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1185,7 +1252,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1197,7 +1264,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sentence neg - 19</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1209,7 +1276,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1221,7 +1288,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence neg - 51</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1233,7 +1300,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1245,7 +1312,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence neg - 11</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1257,7 +1324,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sentence neg - 51</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1269,7 +1336,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1281,7 +1348,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence neg - 67</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1293,7 +1360,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sentence neg - 29</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1305,7 +1372,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence neg - 65</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1317,7 +1384,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1329,7 +1396,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sentence neg - 28</t>
+          <t>Sentence neg - 31</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1353,7 +1420,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sentence neg - 62</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1365,7 +1432,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1377,7 +1444,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1389,7 +1456,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence neg - 1</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1401,7 +1468,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1413,7 +1480,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1425,7 +1492,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1437,7 +1504,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1449,7 +1516,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sentence neg - 21</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1461,7 +1528,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1473,7 +1540,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1485,7 +1552,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sentence neg - 4</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1509,7 +1576,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1521,7 +1588,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence neg - 36</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1533,7 +1600,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sentence neg - 31</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1545,7 +1612,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1557,7 +1624,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sentence neg - 30</t>
+          <t>Sentence neg - 62</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1569,7 +1636,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1581,7 +1648,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sentence ntr - 84</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1593,7 +1660,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sentence neg - 23</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1605,7 +1672,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1617,7 +1684,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1629,7 +1696,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sentence neg - 43</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1641,7 +1708,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1653,7 +1720,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sentence neg - 27</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1665,7 +1732,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1677,7 +1744,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence neg - 57</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1689,7 +1756,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1701,7 +1768,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1713,7 +1780,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1725,7 +1792,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sentence neg - 11</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1737,7 +1804,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1749,7 +1816,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence neg - 43</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1761,7 +1828,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sentence neg - 12</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1773,7 +1840,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1785,7 +1852,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1797,7 +1864,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1809,7 +1876,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1821,7 +1888,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sentence neg - 19</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1833,7 +1900,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1845,7 +1912,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence neg - 51</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1857,7 +1924,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1869,7 +1936,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sentence neg - 51</t>
+          <t>Sentence neg - 11</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1881,7 +1948,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1893,7 +1960,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sentence neg - 29</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1905,7 +1972,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence neg - 67</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1917,7 +1984,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sentence neg - 28</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1941,7 +2008,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence neg - 65</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -1953,7 +2020,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sentence neg - 62</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -1965,7 +2032,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sentence ntr - 84</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -1977,7 +2044,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence neg - 31</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -1989,7 +2056,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2001,7 +2068,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2013,7 +2080,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2025,7 +2092,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2037,7 +2104,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence neg - 1</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2049,7 +2116,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sentence neg - 21</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2061,7 +2128,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2073,7 +2140,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2085,7 +2152,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sentence neg - 4</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2097,7 +2164,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2109,7 +2176,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2121,7 +2188,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2133,7 +2200,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2145,7 +2212,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sentence neg - 31</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2157,7 +2224,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 36</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2169,7 +2236,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sentence neg - 30</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2181,7 +2248,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence neg - 62</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2193,7 +2260,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sentence neg - 23</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2205,7 +2272,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2217,7 +2284,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Sentence neg - 43</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2229,7 +2296,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2241,7 +2308,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sentence neg - 27</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2253,7 +2320,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2265,7 +2332,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2277,7 +2344,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2289,7 +2356,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sentence ntr - 78</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2301,7 +2368,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 84</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2313,7 +2380,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2325,7 +2392,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2337,7 +2404,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2349,7 +2416,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2361,7 +2428,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2373,7 +2440,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2385,7 +2452,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2397,7 +2464,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2409,7 +2476,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2421,7 +2488,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2433,7 +2500,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence neg - 28</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2445,7 +2512,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2457,7 +2524,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2469,7 +2536,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2481,7 +2548,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence neg - 4</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2493,7 +2560,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Sentence neg - 29</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2505,7 +2572,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Sentence neg - 65</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2517,7 +2584,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2529,7 +2596,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2541,7 +2608,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sentence neg - 27</t>
+          <t>Sentence ntr - 84</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2553,7 +2620,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2565,7 +2632,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Sentence neg - 12</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2577,7 +2644,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2589,7 +2656,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2601,7 +2668,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence neg - 23</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2613,7 +2680,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence neg - 20</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2625,7 +2692,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 21</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2637,7 +2704,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2649,7 +2716,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2661,7 +2728,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Sentence ntr - 78</t>
+          <t>Sentence neg - 31</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2685,7 +2752,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2697,7 +2764,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Sentence neg - 67</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2709,7 +2776,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2721,7 +2788,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sentence neg - 51</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2731,6 +2798,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Debug Output/dubg_trials.xlsx
+++ b/Debug Output/dubg_trials.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B197"/>
+  <dimension ref="A1:B207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sentence neg - 67</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sentence neg - 11</t>
+          <t>Sentence neg - 19</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sentence neg - 51</t>
+          <t>Sentence neg - 23</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sentence neg - 36</t>
+          <t>Sentence neg - 57</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sentence neg - 67</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sentence neg - 11</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence neg - 19</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sentence neg - 51</t>
+          <t>Sentence neg - 23</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sentence neg - 36</t>
+          <t>Sentence neg - 57</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sentence ntr - 84</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sentence ntr - 84</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sentence neg - 20</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sentence ntr - 84</t>
+          <t>Sentence neg - 21</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 4</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sentence neg - 28</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sentence neg - 20</t>
+          <t>Sentence neg - 29</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sentence ntr - 84</t>
+          <t>Sentence neg - 21</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence neg - 4</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence neg - 29</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sentence neg - 28</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sentence neg - 57</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sentence ntr - 78</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sentence neg - 43</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1240,7 +1240,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1264,7 +1264,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1276,7 +1276,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 77</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1288,7 +1288,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sentence neg - 51</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1300,7 +1300,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence neg - 38</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1312,7 +1312,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sentence neg - 11</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1324,7 +1324,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1336,7 +1336,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence neg - 55</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1348,7 +1348,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sentence neg - 67</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 37</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1372,7 +1372,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sentence neg - 65</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1384,7 +1384,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 20</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1396,7 +1396,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sentence neg - 31</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1408,7 +1408,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1420,7 +1420,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence neg - 12</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1444,7 +1444,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1456,7 +1456,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sentence neg - 1</t>
+          <t>Sentence neg - 23</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1468,7 +1468,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1480,7 +1480,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1492,7 +1492,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence neg - 50</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1504,7 +1504,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1516,7 +1516,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1528,7 +1528,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1540,7 +1540,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1552,7 +1552,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1564,7 +1564,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 77</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1576,7 +1576,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 62</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1588,7 +1588,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sentence neg - 36</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1600,7 +1600,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1612,7 +1612,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1624,7 +1624,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sentence neg - 62</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1648,7 +1648,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1660,7 +1660,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1672,7 +1672,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1684,7 +1684,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1696,7 +1696,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1708,7 +1708,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence neg - 41</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1720,7 +1720,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sentence ntr - 78</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1732,7 +1732,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1744,7 +1744,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sentence neg - 57</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1756,7 +1756,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1768,7 +1768,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence neg - 57</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1780,7 +1780,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1792,7 +1792,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1804,7 +1804,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1816,7 +1816,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sentence neg - 43</t>
+          <t>Sentence neg - 8</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1828,7 +1828,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 77</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1852,7 +1852,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence neg - 19</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1864,7 +1864,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1876,7 +1876,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1900,7 +1900,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence neg - 38</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1912,7 +1912,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sentence neg - 51</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1924,7 +1924,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1936,7 +1936,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sentence neg - 11</t>
+          <t>Sentence neg - 55</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1948,7 +1948,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1960,7 +1960,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence neg - 37</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1972,7 +1972,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sentence neg - 67</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1984,7 +1984,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence neg - 20</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1996,7 +1996,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2008,7 +2008,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sentence neg - 65</t>
+          <t>Sentence neg - 12</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2020,7 +2020,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2032,7 +2032,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence neg - 23</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sentence neg - 31</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2056,7 +2056,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence neg - 50</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2068,7 +2068,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2080,7 +2080,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2092,7 +2092,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2104,7 +2104,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sentence neg - 1</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2116,7 +2116,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2128,7 +2128,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2140,7 +2140,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2152,7 +2152,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence neg - 62</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2164,7 +2164,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2176,7 +2176,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sentence ntr - 78</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2188,7 +2188,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2200,7 +2200,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2212,7 +2212,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2224,7 +2224,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sentence neg - 36</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2236,7 +2236,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sentence neg - 62</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2260,7 +2260,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2272,7 +2272,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2284,7 +2284,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence neg - 41</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2296,7 +2296,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2308,7 +2308,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2320,7 +2320,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2332,7 +2332,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2344,36 +2344,36 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence neg - 57</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sentence ntr - 84</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
@@ -2385,86 +2385,86 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence neg - 8</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 19</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 77</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>afact_phase</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2476,7 +2476,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2488,7 +2488,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2500,7 +2500,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sentence neg - 28</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2512,7 +2512,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2524,7 +2524,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2536,7 +2536,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2548,7 +2548,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sentence neg - 4</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2560,7 +2560,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2572,7 +2572,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2584,7 +2584,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2596,7 +2596,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2608,7 +2608,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sentence ntr - 84</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2620,7 +2620,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2632,7 +2632,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2644,7 +2644,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence neg - 37</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2668,7 +2668,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Sentence neg - 23</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2680,7 +2680,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sentence neg - 20</t>
+          <t>Sentence neg - 47</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2692,7 +2692,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Sentence neg - 21</t>
+          <t>Sentence neg - 44</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2704,7 +2704,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence neg - 41</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2716,7 +2716,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2728,7 +2728,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Sentence neg - 31</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2740,7 +2740,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Sentence neg - 41</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2752,7 +2752,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 4</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2764,7 +2764,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2776,7 +2776,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence neg - 29</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2788,10 +2788,130 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Sentence ntr - 70</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Sentence neg - 21</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Sentence neg - 38</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Sentence ntr - 90</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Sentence ntr - 77</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Sentence ntr - 80</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Sentence ntr - 68</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Sentence neg - 55</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Sentence ntr - 71</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>MAB_phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Sentence ntr - 75</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
         <is>
           <t>MAB_phase</t>
         </is>

--- a/Debug Output/dubg_trials.xlsx
+++ b/Debug Output/dubg_trials.xlsx
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sentence ntr - 78</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sentence ntr - 78</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence neg - 38</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence neg - 55</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sentence neg - 19</t>
+          <t>Sentence neg - 47</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sentence neg - 23</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sentence neg - 57</t>
+          <t>Sentence neg - 21</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence neg - 38</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence neg - 55</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sentence neg - 19</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sentence ntr - 78</t>
+          <t>Sentence neg - 47</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sentence neg - 23</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sentence neg - 57</t>
+          <t>Sentence neg - 21</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence neg - 8</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 57</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sentence neg - 21</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence neg - 1</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sentence neg - 4</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sentence neg - 29</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sentence neg - 21</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence neg - 8</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sentence neg - 4</t>
+          <t>Sentence neg - 57</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sentence neg - 29</t>
+          <t>Sentence neg - 1</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1240,7 +1240,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1264,7 +1264,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence neg - 21</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1276,7 +1276,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sentence ntr - 77</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1288,7 +1288,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1300,7 +1300,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sentence neg - 38</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1312,7 +1312,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence neg - 65</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1324,7 +1324,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1336,7 +1336,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sentence neg - 55</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1348,7 +1348,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sentence neg - 37</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1372,7 +1372,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1384,7 +1384,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sentence neg - 20</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1396,7 +1396,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1408,7 +1408,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1420,7 +1420,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sentence neg - 12</t>
+          <t>Sentence neg - 47</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sentence ntr - 78</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1444,7 +1444,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1456,7 +1456,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sentence neg - 23</t>
+          <t>Sentence neg - 12</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1468,7 +1468,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1480,7 +1480,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1492,7 +1492,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sentence neg - 50</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1504,7 +1504,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1516,7 +1516,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1528,7 +1528,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1540,7 +1540,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1552,7 +1552,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence neg - 41</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1564,7 +1564,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sentence ntr - 77</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1576,7 +1576,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sentence neg - 62</t>
+          <t>Sentence neg - 37</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1588,7 +1588,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1600,7 +1600,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1612,7 +1612,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1624,7 +1624,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 44</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1648,7 +1648,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1660,7 +1660,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1672,7 +1672,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence neg - 55</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1684,7 +1684,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1696,7 +1696,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1708,7 +1708,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sentence neg - 41</t>
+          <t>Sentence neg - 51</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1720,7 +1720,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1732,7 +1732,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1744,7 +1744,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence neg - 62</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1756,7 +1756,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1768,7 +1768,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sentence neg - 57</t>
+          <t>Sentence neg - 38</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1780,7 +1780,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1792,7 +1792,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sentence neg - 30</t>
+          <t>Sentence neg - 29</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1804,7 +1804,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1816,7 +1816,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sentence neg - 8</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1828,7 +1828,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sentence ntr - 77</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sentence ntr - 78</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1852,7 +1852,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sentence neg - 19</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1864,7 +1864,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1876,7 +1876,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence neg - 21</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1900,7 +1900,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sentence neg - 38</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1912,7 +1912,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1924,7 +1924,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1936,7 +1936,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sentence neg - 55</t>
+          <t>Sentence neg - 65</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1948,7 +1948,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1960,7 +1960,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sentence neg - 37</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1972,7 +1972,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1984,7 +1984,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sentence neg - 20</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1996,7 +1996,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2008,7 +2008,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sentence neg - 12</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2020,7 +2020,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2032,7 +2032,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sentence neg - 23</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence neg - 47</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2056,7 +2056,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sentence neg - 50</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2068,7 +2068,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2080,7 +2080,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence neg - 12</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2092,7 +2092,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2104,7 +2104,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2116,7 +2116,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2128,7 +2128,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2140,7 +2140,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2152,7 +2152,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sentence neg - 62</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2164,7 +2164,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence neg - 41</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2176,7 +2176,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2188,7 +2188,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence neg - 37</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2200,7 +2200,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2212,7 +2212,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2224,7 +2224,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2236,7 +2236,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence neg - 44</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2260,7 +2260,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2272,7 +2272,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 55</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2284,7 +2284,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Sentence neg - 41</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2296,7 +2296,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence neg - 51</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2308,7 +2308,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2320,7 +2320,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2332,7 +2332,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence neg - 62</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2344,7 +2344,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sentence neg - 57</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2356,7 +2356,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence neg - 38</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2368,7 +2368,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sentence neg - 30</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2380,7 +2380,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 29</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2392,7 +2392,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2404,7 +2404,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sentence neg - 8</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2416,7 +2416,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sentence ntr - 78</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2428,7 +2428,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sentence neg - 19</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2440,7 +2440,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sentence ntr - 77</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2464,7 +2464,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2476,7 +2476,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2488,7 +2488,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2500,7 +2500,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2512,7 +2512,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2524,7 +2524,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2536,7 +2536,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2548,7 +2548,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2560,7 +2560,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2584,7 +2584,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2596,7 +2596,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2608,7 +2608,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2620,7 +2620,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2632,7 +2632,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2644,7 +2644,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Sentence neg - 37</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2668,7 +2668,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2680,7 +2680,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sentence neg - 47</t>
+          <t>Sentence neg - 11</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2692,7 +2692,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Sentence neg - 44</t>
+          <t>Sentence neg - 65</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2704,7 +2704,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Sentence neg - 41</t>
+          <t>Sentence neg - 19</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2716,7 +2716,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2728,7 +2728,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2740,7 +2740,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence neg - 57</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2752,7 +2752,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Sentence neg - 4</t>
+          <t>Sentence neg - 37</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2764,7 +2764,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2776,7 +2776,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Sentence neg - 29</t>
+          <t>Sentence neg - 36</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2800,7 +2800,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence neg - 44</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2812,7 +2812,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Sentence neg - 21</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2824,7 +2824,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Sentence neg - 38</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2836,7 +2836,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 1</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2848,7 +2848,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Sentence ntr - 77</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence neg - 41</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -2872,7 +2872,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence neg - 8</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -2884,7 +2884,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Sentence neg - 55</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -2896,7 +2896,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -2908,7 +2908,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">

--- a/Debug Output/dubg_trials.xlsx
+++ b/Debug Output/dubg_trials.xlsx
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sentence neg - 38</t>
+          <t>Sentence neg - 57</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 23</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sentence neg - 55</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sentence neg - 47</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence neg - 11</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sentence neg - 21</t>
+          <t>Sentence neg - 41</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sentence neg - 38</t>
+          <t>Sentence neg - 57</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sentence neg - 55</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence neg - 23</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sentence neg - 47</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence neg - 11</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sentence neg - 21</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence neg - 41</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sentence neg - 8</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 20</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sentence neg - 57</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sentence neg - 1</t>
+          <t>Sentence neg - 27</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 20</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sentence neg - 8</t>
+          <t>Sentence neg - 27</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sentence neg - 57</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sentence neg - 1</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sentence ntr - 78</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1240,7 +1240,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1264,7 +1264,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sentence neg - 21</t>
+          <t>Sentence neg - 67</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1276,7 +1276,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1288,7 +1288,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence neg - 11</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1312,7 +1312,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sentence neg - 65</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1324,7 +1324,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 41</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1336,7 +1336,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1348,7 +1348,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence neg - 19</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1372,7 +1372,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence neg - 65</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1384,7 +1384,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1396,7 +1396,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1408,7 +1408,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1420,7 +1420,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sentence neg - 47</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1444,7 +1444,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1456,7 +1456,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sentence neg - 12</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1468,7 +1468,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1480,7 +1480,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1492,7 +1492,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1504,7 +1504,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1516,7 +1516,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1528,7 +1528,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1540,7 +1540,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1552,7 +1552,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sentence neg - 41</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1564,7 +1564,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1576,7 +1576,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sentence neg - 37</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1588,7 +1588,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence neg - 8</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1600,7 +1600,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1612,7 +1612,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence neg - 29</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1624,7 +1624,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sentence neg - 44</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1648,7 +1648,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence neg - 12</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1660,7 +1660,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1672,7 +1672,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sentence neg - 55</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1684,7 +1684,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1696,7 +1696,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1708,7 +1708,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sentence neg - 51</t>
+          <t>Sentence neg - 57</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1720,7 +1720,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1732,7 +1732,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1744,7 +1744,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sentence neg - 62</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1756,7 +1756,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1768,7 +1768,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sentence neg - 38</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1780,7 +1780,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence neg - 21</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1792,7 +1792,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sentence neg - 29</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1804,7 +1804,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1816,7 +1816,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1828,7 +1828,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence neg - 23</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1852,7 +1852,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1864,7 +1864,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence neg - 67</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1876,7 +1876,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sentence neg - 21</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 11</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1900,7 +1900,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1912,7 +1912,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 41</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1924,7 +1924,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1936,7 +1936,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sentence neg - 65</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1948,7 +1948,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence neg - 19</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1960,7 +1960,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sentence ntr - 78</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1972,7 +1972,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1984,7 +1984,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence neg - 65</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1996,7 +1996,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2008,7 +2008,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2020,7 +2020,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2032,7 +2032,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sentence neg - 47</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2056,7 +2056,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2068,7 +2068,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Sentence ntr - 78</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2080,7 +2080,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sentence neg - 12</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2092,7 +2092,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2104,7 +2104,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2116,7 +2116,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2128,7 +2128,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2140,7 +2140,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2152,7 +2152,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2164,7 +2164,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sentence neg - 41</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2176,7 +2176,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2188,7 +2188,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sentence neg - 37</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2200,7 +2200,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence neg - 8</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2212,7 +2212,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2224,7 +2224,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence neg - 29</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2236,7 +2236,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sentence neg - 44</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence neg - 12</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2260,7 +2260,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2272,7 +2272,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sentence neg - 55</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2284,7 +2284,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2296,7 +2296,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sentence neg - 51</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2308,7 +2308,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2320,7 +2320,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence neg - 57</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2332,7 +2332,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sentence neg - 62</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2344,7 +2344,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2356,7 +2356,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sentence neg - 38</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2368,7 +2368,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2380,7 +2380,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sentence neg - 29</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2392,7 +2392,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence neg - 21</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2404,7 +2404,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2416,7 +2416,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2428,7 +2428,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2440,7 +2440,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence neg - 23</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2464,7 +2464,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2476,7 +2476,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2488,7 +2488,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2500,7 +2500,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2512,7 +2512,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2524,7 +2524,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2536,7 +2536,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2560,7 +2560,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2572,7 +2572,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2584,7 +2584,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2596,7 +2596,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2608,7 +2608,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence neg - 27</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2620,7 +2620,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2632,7 +2632,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2644,7 +2644,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2668,7 +2668,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2680,7 +2680,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sentence neg - 11</t>
+          <t>Sentence neg - 21</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2692,7 +2692,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Sentence neg - 65</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2704,7 +2704,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Sentence neg - 19</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2716,7 +2716,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2728,7 +2728,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2740,7 +2740,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Sentence neg - 57</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2752,7 +2752,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Sentence neg - 37</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2764,7 +2764,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2776,7 +2776,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Sentence neg - 36</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2788,7 +2788,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2800,7 +2800,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Sentence neg - 44</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2812,7 +2812,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2824,7 +2824,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence neg - 67</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2836,7 +2836,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Sentence neg - 1</t>
+          <t>Sentence neg - 31</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2848,7 +2848,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Sentence neg - 41</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -2872,7 +2872,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Sentence neg - 8</t>
+          <t>Sentence neg - 20</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -2884,7 +2884,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -2896,7 +2896,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -2908,7 +2908,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">

--- a/Debug Output/dubg_trials.xlsx
+++ b/Debug Output/dubg_trials.xlsx
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sentence neg - 57</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sentence neg - 23</t>
+          <t>Sentence neg - 1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence neg - 62</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sentence neg - 11</t>
+          <t>Sentence neg - 1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sentence neg - 41</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sentence neg - 57</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sentence neg - 23</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sentence neg - 11</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sentence neg - 41</t>
+          <t>Sentence neg - 62</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sentence neg - 20</t>
+          <t>Sentence neg - 21</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence neg - 4</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sentence neg - 27</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sentence neg - 30</t>
+          <t>Sentence neg - 11</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sentence neg - 20</t>
+          <t>Sentence neg - 21</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sentence neg - 27</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sentence neg - 30</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence neg - 4</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence neg - 11</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1240,7 +1240,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1264,7 +1264,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sentence neg - 67</t>
+          <t>Sentence neg - 28</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1276,7 +1276,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1288,7 +1288,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sentence neg - 11</t>
+          <t>Sentence neg - 1</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1300,7 +1300,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1312,7 +1312,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1324,7 +1324,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sentence neg - 41</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1336,7 +1336,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1348,7 +1348,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sentence neg - 19</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1372,7 +1372,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sentence neg - 65</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1384,7 +1384,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1396,7 +1396,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence neg - 36</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1408,7 +1408,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1420,7 +1420,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1444,7 +1444,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1456,7 +1456,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1468,7 +1468,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence neg - 20</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1480,7 +1480,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1504,7 +1504,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1516,7 +1516,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1528,7 +1528,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1540,7 +1540,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1552,7 +1552,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1564,7 +1564,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1576,7 +1576,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence neg - 67</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1588,7 +1588,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sentence neg - 8</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1600,7 +1600,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1612,7 +1612,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sentence neg - 29</t>
+          <t>Sentence neg - 43</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1624,7 +1624,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1648,7 +1648,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sentence neg - 12</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1672,7 +1672,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1684,7 +1684,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1696,7 +1696,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1708,7 +1708,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sentence neg - 57</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1720,7 +1720,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1732,7 +1732,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1744,7 +1744,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1756,7 +1756,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 62</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1768,7 +1768,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1780,7 +1780,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sentence neg - 21</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1792,7 +1792,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1804,7 +1804,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1816,7 +1816,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1828,7 +1828,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sentence neg - 23</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 28</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1852,7 +1852,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1864,7 +1864,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sentence neg - 67</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1876,7 +1876,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence neg - 1</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sentence neg - 11</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1900,7 +1900,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1912,7 +1912,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sentence neg - 41</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1924,7 +1924,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1936,7 +1936,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1948,7 +1948,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sentence neg - 19</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1960,7 +1960,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1972,7 +1972,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1984,7 +1984,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sentence neg - 65</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1996,7 +1996,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 36</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2008,7 +2008,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2020,7 +2020,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2032,7 +2032,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2056,7 +2056,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2068,7 +2068,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence neg - 20</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2080,7 +2080,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2092,7 +2092,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2104,7 +2104,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2116,7 +2116,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2128,7 +2128,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2140,7 +2140,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2152,7 +2152,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2164,7 +2164,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2176,7 +2176,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2188,7 +2188,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 67</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2200,7 +2200,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sentence neg - 8</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2212,7 +2212,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2224,7 +2224,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sentence neg - 29</t>
+          <t>Sentence neg - 43</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2236,7 +2236,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sentence neg - 12</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2260,7 +2260,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2272,7 +2272,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2284,7 +2284,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2296,7 +2296,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2308,7 +2308,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2320,7 +2320,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sentence neg - 57</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2332,7 +2332,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2344,7 +2344,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2356,7 +2356,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2368,7 +2368,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2380,7 +2380,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2392,7 +2392,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sentence neg - 21</t>
+          <t>Sentence neg - 62</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2404,7 +2404,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2416,7 +2416,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2428,7 +2428,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2440,7 +2440,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sentence neg - 23</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2464,7 +2464,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2476,7 +2476,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2488,7 +2488,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2500,7 +2500,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2512,7 +2512,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2524,7 +2524,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2536,7 +2536,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2548,7 +2548,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2560,7 +2560,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2572,7 +2572,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2584,7 +2584,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2596,7 +2596,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2608,7 +2608,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sentence neg - 27</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2620,7 +2620,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2632,7 +2632,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence neg - 65</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2644,7 +2644,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence neg - 21</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2668,7 +2668,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2680,7 +2680,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sentence neg - 21</t>
+          <t>Sentence neg - 8</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2692,7 +2692,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence neg - 4</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2704,7 +2704,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence neg - 20</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2716,7 +2716,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sentence neg - 30</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2728,7 +2728,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2740,7 +2740,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2752,7 +2752,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2764,7 +2764,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2776,7 +2776,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence neg - 67</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2788,7 +2788,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2800,7 +2800,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2812,7 +2812,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2824,7 +2824,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Sentence neg - 67</t>
+          <t>Sentence neg - 11</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2836,7 +2836,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Sentence neg - 31</t>
+          <t>Sentence neg - 57</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2848,7 +2848,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -2872,7 +2872,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Sentence neg - 20</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -2884,7 +2884,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -2896,7 +2896,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -2908,7 +2908,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">

--- a/Debug Output/dubg_trials.xlsx
+++ b/Debug Output/dubg_trials.xlsx
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sentence neg - 1</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence neg - 12</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sentence neg - 62</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sentence neg - 1</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence neg - 12</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sentence neg - 62</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sentence neg - 21</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence neg - 51</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sentence neg - 4</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sentence neg - 11</t>
+          <t>Sentence neg - 41</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence neg - 20</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence neg - 31</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sentence neg - 21</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence neg - 51</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence neg - 41</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sentence neg - 4</t>
+          <t>Sentence neg - 20</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sentence neg - 11</t>
+          <t>Sentence neg - 31</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sentence ntr - 78</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1240,7 +1240,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1264,7 +1264,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sentence neg - 28</t>
+          <t>Sentence neg - 23</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1276,7 +1276,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1288,7 +1288,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sentence neg - 1</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1300,7 +1300,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1312,7 +1312,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1324,7 +1324,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sentence ntr - 78</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1336,7 +1336,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence neg - 19</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1348,7 +1348,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1372,7 +1372,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1384,7 +1384,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1396,7 +1396,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sentence neg - 36</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1408,7 +1408,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1420,7 +1420,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1444,7 +1444,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1456,7 +1456,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence neg - 57</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1468,7 +1468,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sentence neg - 20</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1480,7 +1480,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1492,7 +1492,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1504,7 +1504,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1516,7 +1516,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1528,7 +1528,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1540,7 +1540,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence neg - 67</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1552,7 +1552,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1564,7 +1564,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1576,7 +1576,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sentence neg - 67</t>
+          <t>Sentence neg - 27</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1588,7 +1588,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1600,7 +1600,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1612,7 +1612,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sentence neg - 43</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1624,7 +1624,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sentence neg - 30</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1648,7 +1648,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1660,7 +1660,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1672,7 +1672,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1684,7 +1684,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1696,7 +1696,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1708,7 +1708,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1720,7 +1720,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence neg - 43</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1732,7 +1732,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1744,7 +1744,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1756,7 +1756,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sentence neg - 62</t>
+          <t>Sentence neg - 12</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1768,7 +1768,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1780,7 +1780,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1792,7 +1792,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1804,7 +1804,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1816,7 +1816,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1828,7 +1828,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sentence neg - 28</t>
+          <t>Sentence neg - 62</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1852,7 +1852,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1864,7 +1864,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 23</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1876,7 +1876,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sentence neg - 1</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1900,7 +1900,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1912,7 +1912,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1924,7 +1924,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence neg - 19</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1936,7 +1936,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1948,7 +1948,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1960,7 +1960,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1972,7 +1972,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1984,7 +1984,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1996,7 +1996,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sentence neg - 36</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2008,7 +2008,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 84</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2020,7 +2020,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sentence ntr - 78</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2032,7 +2032,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence neg - 57</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2056,7 +2056,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2068,7 +2068,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Sentence neg - 20</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2080,7 +2080,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sentence ntr - 78</t>
+          <t>Sentence ntr - 84</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2092,7 +2092,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2104,7 +2104,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2116,7 +2116,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2128,7 +2128,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence neg - 67</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2140,7 +2140,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2152,7 +2152,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence neg - 27</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2164,7 +2164,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2176,7 +2176,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2188,7 +2188,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sentence neg - 67</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2200,7 +2200,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2212,7 +2212,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2224,7 +2224,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sentence neg - 43</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2236,7 +2236,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2260,7 +2260,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sentence neg - 30</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2272,7 +2272,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2284,7 +2284,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2296,7 +2296,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2308,7 +2308,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence neg - 43</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2320,7 +2320,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2332,7 +2332,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2344,7 +2344,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 12</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2356,7 +2356,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2368,7 +2368,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2380,7 +2380,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2392,7 +2392,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sentence neg - 62</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2404,7 +2404,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2416,7 +2416,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2428,7 +2428,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2440,7 +2440,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence neg - 62</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2464,7 +2464,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2476,7 +2476,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2488,7 +2488,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2500,7 +2500,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2512,7 +2512,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2524,7 +2524,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2536,7 +2536,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 84</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2548,7 +2548,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2560,7 +2560,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2572,7 +2572,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2584,7 +2584,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2596,7 +2596,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2608,7 +2608,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence neg - 4</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2620,7 +2620,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence neg - 31</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2632,7 +2632,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Sentence neg - 65</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2644,7 +2644,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Sentence neg - 21</t>
+          <t>Sentence neg - 20</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2668,7 +2668,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2680,7 +2680,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sentence neg - 8</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2692,7 +2692,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Sentence neg - 4</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2704,7 +2704,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Sentence neg - 20</t>
+          <t>Sentence neg - 21</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2716,7 +2716,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2728,7 +2728,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence neg - 36</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2740,7 +2740,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2752,7 +2752,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2764,7 +2764,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2776,7 +2776,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Sentence neg - 67</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2788,7 +2788,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2800,7 +2800,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 84</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2812,7 +2812,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence neg - 67</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2824,7 +2824,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Sentence neg - 11</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2836,7 +2836,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Sentence neg - 57</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2848,7 +2848,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence neg - 51</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -2872,7 +2872,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence neg - 8</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -2884,7 +2884,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 41</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -2896,7 +2896,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -2908,7 +2908,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">

--- a/Debug Output/dubg_trials.xlsx
+++ b/Debug Output/dubg_trials.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50,89 +50,22 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -448,7 +381,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +393,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,7 +405,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,7 +417,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,7 +429,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,7 +441,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -520,7 +453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -532,7 +465,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -544,7 +477,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -556,7 +489,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -568,7 +501,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -580,7 +513,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -592,7 +525,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -604,7 +537,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence neg - 51</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -616,7 +549,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence neg - 36</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -628,7 +561,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -640,7 +573,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sentence neg - 12</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -652,7 +585,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 21</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -664,7 +597,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -676,7 +609,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -688,7 +621,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sentence neg - 30</t>
+          <t>Sentence neg - 51</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -700,7 +633,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -712,7 +645,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sentence neg - 12</t>
+          <t>Sentence neg - 36</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -724,7 +657,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -736,7 +669,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -748,7 +681,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -760,7 +693,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -772,7 +705,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sentence neg - 30</t>
+          <t>Sentence neg - 21</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -784,7 +717,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -796,7 +729,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -808,7 +741,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -820,7 +753,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -832,7 +765,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -844,7 +777,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -856,7 +789,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -868,7 +801,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -880,7 +813,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -892,7 +825,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -904,7 +837,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -916,7 +849,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -928,7 +861,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -940,7 +873,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence neg - 20</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -952,7 +885,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sentence neg - 51</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -964,7 +897,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -976,7 +909,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence neg - 65</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -988,7 +921,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sentence neg - 41</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1000,7 +933,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence neg - 4</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1012,7 +945,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sentence neg - 20</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1024,7 +957,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sentence neg - 31</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1036,7 +969,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence neg - 20</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1048,7 +981,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence neg - 65</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1060,7 +993,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1072,7 +1005,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sentence neg - 51</t>
+          <t>Sentence neg - 4</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1084,7 +1017,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sentence neg - 41</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1096,7 +1029,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sentence neg - 20</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1108,7 +1041,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sentence neg - 31</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1120,7 +1053,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1132,7 +1065,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1144,7 +1077,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1156,7 +1089,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1168,7 +1101,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1180,7 +1113,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1192,7 +1125,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1204,7 +1137,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1216,7 +1149,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1228,7 +1161,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1240,7 +1173,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1252,7 +1185,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1276,7 +1209,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1288,7 +1221,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1300,7 +1233,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1312,7 +1245,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1324,7 +1257,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1336,7 +1269,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sentence neg - 19</t>
+          <t>Sentence neg - 21</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1348,7 +1281,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1360,7 +1293,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1372,7 +1305,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1384,7 +1317,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1396,7 +1329,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sentence neg - 30</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1408,7 +1341,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1420,7 +1353,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1432,7 +1365,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1444,7 +1377,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1456,7 +1389,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sentence neg - 57</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1468,7 +1401,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence neg - 41</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1480,7 +1413,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1492,7 +1425,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1504,7 +1437,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence neg - 51</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1516,7 +1449,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1528,7 +1461,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1540,7 +1473,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sentence neg - 67</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1552,7 +1485,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1564,7 +1497,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1576,7 +1509,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sentence neg - 27</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1588,7 +1521,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1600,7 +1533,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1612,7 +1545,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence neg - 8</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1624,7 +1557,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1636,7 +1569,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1648,7 +1581,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1660,7 +1593,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1672,7 +1605,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1684,7 +1617,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence neg - 36</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1696,7 +1629,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1708,7 +1641,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1720,7 +1653,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sentence neg - 43</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1732,7 +1665,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1744,7 +1677,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1756,7 +1689,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sentence neg - 12</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1768,7 +1701,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1780,7 +1713,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1792,7 +1725,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence neg - 67</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1804,7 +1737,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1816,7 +1749,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence neg - 43</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1828,7 +1761,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1840,7 +1773,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sentence neg - 62</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1852,7 +1785,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 19</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1864,7 +1797,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sentence neg - 23</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1876,7 +1809,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence neg - 23</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1888,7 +1821,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1900,7 +1833,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1912,7 +1845,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1924,7 +1857,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sentence neg - 19</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1936,7 +1869,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence neg - 21</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1948,7 +1881,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1960,7 +1893,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1972,7 +1905,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1984,7 +1917,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sentence neg - 30</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1996,7 +1929,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2008,7 +1941,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sentence ntr - 84</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2020,7 +1953,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2032,7 +1965,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2044,7 +1977,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sentence neg - 57</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2056,7 +1989,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2068,7 +2001,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence neg - 41</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2080,7 +2013,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sentence ntr - 84</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2092,7 +2025,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence neg - 51</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2104,7 +2037,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2116,7 +2049,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2128,7 +2061,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sentence neg - 67</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2140,7 +2073,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2152,7 +2085,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sentence neg - 27</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2164,7 +2097,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2176,7 +2109,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2188,7 +2121,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence neg - 8</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2200,7 +2133,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2212,7 +2145,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2224,7 +2157,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2236,7 +2169,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2248,7 +2181,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2260,7 +2193,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2272,7 +2205,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence neg - 36</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2284,7 +2217,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2296,7 +2229,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2308,7 +2241,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sentence neg - 43</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2320,7 +2253,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2332,7 +2265,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2344,7 +2277,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sentence neg - 12</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2356,7 +2289,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2368,7 +2301,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence neg - 67</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2380,7 +2313,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2392,7 +2325,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2404,7 +2337,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence neg - 43</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2416,7 +2349,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2440,7 +2373,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sentence neg - 62</t>
+          <t>Sentence neg - 19</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2452,7 +2385,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2464,7 +2397,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2476,7 +2409,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2488,7 +2421,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2500,7 +2433,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2512,7 +2445,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2524,7 +2457,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2536,7 +2469,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sentence ntr - 84</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2548,7 +2481,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2560,7 +2493,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2572,7 +2505,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2584,7 +2517,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2596,7 +2529,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2608,7 +2541,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sentence neg - 4</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2620,7 +2553,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sentence neg - 31</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2632,7 +2565,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2644,7 +2577,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence neg - 28</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2656,7 +2589,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Sentence neg - 20</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2668,7 +2601,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2680,7 +2613,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2692,7 +2625,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence neg - 20</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2704,7 +2637,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Sentence neg - 21</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2716,7 +2649,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence neg - 11</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2728,7 +2661,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Sentence neg - 36</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2740,7 +2673,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2752,7 +2685,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2764,7 +2697,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2776,7 +2709,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2788,7 +2721,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence neg - 4</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2800,7 +2733,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Sentence ntr - 84</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2812,7 +2745,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Sentence neg - 67</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2824,7 +2757,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2836,7 +2769,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2848,7 +2781,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2860,7 +2793,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Sentence neg - 51</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -2872,7 +2805,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Sentence neg - 8</t>
+          <t>Sentence neg - 65</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -2884,7 +2817,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Sentence neg - 41</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -2896,7 +2829,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -2908,7 +2841,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -2918,6 +2851,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Debug Output/dubg_trials.xlsx
+++ b/Debug Output/dubg_trials.xlsx
@@ -381,7 +381,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -393,7 +393,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -417,7 +417,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -429,7 +429,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -441,7 +441,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -453,7 +453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -465,7 +465,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -477,7 +477,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -501,7 +501,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence neg - 44</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -537,7 +537,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sentence neg - 51</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -549,7 +549,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sentence neg - 36</t>
+          <t>Sentence neg - 8</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -561,7 +561,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -573,7 +573,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sentence neg - 21</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -597,7 +597,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence neg - 29</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sentence neg - 51</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -633,7 +633,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence neg - 44</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sentence neg - 36</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 8</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 29</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -705,7 +705,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sentence neg - 21</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -729,7 +729,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -741,7 +741,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -753,7 +753,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -765,7 +765,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -789,7 +789,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -801,7 +801,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -813,7 +813,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -825,7 +825,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -837,7 +837,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -849,7 +849,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -861,7 +861,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sentence neg - 20</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -885,7 +885,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -897,7 +897,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -909,7 +909,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sentence neg - 65</t>
+          <t>Sentence neg - 57</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -921,7 +921,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence neg - 65</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -933,7 +933,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sentence neg - 4</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -945,7 +945,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sentence neg - 20</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -981,7 +981,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sentence neg - 65</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -993,7 +993,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1005,7 +1005,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sentence neg - 4</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1017,7 +1017,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1029,7 +1029,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence neg - 57</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1041,7 +1041,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence neg - 65</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1053,7 +1053,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1077,7 +1077,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1089,7 +1089,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1101,7 +1101,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1113,7 +1113,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1125,7 +1125,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1137,7 +1137,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1149,7 +1149,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1161,7 +1161,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1173,7 +1173,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1185,7 +1185,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1197,7 +1197,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sentence neg - 23</t>
+          <t>Sentence neg - 19</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1209,7 +1209,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1233,7 +1233,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence neg - 11</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1269,7 +1269,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sentence neg - 21</t>
+          <t>Sentence neg - 37</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1281,7 +1281,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1293,7 +1293,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1305,7 +1305,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1317,7 +1317,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1329,7 +1329,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1341,7 +1341,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence neg - 44</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1353,7 +1353,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1365,7 +1365,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1377,7 +1377,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1389,7 +1389,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1401,7 +1401,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sentence neg - 41</t>
+          <t>Sentence neg - 20</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1413,7 +1413,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1425,7 +1425,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1437,7 +1437,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sentence neg - 51</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1449,7 +1449,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1473,7 +1473,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1485,7 +1485,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1497,7 +1497,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence neg - 8</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1509,7 +1509,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1521,7 +1521,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1533,7 +1533,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence neg - 29</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1545,7 +1545,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sentence neg - 8</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1557,7 +1557,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 41</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1569,7 +1569,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1581,7 +1581,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1593,7 +1593,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1617,7 +1617,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sentence neg - 36</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1629,7 +1629,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 21</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1641,7 +1641,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1653,7 +1653,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence neg - 38</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1665,7 +1665,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1677,7 +1677,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1689,7 +1689,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1701,7 +1701,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1713,7 +1713,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1725,7 +1725,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sentence neg - 67</t>
+          <t>Sentence neg - 4</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1737,7 +1737,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1749,7 +1749,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sentence neg - 43</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1761,7 +1761,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1785,7 +1785,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sentence neg - 19</t>
+          <t>Sentence neg - 50</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1797,7 +1797,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1809,7 +1809,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sentence neg - 23</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1821,7 +1821,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 19</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1845,7 +1845,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1857,7 +1857,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1869,7 +1869,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sentence neg - 21</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1881,7 +1881,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence neg - 11</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1893,7 +1893,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1905,7 +1905,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence neg - 37</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1917,7 +1917,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1929,7 +1929,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -1941,7 +1941,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -1953,7 +1953,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -1965,7 +1965,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence neg - 44</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -1977,7 +1977,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -1989,7 +1989,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2001,7 +2001,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Sentence neg - 41</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2013,7 +2013,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2025,7 +2025,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sentence neg - 51</t>
+          <t>Sentence neg - 20</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2037,7 +2037,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2049,7 +2049,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2061,7 +2061,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2073,7 +2073,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2085,7 +2085,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2097,7 +2097,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2109,7 +2109,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence neg - 8</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2121,7 +2121,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sentence neg - 8</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2133,7 +2133,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2145,7 +2145,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence neg - 29</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2169,7 +2169,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 41</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2181,7 +2181,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2193,7 +2193,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2205,7 +2205,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sentence neg - 36</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2217,7 +2217,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2229,7 +2229,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2241,7 +2241,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence neg - 21</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2253,7 +2253,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2265,7 +2265,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 38</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2277,7 +2277,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2289,7 +2289,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2301,7 +2301,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sentence neg - 67</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2313,7 +2313,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 4</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2325,7 +2325,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2337,7 +2337,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sentence neg - 43</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2349,7 +2349,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2373,7 +2373,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sentence neg - 19</t>
+          <t>Sentence neg - 50</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2385,7 +2385,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2397,7 +2397,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2409,7 +2409,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2421,7 +2421,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2433,7 +2433,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2445,7 +2445,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2457,7 +2457,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2469,7 +2469,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2481,7 +2481,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2493,7 +2493,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2505,7 +2505,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2517,7 +2517,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2529,7 +2529,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2541,7 +2541,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2553,7 +2553,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sentence neg - 30</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2565,7 +2565,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2577,7 +2577,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Sentence neg - 28</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2589,7 +2589,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2601,7 +2601,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2613,7 +2613,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2625,7 +2625,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Sentence neg - 20</t>
+          <t>Sentence neg - 45</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2637,7 +2637,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2649,7 +2649,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sentence neg - 11</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2661,7 +2661,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2673,7 +2673,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2685,7 +2685,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2697,7 +2697,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence neg - 47</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2709,7 +2709,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2721,7 +2721,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sentence neg - 4</t>
+          <t>Sentence neg - 21</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2733,7 +2733,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence neg - 65</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2745,7 +2745,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2757,7 +2757,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2769,7 +2769,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2781,7 +2781,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Sentence neg - 6</t>
+          <t>Sentence neg - 62</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2793,7 +2793,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 57</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -2805,7 +2805,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Sentence neg - 65</t>
+          <t>Sentence neg - 12</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -2817,7 +2817,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -2829,7 +2829,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence neg - 37</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -2841,7 +2841,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Sentence neg - 25</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">

--- a/Debug Output/dubg_trials.xlsx
+++ b/Debug Output/dubg_trials.xlsx
@@ -381,7 +381,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -393,7 +393,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -405,7 +405,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -417,7 +417,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -429,7 +429,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -441,7 +441,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -453,7 +453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -465,7 +465,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -477,7 +477,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -501,7 +501,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sentence neg - 44</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -537,7 +537,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence neg - 23</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -549,7 +549,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sentence neg - 8</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -561,7 +561,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -573,7 +573,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -597,7 +597,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sentence neg - 29</t>
+          <t>Sentence neg - 50</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence neg - 23</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -633,7 +633,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sentence neg - 44</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sentence neg - 8</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -669,7 +669,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sentence neg - 29</t>
+          <t>Sentence neg - 50</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -705,7 +705,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -729,7 +729,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -741,7 +741,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sentence ntr - 78</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -753,7 +753,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -765,7 +765,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -789,7 +789,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -801,7 +801,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sentence ntr - 78</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -813,7 +813,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -825,7 +825,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -837,7 +837,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -849,7 +849,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -861,7 +861,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sentence neg - 30</t>
+          <t>Sentence neg - 19</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sentence ntr - 78</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -885,7 +885,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence neg - 37</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -897,7 +897,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -909,7 +909,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sentence neg - 57</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -921,7 +921,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sentence neg - 65</t>
+          <t>Sentence neg - 57</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -933,7 +933,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sentence neg - 30</t>
+          <t>Sentence neg - 12</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -945,7 +945,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence neg - 19</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 37</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -981,7 +981,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sentence ntr - 78</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -993,7 +993,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence neg - 57</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1005,7 +1005,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1017,7 +1017,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1029,7 +1029,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sentence neg - 57</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1041,7 +1041,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sentence neg - 65</t>
+          <t>Sentence neg - 12</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1053,7 +1053,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1077,7 +1077,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1089,7 +1089,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1101,7 +1101,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 77</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1113,7 +1113,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1125,7 +1125,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1137,7 +1137,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1149,7 +1149,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1161,7 +1161,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence ntr - 77</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1173,7 +1173,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1185,7 +1185,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1197,7 +1197,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sentence neg - 19</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1209,7 +1209,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1233,7 +1233,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sentence neg - 11</t>
+          <t>Sentence ntr - 77</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence neg - 29</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1269,7 +1269,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sentence neg - 37</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1281,7 +1281,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1293,7 +1293,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1305,7 +1305,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence neg - 23</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1317,7 +1317,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1329,7 +1329,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence neg - 65</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1341,7 +1341,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sentence neg - 44</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1365,7 +1365,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1377,7 +1377,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1389,7 +1389,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1401,7 +1401,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sentence neg - 20</t>
+          <t>Sentence neg - 50</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1413,7 +1413,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1425,7 +1425,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1437,7 +1437,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence neg - 36</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1449,7 +1449,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1461,7 +1461,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1473,7 +1473,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence neg - 20</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1485,7 +1485,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1497,7 +1497,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sentence neg - 8</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1509,7 +1509,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 45</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1521,7 +1521,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1533,7 +1533,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sentence neg - 29</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1545,7 +1545,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 51</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1557,7 +1557,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sentence neg - 41</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1569,7 +1569,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1581,7 +1581,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1593,7 +1593,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1605,7 +1605,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence neg - 4</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1617,7 +1617,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1629,7 +1629,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sentence neg - 21</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1641,7 +1641,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1653,7 +1653,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sentence neg - 38</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1665,7 +1665,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1677,7 +1677,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1689,7 +1689,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1701,7 +1701,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1713,7 +1713,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1725,7 +1725,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sentence neg - 4</t>
+          <t>Sentence neg - 1</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1737,7 +1737,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1749,7 +1749,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1761,7 +1761,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1785,7 +1785,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sentence neg - 50</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1797,7 +1797,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1809,7 +1809,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1821,7 +1821,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sentence neg - 19</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1833,7 +1833,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1845,7 +1845,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1857,7 +1857,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 29</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1869,7 +1869,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1881,7 +1881,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sentence neg - 11</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1893,7 +1893,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1905,7 +1905,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sentence neg - 37</t>
+          <t>Sentence neg - 23</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1917,7 +1917,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1929,7 +1929,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -1941,7 +1941,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence neg - 65</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -1953,7 +1953,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 77</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -1965,7 +1965,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sentence neg - 44</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -1977,7 +1977,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -1989,7 +1989,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2001,7 +2001,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence neg - 50</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2013,7 +2013,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2025,7 +2025,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sentence neg - 20</t>
+          <t>Sentence neg - 36</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2037,7 +2037,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2049,7 +2049,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2061,7 +2061,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence neg - 20</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2073,7 +2073,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2085,7 +2085,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2097,7 +2097,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence neg - 45</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2109,7 +2109,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sentence neg - 8</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2121,7 +2121,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 51</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2133,7 +2133,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2145,7 +2145,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sentence neg - 29</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2169,7 +2169,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sentence neg - 41</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2181,7 +2181,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 4</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2193,7 +2193,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2205,7 +2205,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 77</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2217,7 +2217,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2229,7 +2229,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2241,7 +2241,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sentence neg - 21</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2253,7 +2253,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2265,7 +2265,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sentence neg - 38</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2277,7 +2277,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2289,7 +2289,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2301,7 +2301,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 1</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2313,7 +2313,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sentence neg - 4</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2325,7 +2325,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2337,7 +2337,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2349,7 +2349,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2361,7 +2361,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2373,7 +2373,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sentence neg - 50</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2385,7 +2385,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2397,7 +2397,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2409,7 +2409,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2421,7 +2421,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2433,7 +2433,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2445,7 +2445,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sentence ntr - 78</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2457,7 +2457,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2469,7 +2469,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2481,7 +2481,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2493,7 +2493,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2505,7 +2505,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2517,7 +2517,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2529,7 +2529,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2541,7 +2541,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2553,7 +2553,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sentence ntr - 78</t>
+          <t>Sentence neg - 12</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2565,7 +2565,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2577,7 +2577,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2589,7 +2589,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2601,7 +2601,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Sentence neg - 30</t>
+          <t>Sentence neg - 65</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2613,7 +2613,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2625,7 +2625,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Sentence neg - 45</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2637,7 +2637,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2649,7 +2649,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 1</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2661,7 +2661,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence neg - 20</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2673,7 +2673,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2685,7 +2685,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2697,7 +2697,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Sentence neg - 47</t>
+          <t>Sentence neg - 19</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2709,7 +2709,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence neg - 45</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2721,7 +2721,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sentence neg - 21</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2733,7 +2733,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Sentence neg - 65</t>
+          <t>Sentence neg - 37</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2745,7 +2745,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2757,7 +2757,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence neg - 11</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2769,7 +2769,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2781,7 +2781,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Sentence neg - 62</t>
+          <t>Sentence neg - 44</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2793,7 +2793,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Sentence neg - 57</t>
+          <t>Sentence neg - 38</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -2805,7 +2805,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Sentence neg - 12</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -2817,7 +2817,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence neg - 57</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -2829,7 +2829,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Sentence neg - 37</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -2841,7 +2841,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence neg - 55</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">

--- a/Debug Output/dubg_trials.xlsx
+++ b/Debug Output/dubg_trials.xlsx
@@ -381,7 +381,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sentence ntr - 78</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -393,7 +393,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -405,7 +405,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -417,7 +417,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -429,7 +429,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -441,7 +441,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -453,7 +453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -465,7 +465,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -477,7 +477,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -501,7 +501,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence neg - 36</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -537,7 +537,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sentence neg - 23</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -549,7 +549,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sentence ntr - 78</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -561,7 +561,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -573,7 +573,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sentence neg - 30</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -597,7 +597,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sentence neg - 50</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sentence neg - 23</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -633,7 +633,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sentence neg - 30</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence neg - 47</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence neg - 36</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -669,7 +669,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sentence neg - 50</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -705,7 +705,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sentence ntr - 78</t>
+          <t>Sentence neg - 47</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -729,7 +729,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -741,7 +741,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -753,7 +753,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -765,7 +765,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -789,7 +789,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -801,7 +801,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -813,7 +813,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -825,7 +825,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -837,7 +837,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -849,7 +849,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -861,7 +861,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sentence neg - 19</t>
+          <t>Sentence neg - 62</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -885,7 +885,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sentence neg - 37</t>
+          <t>Sentence neg - 38</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -897,7 +897,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -909,7 +909,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -921,7 +921,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sentence neg - 57</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -933,7 +933,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sentence neg - 12</t>
+          <t>Sentence neg - 23</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -945,7 +945,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sentence neg - 19</t>
+          <t>Sentence neg - 29</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sentence neg - 37</t>
+          <t>Sentence neg - 62</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -981,7 +981,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence neg - 38</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -993,7 +993,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sentence neg - 57</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1005,7 +1005,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1017,7 +1017,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1029,7 +1029,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence neg - 23</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1041,7 +1041,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sentence neg - 12</t>
+          <t>Sentence neg - 29</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1053,7 +1053,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1077,7 +1077,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1089,7 +1089,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1101,7 +1101,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sentence ntr - 77</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1113,7 +1113,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1125,7 +1125,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1137,7 +1137,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1149,7 +1149,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1161,7 +1161,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sentence ntr - 77</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1173,7 +1173,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1185,7 +1185,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1197,7 +1197,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence neg - 19</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1209,7 +1209,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1233,7 +1233,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence ntr - 77</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sentence ntr - 77</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sentence neg - 29</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1269,7 +1269,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1281,7 +1281,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1293,7 +1293,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1305,7 +1305,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sentence neg - 23</t>
+          <t>Sentence neg - 8</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1317,7 +1317,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1329,7 +1329,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sentence neg - 65</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1341,7 +1341,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 36</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1353,7 +1353,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1365,7 +1365,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1377,7 +1377,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1389,7 +1389,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1401,7 +1401,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sentence neg - 50</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1413,7 +1413,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1425,7 +1425,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1437,7 +1437,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sentence neg - 36</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1449,7 +1449,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence neg - 47</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1461,7 +1461,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1473,7 +1473,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sentence neg - 20</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1485,7 +1485,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1497,7 +1497,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1509,7 +1509,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sentence neg - 45</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1521,7 +1521,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1533,7 +1533,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1545,7 +1545,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sentence neg - 51</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1557,7 +1557,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence neg - 1</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1569,7 +1569,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1581,7 +1581,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1593,7 +1593,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1605,7 +1605,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sentence neg - 4</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1617,7 +1617,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1629,7 +1629,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1641,7 +1641,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 77</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1653,7 +1653,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1665,7 +1665,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sentence neg - 30</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1677,7 +1677,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1689,7 +1689,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1701,7 +1701,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1713,7 +1713,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1725,7 +1725,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sentence neg - 1</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1737,7 +1737,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1749,7 +1749,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1761,7 +1761,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence neg - 45</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1785,7 +1785,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1797,7 +1797,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sentence ntr - 78</t>
+          <t>Sentence neg - 4</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1809,7 +1809,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1821,7 +1821,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1833,7 +1833,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence neg - 19</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1845,7 +1845,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1857,7 +1857,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sentence neg - 29</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1869,7 +1869,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1881,7 +1881,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1893,7 +1893,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1905,7 +1905,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sentence neg - 23</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1917,7 +1917,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1929,7 +1929,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -1941,7 +1941,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sentence neg - 65</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -1953,7 +1953,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sentence ntr - 77</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -1965,7 +1965,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 8</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -1977,7 +1977,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -1989,7 +1989,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence neg - 36</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2001,7 +2001,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Sentence neg - 50</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2013,7 +2013,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2025,7 +2025,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sentence neg - 36</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2037,7 +2037,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2049,7 +2049,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2061,7 +2061,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sentence neg - 20</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2073,7 +2073,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence neg - 47</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2085,7 +2085,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2097,7 +2097,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sentence neg - 45</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2109,7 +2109,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2121,7 +2121,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sentence neg - 51</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2133,7 +2133,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2145,7 +2145,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence neg - 1</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2169,7 +2169,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2181,7 +2181,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sentence neg - 4</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2193,7 +2193,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2205,7 +2205,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sentence ntr - 77</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2229,7 +2229,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2241,7 +2241,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sentence neg - 30</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2253,7 +2253,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2265,7 +2265,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2277,7 +2277,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2289,7 +2289,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sentence ntr - 78</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2301,7 +2301,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sentence neg - 1</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2313,7 +2313,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2325,7 +2325,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2337,7 +2337,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2349,7 +2349,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence neg - 45</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2361,7 +2361,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence ntr - 77</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2373,7 +2373,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence neg - 4</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2385,7 +2385,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2397,7 +2397,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2409,7 +2409,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2421,7 +2421,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2433,7 +2433,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2445,7 +2445,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2457,7 +2457,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2469,7 +2469,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2481,7 +2481,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2493,7 +2493,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2505,7 +2505,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2517,7 +2517,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2529,7 +2529,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2541,7 +2541,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2553,7 +2553,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sentence neg - 12</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2565,7 +2565,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2577,7 +2577,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2589,7 +2589,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Sentence neg - 7</t>
+          <t>Sentence neg - 11</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2601,7 +2601,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Sentence neg - 65</t>
+          <t>Sentence neg - 8</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2613,7 +2613,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence neg - 20</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2625,7 +2625,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence neg - 62</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2637,7 +2637,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2649,7 +2649,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sentence neg - 1</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2661,7 +2661,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Sentence neg - 20</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2673,7 +2673,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2685,7 +2685,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence neg - 38</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2697,7 +2697,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Sentence neg - 19</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2709,7 +2709,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Sentence neg - 45</t>
+          <t>Sentence neg - 4</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2721,7 +2721,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2745,7 +2745,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence neg - 23</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2757,7 +2757,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Sentence neg - 11</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2769,7 +2769,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2781,7 +2781,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Sentence neg - 44</t>
+          <t>Sentence neg - 59</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2793,7 +2793,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Sentence neg - 38</t>
+          <t>Sentence neg - 29</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -2805,7 +2805,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -2817,7 +2817,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Sentence neg - 57</t>
+          <t>Sentence neg - 45</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -2829,7 +2829,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence neg - 12</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -2841,7 +2841,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Sentence neg - 55</t>
+          <t>Sentence neg - 41</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">

--- a/Debug Output/dubg_trials.xlsx
+++ b/Debug Output/dubg_trials.xlsx
@@ -381,7 +381,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -393,7 +393,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -405,7 +405,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -417,7 +417,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -429,7 +429,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -441,7 +441,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -453,7 +453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -465,7 +465,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -477,7 +477,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -501,7 +501,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sentence neg - 36</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -537,7 +537,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -549,7 +549,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sentence neg - 30</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -561,7 +561,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -573,7 +573,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence neg - 65</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence neg - 51</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -597,7 +597,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -633,7 +633,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sentence neg - 47</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sentence neg - 36</t>
+          <t>Sentence neg - 65</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -669,7 +669,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sentence neg - 30</t>
+          <t>Sentence neg - 51</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -705,7 +705,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sentence neg - 47</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -729,7 +729,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -741,7 +741,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -753,7 +753,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -765,7 +765,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sentence ntr - 78</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -789,7 +789,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -801,7 +801,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -813,7 +813,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -825,7 +825,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -837,7 +837,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -849,7 +849,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sentence ntr - 78</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -861,7 +861,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sentence neg - 62</t>
+          <t>Sentence neg - 38</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -885,7 +885,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sentence neg - 38</t>
+          <t>Sentence neg - 19</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -897,7 +897,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -909,7 +909,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sentence ntr - 78</t>
+          <t>Sentence neg - 50</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -921,7 +921,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -933,7 +933,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sentence neg - 23</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -945,7 +945,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sentence neg - 29</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sentence neg - 62</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -981,7 +981,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sentence neg - 38</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -993,7 +993,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence neg - 38</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1005,7 +1005,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence neg - 19</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1017,7 +1017,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1029,7 +1029,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sentence neg - 23</t>
+          <t>Sentence neg - 50</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1041,7 +1041,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sentence neg - 29</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1053,7 +1053,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1077,7 +1077,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1089,7 +1089,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1101,7 +1101,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1113,7 +1113,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1125,7 +1125,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1137,7 +1137,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1149,7 +1149,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1161,7 +1161,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1173,7 +1173,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1185,7 +1185,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1197,7 +1197,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sentence neg - 19</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1209,7 +1209,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence neg - 3</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1233,7 +1233,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sentence ntr - 77</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence neg - 44</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1269,7 +1269,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1281,7 +1281,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1293,7 +1293,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1305,7 +1305,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sentence neg - 8</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1317,7 +1317,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1329,7 +1329,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence neg - 55</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1341,7 +1341,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sentence neg - 36</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1353,7 +1353,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence neg - 29</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1365,7 +1365,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1377,7 +1377,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1389,7 +1389,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 36</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1401,7 +1401,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1413,7 +1413,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence neg - 11</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1425,7 +1425,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1437,7 +1437,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1449,7 +1449,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sentence neg - 47</t>
+          <t>Sentence neg - 12</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1461,7 +1461,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1473,7 +1473,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1485,7 +1485,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1497,7 +1497,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1509,7 +1509,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1521,7 +1521,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence neg - 57</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1533,7 +1533,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1545,7 +1545,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1557,7 +1557,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sentence neg - 1</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1569,7 +1569,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1581,7 +1581,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1605,7 +1605,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1617,7 +1617,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1629,7 +1629,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence neg - 23</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1641,7 +1641,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sentence ntr - 77</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1653,7 +1653,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence neg - 65</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1665,7 +1665,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1677,7 +1677,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1689,7 +1689,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1701,7 +1701,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1713,7 +1713,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence neg - 62</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1725,7 +1725,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1737,7 +1737,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sentence neg - 30</t>
+          <t>Sentence neg - 37</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1749,7 +1749,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1761,7 +1761,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sentence neg - 45</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence neg - 51</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1785,7 +1785,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1797,7 +1797,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sentence neg - 4</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1809,7 +1809,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1821,7 +1821,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence neg - 3</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1833,7 +1833,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sentence neg - 19</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1845,7 +1845,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 44</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1857,7 +1857,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1869,7 +1869,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1881,7 +1881,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1893,7 +1893,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1905,7 +1905,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence ntr - 77</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1917,7 +1917,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 55</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1929,7 +1929,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -1941,7 +1941,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 29</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -1953,7 +1953,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -1965,7 +1965,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sentence neg - 8</t>
+          <t>Sentence neg - 36</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -1977,7 +1977,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -1989,7 +1989,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sentence neg - 36</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2001,7 +2001,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence neg - 11</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2013,7 +2013,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2025,7 +2025,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2037,7 +2037,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence neg - 12</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2049,7 +2049,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2061,7 +2061,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2073,7 +2073,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sentence neg - 47</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2085,7 +2085,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2097,7 +2097,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2109,7 +2109,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence neg - 57</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2121,7 +2121,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2133,7 +2133,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2145,7 +2145,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sentence neg - 1</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2169,7 +2169,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2181,7 +2181,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sentence neg - 14</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2193,7 +2193,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2205,7 +2205,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2217,7 +2217,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence neg - 23</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2229,7 +2229,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2241,7 +2241,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2253,7 +2253,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence neg - 65</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2265,7 +2265,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2277,7 +2277,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 77</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2289,7 +2289,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2301,7 +2301,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2313,7 +2313,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2325,7 +2325,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sentence neg - 30</t>
+          <t>Sentence neg - 62</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2337,7 +2337,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2349,7 +2349,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sentence neg - 45</t>
+          <t>Sentence neg - 37</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2361,7 +2361,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sentence ntr - 77</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2373,7 +2373,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sentence neg - 4</t>
+          <t>Sentence neg - 51</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2385,7 +2385,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2397,7 +2397,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2409,7 +2409,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2421,7 +2421,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2433,7 +2433,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2445,7 +2445,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2457,7 +2457,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2469,7 +2469,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2481,7 +2481,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2493,7 +2493,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2505,7 +2505,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2517,7 +2517,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2529,7 +2529,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2541,7 +2541,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 32</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2553,7 +2553,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2565,7 +2565,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2577,7 +2577,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2589,7 +2589,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Sentence neg - 11</t>
+          <t>Sentence neg - 44</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2601,7 +2601,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Sentence neg - 8</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2613,7 +2613,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sentence neg - 20</t>
+          <t>Sentence neg - 50</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2625,7 +2625,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Sentence neg - 62</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2637,7 +2637,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2649,7 +2649,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 20</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2661,7 +2661,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2673,7 +2673,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 80</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2685,7 +2685,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Sentence neg - 38</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2697,7 +2697,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2709,7 +2709,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Sentence neg - 4</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2721,7 +2721,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2733,7 +2733,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Sentence neg - 37</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2745,7 +2745,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Sentence neg - 23</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2757,7 +2757,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence neg - 55</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2769,7 +2769,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Sentence ntr - 78</t>
+          <t>Sentence neg - 15</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2781,7 +2781,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Sentence neg - 59</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2793,7 +2793,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Sentence neg - 29</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -2805,7 +2805,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence neg - 19</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -2817,7 +2817,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Sentence neg - 45</t>
+          <t>Sentence neg - 38</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -2829,7 +2829,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Sentence neg - 12</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -2841,7 +2841,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Sentence neg - 41</t>
+          <t>Sentence neg - 21</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">

--- a/Debug Output/dubg_trials.xlsx
+++ b/Debug Output/dubg_trials.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50,22 +50,89 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -381,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -393,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -405,7 +472,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -417,7 +484,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -429,7 +496,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -441,7 +508,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -453,7 +520,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -465,7 +532,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -477,7 +544,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -489,7 +556,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -501,7 +568,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -537,7 +604,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -549,7 +616,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -561,7 +628,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -573,7 +640,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sentence neg - 65</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -585,7 +652,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sentence neg - 51</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -597,7 +664,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence neg - 64</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -609,7 +676,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence neg - 4</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -621,7 +688,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -633,7 +700,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -645,7 +712,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -657,7 +724,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sentence neg - 65</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -669,7 +736,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sentence neg - 51</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -681,7 +748,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence neg - 64</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -693,7 +760,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 4</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -705,7 +772,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -717,7 +784,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -729,7 +796,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -741,7 +808,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -753,7 +820,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -765,7 +832,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -777,7 +844,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -789,7 +856,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -801,7 +868,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -813,7 +880,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -825,7 +892,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -837,7 +904,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -849,7 +916,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -861,7 +928,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sentence neg - 38</t>
+          <t>Sentence neg - 8</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -873,7 +940,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence neg - 42</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -885,7 +952,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sentence neg - 19</t>
+          <t>Sentence neg - 3</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -897,7 +964,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -909,7 +976,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sentence neg - 50</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -921,7 +988,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -933,7 +1000,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -945,7 +1012,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence neg - 45</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -957,7 +1024,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence neg - 8</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -969,7 +1036,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -981,7 +1048,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -993,7 +1060,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sentence neg - 38</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1005,7 +1072,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sentence neg - 19</t>
+          <t>Sentence neg - 42</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1017,7 +1084,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence neg - 3</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1029,7 +1096,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sentence neg - 50</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1041,7 +1108,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence neg - 45</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1053,7 +1120,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1065,7 +1132,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1077,7 +1144,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1089,7 +1156,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1101,7 +1168,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1113,7 +1180,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1125,7 +1192,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1137,7 +1204,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1149,7 +1216,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1161,7 +1228,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1173,7 +1240,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1185,7 +1252,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1197,7 +1264,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence neg - 49</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1209,7 +1276,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1221,7 +1288,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sentence neg - 3</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1233,7 +1300,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1245,7 +1312,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence neg - 62</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1257,7 +1324,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sentence neg - 44</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1269,7 +1336,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1281,7 +1348,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence neg - 43</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1293,7 +1360,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1305,7 +1372,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1317,7 +1384,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 47</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1329,7 +1396,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sentence neg - 55</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1341,7 +1408,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence neg - 28</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1353,7 +1420,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sentence neg - 29</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1365,7 +1432,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1377,7 +1444,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence neg - 44</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1389,7 +1456,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sentence neg - 36</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1401,7 +1468,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1413,7 +1480,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sentence neg - 11</t>
+          <t>Sentence neg - 58</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1425,7 +1492,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1437,7 +1504,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1449,7 +1516,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sentence neg - 12</t>
+          <t>Sentence neg - 50</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1461,7 +1528,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1473,7 +1540,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 63</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1485,7 +1552,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1497,7 +1564,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1509,7 +1576,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1521,7 +1588,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sentence neg - 57</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1533,7 +1600,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1545,7 +1612,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1557,7 +1624,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1569,7 +1636,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1581,7 +1648,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1593,7 +1660,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1605,7 +1672,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1629,7 +1696,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sentence neg - 23</t>
+          <t>Sentence neg - 4</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1641,7 +1708,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1653,7 +1720,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sentence neg - 65</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1665,7 +1732,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 51</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1677,7 +1744,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1689,7 +1756,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1701,7 +1768,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence neg - 41</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1713,7 +1780,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sentence neg - 62</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1725,7 +1792,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1737,7 +1804,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sentence neg - 37</t>
+          <t>Sentence neg - 52</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1749,7 +1816,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1761,7 +1828,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1773,7 +1840,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sentence neg - 51</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1785,7 +1852,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1797,7 +1864,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence neg - 64</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1809,7 +1876,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1821,7 +1888,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sentence neg - 3</t>
+          <t>Sentence neg - 49</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1833,7 +1900,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1845,7 +1912,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sentence neg - 44</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1857,7 +1924,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1869,7 +1936,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1881,7 +1948,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sentence neg - 48</t>
+          <t>Sentence neg - 62</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1893,7 +1960,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1905,7 +1972,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sentence ntr - 77</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1917,7 +1984,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sentence neg - 55</t>
+          <t>Sentence neg - 43</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1929,7 +1996,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -1941,7 +2008,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sentence neg - 29</t>
+          <t>Sentence neg - 47</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -1953,7 +2020,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -1965,7 +2032,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sentence neg - 36</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -1977,7 +2044,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence neg - 28</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -1989,7 +2056,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2001,7 +2068,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Sentence neg - 11</t>
+          <t>Sentence neg - 44</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2013,7 +2080,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2025,7 +2092,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence neg - 58</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2037,7 +2104,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sentence neg - 12</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2049,7 +2116,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence neg - 50</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2061,7 +2128,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2073,7 +2140,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence neg - 63</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2085,7 +2152,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2097,7 +2164,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2109,7 +2176,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sentence neg - 57</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2121,7 +2188,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2133,7 +2200,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2145,7 +2212,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sentence neg - 26</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2157,7 +2224,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2169,7 +2236,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2181,7 +2248,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2193,7 +2260,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sentence neg - 18</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2205,7 +2272,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2217,7 +2284,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Sentence neg - 23</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2229,7 +2296,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 4</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2241,7 +2308,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2253,7 +2320,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sentence neg - 65</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2265,7 +2332,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence neg - 51</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2277,7 +2344,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sentence ntr - 77</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2289,7 +2356,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2301,7 +2368,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence neg - 41</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2313,7 +2380,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2325,7 +2392,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sentence neg - 62</t>
+          <t>Sentence neg - 52</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2337,7 +2404,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2349,7 +2416,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sentence neg - 37</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2361,7 +2428,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2373,7 +2440,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sentence neg - 51</t>
+          <t>Sentence neg - 64</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2385,7 +2452,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2397,7 +2464,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2409,7 +2476,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2421,7 +2488,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2433,7 +2500,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2445,7 +2512,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2457,7 +2524,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2469,7 +2536,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2481,7 +2548,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2493,7 +2560,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2505,7 +2572,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2517,7 +2584,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2529,7 +2596,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2541,7 +2608,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sentence neg - 32</t>
+          <t>Sentence neg - 42</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2553,7 +2620,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2565,7 +2632,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2577,7 +2644,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 57</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2589,7 +2656,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Sentence neg - 44</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2601,7 +2668,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence neg - 8</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2613,7 +2680,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sentence neg - 50</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2625,7 +2692,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2637,7 +2704,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Sentence ntr - 81</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2649,7 +2716,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sentence neg - 20</t>
+          <t>Sentence neg - 58</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2661,7 +2728,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Sentence neg - 40</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2673,7 +2740,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Sentence ntr - 80</t>
+          <t>Sentence neg - 36</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2685,7 +2752,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence neg - 53</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2697,7 +2764,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Sentence neg - 30</t>
+          <t>Sentence neg - 50</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2709,7 +2776,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2721,7 +2788,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2733,7 +2800,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2745,7 +2812,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2757,7 +2824,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Sentence neg - 55</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2769,7 +2836,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Sentence neg - 15</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2781,7 +2848,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence neg - 3</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2793,7 +2860,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Sentence neg - 22</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -2805,7 +2872,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Sentence neg - 19</t>
+          <t>Sentence neg - 1</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -2817,7 +2884,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Sentence neg - 38</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -2829,7 +2896,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence neg - 45</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -2841,7 +2908,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Sentence neg - 21</t>
+          <t>Sentence neg - 49</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -2851,6 +2918,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Debug Output/dubg_trials.xlsx
+++ b/Debug Output/dubg_trials.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50,89 +50,22 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -448,7 +381,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +393,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,7 +405,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,7 +417,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,7 +429,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -520,7 +453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -532,7 +465,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -544,7 +477,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -556,7 +489,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -568,7 +501,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -592,7 +525,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence neg - 49</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -604,7 +537,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -616,7 +549,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence neg - 12</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -628,7 +561,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 41</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -640,7 +573,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence neg - 53</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -652,7 +585,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -664,7 +597,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sentence neg - 64</t>
+          <t>Sentence neg - 45</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -676,7 +609,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sentence neg - 4</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -688,7 +621,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence neg - 49</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -700,7 +633,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -712,7 +645,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -724,7 +657,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence neg - 12</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -736,7 +669,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence neg - 41</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -748,7 +681,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sentence neg - 64</t>
+          <t>Sentence neg - 53</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -760,7 +693,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sentence neg - 4</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -772,7 +705,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence neg - 45</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -784,7 +717,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -796,7 +729,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -808,7 +741,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -820,7 +753,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -832,7 +765,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -844,7 +777,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -856,7 +789,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -868,7 +801,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -880,7 +813,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -892,7 +825,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -904,7 +837,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -916,7 +849,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -928,7 +861,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sentence neg - 8</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -940,7 +873,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sentence neg - 42</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -952,7 +885,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sentence neg - 3</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -964,7 +897,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -976,7 +909,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -988,7 +921,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence neg - 8</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1000,7 +933,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence neg - 23</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1012,7 +945,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sentence neg - 45</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1024,7 +957,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sentence neg - 8</t>
+          <t>Sentence neg - 50</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1036,7 +969,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1048,7 +981,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence neg - 8</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1060,7 +993,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence neg - 23</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1072,7 +1005,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sentence neg - 42</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1084,7 +1017,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sentence neg - 3</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1096,7 +1029,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1108,7 +1041,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sentence neg - 45</t>
+          <t>Sentence neg - 50</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1120,7 +1053,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1132,7 +1065,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1144,7 +1077,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1156,7 +1089,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1168,7 +1101,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1180,7 +1113,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1192,7 +1125,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1204,7 +1137,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1216,7 +1149,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1228,7 +1161,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1240,7 +1173,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1252,7 +1185,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1264,7 +1197,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sentence neg - 49</t>
+          <t>Sentence neg - 60</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1276,7 +1209,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1288,7 +1221,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence neg - 29</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1300,7 +1233,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1312,7 +1245,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sentence neg - 62</t>
+          <t>Sentence neg - 47</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1324,7 +1257,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1336,7 +1269,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1348,7 +1281,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sentence neg - 43</t>
+          <t>Sentence neg - 62</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1360,7 +1293,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1372,7 +1305,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1384,7 +1317,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sentence neg - 47</t>
+          <t>Sentence neg - 43</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1396,7 +1329,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1408,7 +1341,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sentence neg - 28</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1420,7 +1353,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1432,7 +1365,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1444,7 +1377,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sentence neg - 44</t>
+          <t>Sentence neg - 4</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1456,7 +1389,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1468,7 +1401,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence neg - 57</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1480,7 +1413,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sentence neg - 58</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1492,7 +1425,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1504,7 +1437,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1516,7 +1449,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sentence neg - 50</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1528,7 +1461,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1540,7 +1473,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sentence neg - 63</t>
+          <t>Sentence neg - 53</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1552,7 +1485,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1564,7 +1497,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence neg - 41</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1576,7 +1509,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1588,7 +1521,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 42</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1600,7 +1533,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1612,7 +1545,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence neg - 45</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1624,7 +1557,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1636,7 +1569,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1648,7 +1581,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 28</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1660,7 +1593,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1672,7 +1605,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence neg - 63</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1684,7 +1617,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1696,7 +1629,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sentence neg - 4</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1708,7 +1641,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 67</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1720,7 +1653,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1732,7 +1665,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sentence neg - 51</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1744,7 +1677,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence neg - 51</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1756,7 +1689,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1768,7 +1701,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sentence neg - 41</t>
+          <t>Sentence neg - 12</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1780,7 +1713,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1792,7 +1725,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1804,7 +1737,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sentence neg - 52</t>
+          <t>Sentence neg - 49</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1816,7 +1749,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1828,7 +1761,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1852,7 +1785,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1864,7 +1797,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sentence neg - 64</t>
+          <t>Sentence neg - 60</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1876,7 +1809,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1888,7 +1821,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sentence neg - 49</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1900,7 +1833,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence neg - 29</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1912,7 +1845,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1924,7 +1857,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence neg - 47</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1936,7 +1869,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1960,7 +1893,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1972,7 +1905,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence neg - 43</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1984,7 +1917,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sentence neg - 43</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1996,7 +1929,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2008,7 +1941,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sentence neg - 47</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2020,7 +1953,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2032,7 +1965,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2044,7 +1977,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sentence neg - 28</t>
+          <t>Sentence neg - 4</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2056,7 +1989,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2068,7 +2001,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Sentence neg - 44</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2080,7 +2013,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence neg - 57</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2092,7 +2025,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sentence neg - 58</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2104,7 +2037,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2116,7 +2049,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sentence neg - 50</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2128,7 +2061,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2140,7 +2073,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sentence neg - 63</t>
+          <t>Sentence neg - 53</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2152,7 +2085,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2164,7 +2097,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sentence neg - 66</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2176,7 +2109,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence neg - 41</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2188,7 +2121,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2200,7 +2133,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence neg - 42</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2212,7 +2145,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2224,7 +2157,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence neg - 45</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2236,7 +2169,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2248,7 +2181,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2260,7 +2193,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence neg - 28</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2272,7 +2205,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2284,7 +2217,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence neg - 63</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2296,7 +2229,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sentence neg - 4</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2308,7 +2241,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence neg - 67</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2320,7 +2253,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2332,7 +2265,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sentence neg - 51</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2344,7 +2277,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence neg - 51</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2356,7 +2289,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2368,7 +2301,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sentence neg - 41</t>
+          <t>Sentence neg - 12</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2380,7 +2313,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2392,7 +2325,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sentence neg - 52</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2404,7 +2337,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 49</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2416,7 +2349,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sentence neg - 30</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2428,7 +2361,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2440,7 +2373,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sentence neg - 64</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2452,7 +2385,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2464,7 +2397,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2476,7 +2409,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2488,7 +2421,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2500,7 +2433,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2512,7 +2445,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2524,7 +2457,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2536,7 +2469,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2548,7 +2481,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2560,7 +2493,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Sentence ntr - 85</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2572,7 +2505,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2584,7 +2517,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2620,7 +2553,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence neg - 23</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2632,7 +2565,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2644,7 +2577,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Sentence neg - 57</t>
+          <t>Sentence neg - 44</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2656,7 +2589,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence neg - 47</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2668,7 +2601,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Sentence neg - 8</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2680,7 +2613,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2692,7 +2625,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2704,7 +2637,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence ntr - 99</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2716,7 +2649,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sentence neg - 58</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2728,7 +2661,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 63</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2740,7 +2673,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Sentence neg - 36</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2752,7 +2685,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Sentence neg - 53</t>
+          <t>Sentence neg - 29</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2764,7 +2697,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Sentence neg - 50</t>
+          <t>Sentence neg - 11</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2776,7 +2709,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Sentence neg - 30</t>
+          <t>Sentence neg - 50</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2788,7 +2721,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2800,7 +2733,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2812,7 +2745,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2824,7 +2757,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2836,7 +2769,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2848,7 +2781,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Sentence neg - 3</t>
+          <t>Sentence neg - 8</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2860,7 +2793,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -2872,7 +2805,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Sentence neg - 1</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -2884,7 +2817,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -2896,7 +2829,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Sentence neg - 45</t>
+          <t>Sentence neg - 20</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -2908,7 +2841,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Sentence neg - 49</t>
+          <t>Sentence neg - 61</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -2918,6 +2851,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Debug Output/dubg_trials.xlsx
+++ b/Debug Output/dubg_trials.xlsx
@@ -381,7 +381,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -393,7 +393,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -405,7 +405,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -417,7 +417,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -429,7 +429,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -441,7 +441,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -453,7 +453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -465,7 +465,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -501,7 +501,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sentence neg - 49</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -537,7 +537,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence neg - 23</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -549,7 +549,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sentence neg - 12</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -561,7 +561,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sentence neg - 41</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -573,7 +573,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sentence neg - 53</t>
+          <t>Sentence neg - 3</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence neg - 29</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -597,7 +597,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sentence neg - 45</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence neg - 50</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sentence neg - 49</t>
+          <t>Sentence neg - 23</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -633,7 +633,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 3</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sentence neg - 12</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -669,7 +669,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sentence neg - 41</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sentence neg - 53</t>
+          <t>Sentence neg - 29</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -705,7 +705,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sentence neg - 45</t>
+          <t>Sentence neg - 50</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -729,7 +729,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -741,7 +741,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -753,7 +753,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -765,7 +765,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -789,7 +789,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -801,7 +801,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -813,7 +813,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -825,7 +825,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -837,7 +837,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -849,7 +849,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -861,7 +861,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence neg - 60</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -885,7 +885,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence neg - 11</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -897,7 +897,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence neg - 62</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -909,7 +909,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 1</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -921,7 +921,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sentence neg - 8</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -933,7 +933,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sentence neg - 23</t>
+          <t>Sentence neg - 45</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -945,7 +945,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence neg - 60</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sentence neg - 50</t>
+          <t>Sentence neg - 11</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence neg - 62</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -981,7 +981,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sentence neg - 8</t>
+          <t>Sentence neg - 1</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -993,7 +993,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sentence neg - 23</t>
+          <t>Sentence neg - 45</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1005,7 +1005,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1017,7 +1017,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1029,7 +1029,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1041,7 +1041,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sentence neg - 50</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1053,7 +1053,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1077,7 +1077,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1089,7 +1089,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1101,7 +1101,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1113,7 +1113,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1125,7 +1125,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1137,7 +1137,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1149,7 +1149,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1161,7 +1161,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1173,7 +1173,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1185,7 +1185,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 84</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1197,7 +1197,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sentence neg - 60</t>
+          <t>Sentence neg - 23</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1209,7 +1209,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sentence neg - 29</t>
+          <t>Sentence ntr - 84</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1233,7 +1233,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sentence neg - 47</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1269,7 +1269,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence neg - 20</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1281,7 +1281,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sentence neg - 62</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1293,7 +1293,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence neg - 49</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1305,7 +1305,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1317,7 +1317,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sentence neg - 43</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1329,7 +1329,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence neg - 29</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1341,7 +1341,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1353,7 +1353,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1365,7 +1365,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sentence ntr - 78</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1377,7 +1377,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sentence neg - 4</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1389,7 +1389,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1401,7 +1401,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sentence neg - 57</t>
+          <t>Sentence neg - 3</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1413,7 +1413,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1425,7 +1425,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1437,7 +1437,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1449,7 +1449,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1461,7 +1461,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence neg - 47</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1473,7 +1473,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sentence neg - 53</t>
+          <t>Sentence ntr - 84</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1485,7 +1485,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1497,7 +1497,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sentence neg - 41</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1509,7 +1509,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence neg - 28</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1521,7 +1521,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sentence neg - 42</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1545,7 +1545,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sentence neg - 45</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1557,7 +1557,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1569,7 +1569,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence neg - 36</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1581,7 +1581,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sentence neg - 28</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1593,7 +1593,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 4</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1605,7 +1605,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sentence neg - 63</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1617,7 +1617,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence neg - 64</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1629,7 +1629,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1641,7 +1641,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sentence neg - 67</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1653,7 +1653,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence neg - 61</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1665,7 +1665,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1677,7 +1677,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sentence neg - 51</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1689,7 +1689,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1701,7 +1701,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sentence neg - 12</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1713,7 +1713,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence neg - 50</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1725,7 +1725,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1737,7 +1737,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sentence neg - 49</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1749,7 +1749,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 51</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1761,7 +1761,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sentence neg - 30</t>
+          <t>Sentence ntr - 84</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1785,7 +1785,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 23</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1797,7 +1797,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sentence neg - 60</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1809,7 +1809,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1821,7 +1821,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence neg - 16</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1833,7 +1833,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sentence neg - 29</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1845,7 +1845,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence neg - 20</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1857,7 +1857,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sentence neg - 47</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1869,7 +1869,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence neg - 49</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1881,7 +1881,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sentence neg - 62</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1893,7 +1893,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1905,7 +1905,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sentence neg - 43</t>
+          <t>Sentence neg - 29</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1917,7 +1917,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1929,7 +1929,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -1941,7 +1941,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -1953,7 +1953,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -1965,7 +1965,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -1977,7 +1977,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sentence neg - 4</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -1989,7 +1989,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sentence ntr - 78</t>
+          <t>Sentence neg - 3</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2001,7 +2001,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2013,7 +2013,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sentence neg - 57</t>
+          <t>Sentence ntr - 87</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2025,7 +2025,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2037,7 +2037,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2049,7 +2049,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sentence ntr - 96</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2061,7 +2061,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence neg - 47</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2073,7 +2073,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sentence neg - 53</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2085,7 +2085,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sentence ntr - 74</t>
+          <t>Sentence neg - 9</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2097,7 +2097,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sentence ntr - 78</t>
+          <t>Sentence ntr - 107</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2109,7 +2109,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sentence neg - 41</t>
+          <t>Sentence neg - 28</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2121,7 +2121,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2133,7 +2133,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sentence neg - 42</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2145,7 +2145,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sentence neg - 45</t>
+          <t>Sentence ntr - 84</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2169,7 +2169,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sentence ntr - 86</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2181,7 +2181,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence neg - 36</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2193,7 +2193,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sentence neg - 28</t>
+          <t>Sentence ntr - 91</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2205,7 +2205,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence neg - 4</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2217,7 +2217,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Sentence neg - 63</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2229,7 +2229,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sentence ntr - 104</t>
+          <t>Sentence neg - 64</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2241,7 +2241,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sentence neg - 67</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2253,7 +2253,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2265,7 +2265,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence neg - 61</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2277,7 +2277,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sentence neg - 51</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2289,7 +2289,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence neg - 2</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2301,7 +2301,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sentence neg - 12</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2313,7 +2313,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2325,7 +2325,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 50</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2337,7 +2337,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sentence neg - 49</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2349,7 +2349,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2361,7 +2361,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sentence ntr - 97</t>
+          <t>Sentence neg - 51</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2373,7 +2373,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sentence neg - 30</t>
+          <t>Sentence ntr - 83</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2385,7 +2385,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2397,7 +2397,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2409,7 +2409,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2421,7 +2421,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2433,7 +2433,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2445,7 +2445,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2457,7 +2457,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 109</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2469,7 +2469,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2481,7 +2481,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2505,7 +2505,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2517,7 +2517,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Sentence ntr - 93</t>
+          <t>Sentence ntr - 76</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2529,7 +2529,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2541,7 +2541,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sentence neg - 42</t>
+          <t>Sentence ntr - 101</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2553,7 +2553,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sentence neg - 23</t>
+          <t>Sentence neg - 67</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2565,7 +2565,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 51</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2577,7 +2577,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Sentence neg - 44</t>
+          <t>Sentence neg - 60</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2589,7 +2589,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Sentence neg - 47</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2601,7 +2601,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 75</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2613,7 +2613,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence ntr - 71</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2625,7 +2625,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence neg - 45</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2637,7 +2637,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Sentence ntr - 99</t>
+          <t>Sentence neg - 49</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2649,7 +2649,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence neg - 62</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2661,7 +2661,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Sentence neg - 63</t>
+          <t>Sentence neg - 4</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2673,7 +2673,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 108</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2685,7 +2685,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Sentence neg - 29</t>
+          <t>Sentence neg - 11</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2697,7 +2697,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Sentence neg - 11</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2709,7 +2709,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Sentence neg - 50</t>
+          <t>Sentence ntr - 89</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2721,7 +2721,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2733,7 +2733,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 20</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2745,7 +2745,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2757,7 +2757,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence neg - 57</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2769,7 +2769,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Sentence ntr - 102</t>
+          <t>Sentence neg - 41</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2781,7 +2781,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Sentence neg - 8</t>
+          <t>Sentence neg - 64</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2793,7 +2793,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence neg - 12</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -2805,7 +2805,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence neg - 1</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -2817,7 +2817,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -2829,7 +2829,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Sentence neg - 20</t>
+          <t>Sentence neg - 63</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -2841,7 +2841,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Sentence neg - 61</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">

--- a/Debug Output/dubg_trials.xlsx
+++ b/Debug Output/dubg_trials.xlsx
@@ -381,7 +381,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -393,7 +393,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -405,7 +405,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -417,7 +417,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -429,7 +429,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -441,7 +441,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 84</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -453,7 +453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -465,7 +465,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -501,7 +501,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 84</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -537,7 +537,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sentence neg - 23</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -549,7 +549,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -561,7 +561,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -573,7 +573,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sentence neg - 3</t>
+          <t>Sentence neg - 63</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sentence neg - 29</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -597,7 +597,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 12</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sentence neg - 50</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sentence neg - 23</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -633,7 +633,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sentence neg - 3</t>
+          <t>Sentence neg - 63</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence ntr - 84</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -669,7 +669,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence neg - 12</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sentence neg - 29</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -705,7 +705,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sentence neg - 50</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -729,7 +729,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 77</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -741,7 +741,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -753,7 +753,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -765,7 +765,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 77</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -789,7 +789,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -801,7 +801,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -813,7 +813,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -825,7 +825,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -837,7 +837,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -849,7 +849,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -861,7 +861,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sentence neg - 60</t>
+          <t>Sentence ntr - 77</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence neg - 37</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -885,7 +885,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sentence neg - 11</t>
+          <t>Sentence ntr - 77</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -897,7 +897,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sentence neg - 62</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -909,7 +909,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sentence neg - 1</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -921,7 +921,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence neg - 42</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -933,7 +933,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sentence neg - 45</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -945,7 +945,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sentence neg - 60</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sentence neg - 11</t>
+          <t>Sentence neg - 65</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sentence neg - 62</t>
+          <t>Sentence neg - 23</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -981,7 +981,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sentence neg - 1</t>
+          <t>Sentence neg - 37</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -993,7 +993,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sentence neg - 45</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1005,7 +1005,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence neg - 42</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1017,7 +1017,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1029,7 +1029,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence neg - 65</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1041,7 +1041,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence neg - 23</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1053,7 +1053,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1077,7 +1077,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1089,7 +1089,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1101,7 +1101,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1113,7 +1113,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1125,7 +1125,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1137,7 +1137,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1149,7 +1149,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1161,7 +1161,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1173,7 +1173,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1185,7 +1185,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sentence ntr - 84</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1197,7 +1197,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sentence neg - 23</t>
+          <t>Sentence neg - 63</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1209,7 +1209,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sentence ntr - 84</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1233,7 +1233,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1269,7 +1269,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sentence neg - 20</t>
+          <t>Sentence neg - 52</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1281,7 +1281,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1293,7 +1293,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sentence neg - 49</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1305,7 +1305,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1317,7 +1317,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1329,7 +1329,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sentence neg - 29</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1341,7 +1341,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1353,7 +1353,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1365,7 +1365,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1377,7 +1377,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1389,7 +1389,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1401,7 +1401,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sentence neg - 3</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1413,7 +1413,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence neg - 11</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1425,7 +1425,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence ntr - 84</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1437,7 +1437,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence neg - 3</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1449,7 +1449,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1461,7 +1461,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sentence neg - 47</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1473,7 +1473,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sentence ntr - 84</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1485,7 +1485,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1497,7 +1497,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1509,7 +1509,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sentence neg - 28</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1521,7 +1521,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence neg - 12</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1533,7 +1533,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1545,7 +1545,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1557,7 +1557,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1569,7 +1569,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sentence neg - 36</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1581,7 +1581,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1593,7 +1593,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sentence neg - 4</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1605,7 +1605,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence neg - 58</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1617,7 +1617,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sentence neg - 64</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1629,7 +1629,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1641,7 +1641,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence neg - 36</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1653,7 +1653,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sentence neg - 61</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1665,7 +1665,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1677,7 +1677,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1689,7 +1689,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1701,7 +1701,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence neg - 54</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1713,7 +1713,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sentence neg - 50</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1725,7 +1725,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1737,7 +1737,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1749,7 +1749,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sentence neg - 51</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1761,7 +1761,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence neg - 28</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sentence ntr - 84</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1785,7 +1785,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sentence neg - 23</t>
+          <t>Sentence neg - 63</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1797,7 +1797,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1809,7 +1809,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence neg - 22</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1821,7 +1821,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sentence neg - 16</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1833,7 +1833,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1845,7 +1845,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sentence neg - 20</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1857,7 +1857,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1869,7 +1869,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sentence neg - 49</t>
+          <t>Sentence neg - 52</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1881,7 +1881,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1893,7 +1893,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1905,7 +1905,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sentence neg - 29</t>
+          <t>Sentence neg - 34</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1917,7 +1917,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1929,7 +1929,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 84</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -1941,7 +1941,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sentence neg - 10</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -1953,7 +1953,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -1965,7 +1965,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sentence neg - 34</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -1977,7 +1977,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -1989,7 +1989,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sentence neg - 3</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2001,7 +2001,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence neg - 11</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2013,7 +2013,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sentence ntr - 87</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2025,7 +2025,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sentence neg - 17</t>
+          <t>Sentence neg - 3</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2037,7 +2037,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 70</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2049,7 +2049,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence neg - 6</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2061,7 +2061,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sentence neg - 47</t>
+          <t>Sentence ntr - 86</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2073,7 +2073,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 79</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2085,7 +2085,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sentence neg - 9</t>
+          <t>Sentence neg - 17</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2097,7 +2097,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sentence ntr - 107</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2109,7 +2109,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sentence neg - 28</t>
+          <t>Sentence neg - 12</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2121,7 +2121,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sentence ntr - 82</t>
+          <t>Sentence ntr - 68</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2133,7 +2133,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sentence ntr - 100</t>
+          <t>Sentence neg - 7</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2145,7 +2145,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sentence neg - 35</t>
+          <t>Sentence ntr - 98</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sentence ntr - 84</t>
+          <t>Sentence ntr - 95</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2169,7 +2169,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sentence ntr - 72</t>
+          <t>Sentence neg - 30</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2181,7 +2181,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sentence neg - 36</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2193,7 +2193,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sentence ntr - 91</t>
+          <t>Sentence ntr - 81</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2205,7 +2205,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sentence neg - 4</t>
+          <t>Sentence neg - 58</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2217,7 +2217,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Sentence ntr - 69</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2229,7 +2229,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sentence neg - 64</t>
+          <t>Sentence ntr - 105</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2241,7 +2241,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sentence ntr - 73</t>
+          <t>Sentence neg - 36</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2253,7 +2253,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sentence ntr - 88</t>
+          <t>Sentence ntr - 73</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2265,7 +2265,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sentence neg - 61</t>
+          <t>Sentence neg - 10</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2277,7 +2277,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence ntr - 84</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2289,7 +2289,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sentence neg - 2</t>
+          <t>Sentence ntr - 102</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2301,7 +2301,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence neg - 54</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2313,7 +2313,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sentence ntr - 68</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2325,7 +2325,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sentence neg - 50</t>
+          <t>Sentence ntr - 96</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2337,7 +2337,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sentence ntr - 90</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2349,7 +2349,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sentence ntr - 95</t>
+          <t>Sentence ntr - 100</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2361,7 +2361,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sentence neg - 51</t>
+          <t>Sentence neg - 28</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2373,7 +2373,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sentence ntr - 83</t>
+          <t>Sentence ntr - 85</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2385,7 +2385,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sentence ntr - 79</t>
+          <t>Sentence ntr - 94</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2397,7 +2397,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2409,7 +2409,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 77</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2421,7 +2421,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2433,7 +2433,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2445,7 +2445,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2457,7 +2457,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2469,7 +2469,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2481,7 +2481,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2493,7 +2493,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Sentence ntr - 109</t>
+          <t>Sentence ntr - 106</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2505,7 +2505,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Sentence ntr - 106</t>
+          <t>Sentence ntr - 103</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2517,7 +2517,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Sentence ntr - 76</t>
+          <t>Sentence ntr - 97</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2529,7 +2529,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Sentence ntr - 110</t>
+          <t>Sentence ntr - 78</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2541,7 +2541,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sentence ntr - 101</t>
+          <t>Sentence neg - 65</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2553,7 +2553,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sentence neg - 67</t>
+          <t>Sentence ntr - 77</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2565,7 +2565,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Sentence neg - 51</t>
+          <t>Sentence neg - 40</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2577,7 +2577,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Sentence neg - 60</t>
+          <t>Sentence ntr - 72</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2589,7 +2589,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Sentence ntr - 103</t>
+          <t>Sentence ntr - 88</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2601,7 +2601,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Sentence ntr - 75</t>
+          <t>Sentence neg - 61</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2613,7 +2613,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sentence ntr - 71</t>
+          <t>Sentence neg - 37</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2625,7 +2625,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Sentence neg - 45</t>
+          <t>Sentence ntr - 110</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2637,7 +2637,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Sentence neg - 49</t>
+          <t>Sentence neg - 23</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2649,7 +2649,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sentence neg - 62</t>
+          <t>Sentence neg - 26</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2661,7 +2661,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Sentence neg - 4</t>
+          <t>Sentence neg - 18</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2673,7 +2673,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Sentence ntr - 108</t>
+          <t>Sentence ntr - 74</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2685,7 +2685,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Sentence neg - 11</t>
+          <t>Sentence ntr - 93</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2697,7 +2697,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Sentence ntr - 70</t>
+          <t>Sentence ntr - 92</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2709,7 +2709,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Sentence ntr - 89</t>
+          <t>Sentence neg - 25</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2721,7 +2721,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sentence ntr - 94</t>
+          <t>Sentence ntr - 69</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2733,7 +2733,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Sentence neg - 20</t>
+          <t>Sentence neg - 35</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2745,7 +2745,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Sentence ntr - 98</t>
+          <t>Sentence neg - 24</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2757,7 +2757,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Sentence neg - 57</t>
+          <t>Sentence neg - 66</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2769,7 +2769,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Sentence neg - 41</t>
+          <t>Sentence neg - 54</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2781,7 +2781,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Sentence neg - 64</t>
+          <t>Sentence ntr - 90</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2793,7 +2793,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Sentence neg - 12</t>
+          <t>Sentence ntr - 82</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -2805,7 +2805,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Sentence neg - 1</t>
+          <t>Sentence neg - 42</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -2817,7 +2817,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Sentence ntr - 105</t>
+          <t>Sentence neg - 48</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -2829,7 +2829,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Sentence neg - 63</t>
+          <t>Sentence neg - 14</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -2841,7 +2841,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Sentence ntr - 92</t>
+          <t>Sentence ntr - 104</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
